--- a/massage-pathologies.xlsx
+++ b/massage-pathologies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69AA58F8-6BB6-4BA6-B1B5-B0020C9B3BE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0EF0C7-80BA-4B0A-A42C-AB4D92FA2B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{20794535-4FD1-4E45-ACFD-3E2AFC742BC3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="663">
   <si>
     <t>pathology</t>
   </si>
@@ -1602,6 +1602,426 @@
   </si>
   <si>
     <t>! MBLEx Test Prep - Comprehensive Study Guide and Workbook 2020 by David Merlino, LMT, published by Wanderer Studios, 2019</t>
+  </si>
+  <si>
+    <t>Ankylosing Spondylitis is an autoimmune disorder, similar to rheumatoid arthritis, in which the body's immune system attacks and destroys the annulus fibrosus of the intervertebral discs. Over time, the curvature in the vertebrae is lost. Because the intervertebral discs are destroyed, the space between the vertebral bodies lessens, eventually the bones can fuse together, which eliminates any movement between the bones at all.</t>
+  </si>
+  <si>
+    <t>Ankylosing spondylitis is caused by the body's immune system attacking the intervertebral discs for unknown reasons.</t>
+  </si>
+  <si>
+    <t>Pain is an extremely common symptom of ankylosing spondylitis, especially in the neck, base of the skull, and lumbar region. Lack of mobility is a secondary symptom, usually the result of pain.</t>
+  </si>
+  <si>
+    <t>Non-steroidal anti-inflammatory medications may be prescribed to help reduce pain and inflammation in affected areas. Physical therapy, massage therapy, stretching, and range-of-motion exercises are all helpful in maintaining mobility in the vertebral joints and preventing bones from fusing together. If the condition is severe, surgery may be performed to remove fused bone, or to insert metal rods to correct posture.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Massage is indicated for ankylosing spondylitis. Stretching and range-of-motion exercises should be performed within the client's pain tolerance. If the client has difficulty lying supine due to kyphosis, side-lying position may be needed. </t>
+  </si>
+  <si>
+    <t>A bunion is a subluxation of the big toe, the result of the toe pushing back against the first metatarsal. Excessive force against this bone causes the big toe to subluxate medially, creating a large bump.</t>
+  </si>
+  <si>
+    <t>Tight fitting shoes may contribute to the development of bunions. Rheumatoid arthritis may also contribute as well as foot injuries in forming bunions.</t>
+  </si>
+  <si>
+    <t>Pain and swelling may present in the area of the bunion. With bunions, the big toe may cross under the second toe. This may cause calluses or corns to form on the area where these toes rub together. Movement in the big toe may be reduced.</t>
+  </si>
+  <si>
+    <t>How severe the bunion is determines the treatment. Less severe bunions may require only changing shoes or applying a spint to help reset the toe. More severe forms of a bunion may require surgery to correct the placement of the toe.</t>
+  </si>
+  <si>
+    <t>Massage is generally not contraindicated for a bunion. But if the client is experiencing pain as a result of the bunion, massage in the area is to be avoided.</t>
+  </si>
+  <si>
+    <t>Bursitis is a condition that results in inflammation of a bursa, a small sac filled with synovial fluid.</t>
+  </si>
+  <si>
+    <t>Bursae are located all over the body, typically between a tendon and a bone to prevent friciton and irritation. When there is repeated stress placed on the bursa, it can become inflamed. Bursitis may affect many different joints, including the knee, shoulder, elbow, hip, and ankle. Bursitis is most often caused by repetitive motions in the affected joint, which may irritate the bursa. Trauma may also result in bursitis such as fractures or tendonitis.</t>
+  </si>
+  <si>
+    <t>Typically a joint affected with bursitis will be inflamed and painful to move. The inflammation may be moderate or severe.</t>
+  </si>
+  <si>
+    <t>Bursitis is easily treatable, primarily with rest and ice. Depending on the severity, the bursa may also need to be surgically drained or removed, or injected with corticosteroids to reduce the inflammation.</t>
+  </si>
+  <si>
+    <t>Bursitis is considered a local contraindication for massage. Cold packs may be used to help decrease inflammation in the area.</t>
+  </si>
+  <si>
+    <t>A dislocation is when a bone at an articulation becomes displaced from its normal location. A dislocation, in the acute stage, results in immobilization of the joint and temporary deformation. It may also be painful and result in inflammation around the joint</t>
+  </si>
+  <si>
+    <t>Dislocations are most commonly the result of trauma to the joint, which pushes a bone out of place. The most commno areas for dislocations are the fingers and shoulder, but dislocations may occur in many other joints as well, such as the knee or hip. Dislocations may result in tearing of tendons, ligaments, muscles, or in teh case of the shoulder of hip, the labrum (circular cartilage surrounding the joint). Teh dislocated joint, while most commonly returns to normal strength and function after being relocated, may become prone to dislocations in the future. This may cause arthritis to develop.</t>
+  </si>
+  <si>
+    <t>Dislocations are extremely painful, and often present with deformity of the joint and an inability to move the joint. Inflammation may be present in some cases.</t>
+  </si>
+  <si>
+    <t>Treatment of a dislocation in the acute stage primarily involves trying to get the bone back to its norml position, known as reduction. After the joint has returned to its normal position, it is typically immobilized for a number of weeks to reduce revurrence of dislocation and to help the tissues around the joint to heal. If the dislocation is severe and unable to be returned to position, surgery may be required.</t>
+  </si>
+  <si>
+    <t>In the acute stage, a dislocation is considered a local contraindication. If the joint has healed, massage may be performed on the area with caution. Stretching and range-of-motion should be avoided because the joint is much weaker after a dislocation.</t>
+  </si>
+  <si>
+    <t>A fracture is a break in a bone. There are several different types of fractures, including transverse, greenstick, oblique, and spiral.</t>
+  </si>
+  <si>
+    <t>Fractures are the result of trauma to a bone. Despite many different types of fractures, every fracture is categorized as one of the following: Simple or Compound. A simple fracture is a fracture that does not break through the skin, and does not damage any surrounding tissue. a compound fracture is more severe and breaks through the skin and damages surrounding tissue. They are also more prone to infection due to exposure to the outside environment.</t>
+  </si>
+  <si>
+    <t>Fractures result in deformity of the affected bone, pain, immobilization of the area, and inflammation. In the case of compound fractures, external bleeding may also occur. Despite most fractures being the result of blunt trauma, certain diseases that weaken the bones may also cause fractures, such as osteoporosis.</t>
+  </si>
+  <si>
+    <t>Fractures should be treated immediately. A cast or splint may be applied, depending on which bone is fractured. Other fractures, such as vertebrae fractures, may need more extensive treatment, including metal plates or bone grafts.</t>
+  </si>
+  <si>
+    <t>In the acute stage, a fracture should be considered a local contraindication. After the fracture has healed, massage may be performed on the area. If metal plaates, rods, screws, or pins have been placed in the bone, caution should be taken in the area, but massage may still be performed.</t>
+  </si>
+  <si>
+    <t>Gout is the form of arthritis, mostly seen around the base of the big toe, but may also affect other joints in the body, such as the hands and fingers.</t>
+  </si>
+  <si>
+    <t>Gout is the result of an over-abundance of uric acid crystals in the body. Gravity pulls the uric acid crystals down the body, where they collect in the most distal points in the limbs, the big toes, hands and fingers. Gout is typically the result of the kidneys not excreting enough uric acid, or the body producting too much uric acid.</t>
+  </si>
+  <si>
+    <t>Gout may be extremely painful in the acute stage as the crystals collect in the joints. Inflammation may set in, which can increase the pressure and pain in the joint. Loss of range-of-motion may also occur. Untreated, gout may result in kidney stones.</t>
+  </si>
+  <si>
+    <t>Treatments for gout include non-steroidal anti-inflammatory drugs and/or corticosteroids to reduce pain and inflammation. Gout may also require the use of certain medications that prevent the creatioin of uric acid in the body.</t>
+  </si>
+  <si>
+    <t>Gout is considered a local contraindication.</t>
+  </si>
+  <si>
+    <t>A herniated disc is a condition affecting the vertebral column, which may cause intense pain and numbness.</t>
+  </si>
+  <si>
+    <t>An intervertebral disc, located between two vertebrae, is made of two parts: the nucleus pulposus, and the annulus fibrosus. The nucleus pulposus is a gelatinous substance located in the center of the disc. The annulus fibrosus is the part of the disc made of thick cartilage. If a tear occurs in the annulus fibrosus, the nucleus pulposus may protrude through the torn section, which may place pressure on spinal nerves emerging from the spinal cord. This is a herniated disc. A herniated disc is primarily caused by degeration of a disc, which takes place gradually. This makes injury of the disc much easier in actions such as lifting and twisting. Other times, trauma may cause a herniated disc, such as in car accidents.</t>
+  </si>
+  <si>
+    <t>Herniated discs may result in pain and/or numbness due to the disc placing pressure on the spinal nerves. Because numbness may occur, weakness in the muscles innervated by the nerves may also set in due to impaired function.</t>
+  </si>
+  <si>
+    <t>Treatment for a herniated disc varies depending on the severity. Pain medication may help control pain. Muscle relaxers may help take pressure off the area of the herniation. Physical therapy may also contribute to lessening the effects of the herniated disc. Very rarely, surgery may be required.</t>
+  </si>
+  <si>
+    <t>Herniated discs are considered local contraindications. The area around the hernia may be massaged, but the disc itself should be avoided.</t>
+  </si>
+  <si>
+    <t>Kyphosis is a condition affecting the thoracic vertebrae, resulting in hyper-curvature. Another name for kyphosis is "Dowager's Hump"</t>
+  </si>
+  <si>
+    <t>A kyphotic curvature in the vertebrae is a curvature that moves posteriorly. If the curvature is exaggerated, it is known as kyphosis. Kyphosis has many different causes. Kyphosis may be caused by extremely tight muscles (such as pectoralis minor and serratus anterior) pulling the scapulae anteriorly, which rounds the back. Kyphosis may also be the result of bone degenaration (osteoporosis), disc degernaration (ankylosing spondylitis), or even birth defects.</t>
+  </si>
+  <si>
+    <t>Kyphosis may cause pain in the back, and difficulty in movement and breathing as a result. It may also result in the lumbar vertebrae losing its curvature, a condition known as flat back.</t>
+  </si>
+  <si>
+    <t>Kyphosis may vary from mild to severe, depending on the cause. Treatments include exercises that strenthen the muscles of the back, stretching of tight muscles that may contribute to kyphosis, braces to keep the vertebrae properly aligned, and possibly even surgery if it's warranted.</t>
+  </si>
+  <si>
+    <t>Kyphosis is not contraindicated for massage. A person with kyphosis may be uncomfortable lying supine, and may need to be placed into side-lying position for comfort. Massage of the pectoralis minor and serratus anterior muscles may help the scapulae return to theri normal locations, which can help straighten the vertebrae.</t>
+  </si>
+  <si>
+    <t>Lordosis is a condition affecting the lumbar vertebrae, resulting in hyper-curvature. Another name for lordosis is 'Swayback.'</t>
+  </si>
+  <si>
+    <t>A lordotic curve in the vertebrae is a curvature that moves anteriorly. If the curvature is exaggerated, it is known as lordosis. Lordosis has many different causes. Lordosis may be caused by tight muscles (such as psoas major, iliacus, quadratus lumborum, and rectus femoris), weak muscles (rectus abdominus or hamstrings), obesity, or bone diseases (osteoporosis). Pregnancy is also a common cause of lordosis, but the condition typically subsides post-pregnancy.</t>
+  </si>
+  <si>
+    <t>Lordosis may place excessive pressure on the vertebrae, and alter a person's stance and gait. Lordosis may result in pain in the back, and cause difficulty moving.</t>
+  </si>
+  <si>
+    <t>Treatment primarily includes strengthening weak muscles, stretching tight muscles, and lifestyle changes such as adjusting posture, diet, and exercise.</t>
+  </si>
+  <si>
+    <t>Lordosis is not contraindicated for massage. Stretching exercises on the psoas major, iliacus, and quadratus lumborum muscles may help return the lumbar spine back to its normal curvature.</t>
+  </si>
+  <si>
+    <t>Osgood-Schlatter Disease is a repetitive strain injury, caused by over-use of the patellar tendon.</t>
+  </si>
+  <si>
+    <t>Osgood-Schlatter Disease primarily affects adolescents, particularly those involved in sports. Over-use of the quadriceps during activities such as running and jumping can cause tightness in the patellar tendon. When the patellar tendon tighten, it pulls proximally on teh tibial tuberosity. Because the bone is still growing, the force of the patellar tendon on the tibial tuberosity can cause an over-growth of bone, resulting in a bony lump. Males are more likely to develop this condition than females, but instances in females are increasing as participation in sports by females increases.</t>
+  </si>
+  <si>
+    <t>Osgood-Schlatter Disease may cause pain, but it varies from person to person. The pain may be mild, or it may be more intense, making movement of the knee difficult. Despite comlications from Osgood-Schlatter Disease being rare, inflammation of the area may persist over time. The bony lump produced by increased bone production may also remain.</t>
+  </si>
+  <si>
+    <t>Treatment is mild, usually nothing more than pain relievers, rest, and ice. Exercises that stretch the quadriceps are recommended.</t>
+  </si>
+  <si>
+    <t>In the acute stage, massage of the tibial tuberosity is a local contraindication. If the client is beyond the age of 21, and bone is no longer being produced at the tibial tuberosity, massage on the area may be performed. In the acute stage, massage and stretching techniques should be performed on the quadriceps to loosen the muscles and take pressure off the patellar tendon, which can reduce the excessive development of bone at the tibial tuberosity.</t>
+  </si>
+  <si>
+    <t>Osteoarthritis is the most common form of arthritis, which is inflammation of a joint.</t>
+  </si>
+  <si>
+    <t>Osteoarthritis is also known as 'wear-and-tear arthritis' and caused by damage to the hyaline cartilage separating one bone from another. The cartilage between bones reduces friction between the bones, and absorbs shock in the joint. Over time, the articular cartilage may begin to break down and wear away. This causes irritation in the joint and increases friction between the bones, which causes inflammation. As this persists, damage to the bone may take place. The most common location of osteoarthritis is the knee, but in massage therapy, it may also affect the carpometacarpal joint of the thumb (saddle joint).</t>
+  </si>
+  <si>
+    <t>Osteoarthritis may cause pain, difficulty mvoing the affected joint, and bone spurs in the joint due to increased friction between the bones. When the condition advances to the point of the joint being mostly unusable, joint replacement surgery may be recommended.</t>
+  </si>
+  <si>
+    <t>Treatment includes non-steroidal anti-inflammatory drugs, lifestyle and dietary changes if caused by obesity, and alternative methods such as yoga.</t>
+  </si>
+  <si>
+    <t>In the acute stage, massage is considered a local contraindication for any form of arthritis because it can bring more blood into the area and increase inflammation. In the post-acute stage, massage should be performed on the area usually affected to bring fresh blood and nutrients into the area, and to increase production of synovial fluid in the joint. This can help reduce irritation in the joint and lessen the effects of arthritis.</t>
+  </si>
+  <si>
+    <t>osteoporosis is a condition that causes weakness and degeneration in the bones.</t>
+  </si>
+  <si>
+    <t>Osteoporosis mainly affects post-menopausal women. After menopause, a woman's body produces less estrogen. Estrogen helps the bones grow and mature during growth stages of a woman's life. When estrogen levels drop post-menopause, osteoclast levels increase, and more bone is destroyed than is created. When this occurs, the bones become brittle, weak, and prone to fracture. Osteoporosis, in addition to making bones brittle, may also contribute tothe development of kyphosis and back pain. One of the most common places for fracture to occur is in the neck of the femur. The femur should be able to support 2,000 pounds per square inch as it is the stongest bone in the body. When the femur becomes weakend, it makes it incredibly easy to break. If a fracure takes place around the hip joint, joint replacement surgery is often required.</t>
+  </si>
+  <si>
+    <t>In the early stages of osteoporosis, there are usually no symptoms. As bone loss increases over time, a person may experience back pain, hunched posture (kyphosis) and bones that fracture easier than usual. These symptoms often become worse as the disease progresses and more bone tissue is lost.</t>
+  </si>
+  <si>
+    <t>Treatments for osteoporosis include estrogen replacement therapy, and weight-bearing exercise earlier in life before any symptoms of osteoposrosis surface. Weight-bearing exercise, such as squats and dead-lifts help to strenthen the bones substantially reducing the risk of developing ostoporosis in older age.</t>
+  </si>
+  <si>
+    <t>Massage is indicated for osteoporosis. However, precautions should be taken, such as performing a lighter massage, and not performing techniques such as tapotement to avoid damaging bone.</t>
+  </si>
+  <si>
+    <t>Rheumatoid Arthritis is an autoimmune disorder, resulting in inflammation, pain, and deformity of the joints around the hands and wrists.</t>
+  </si>
+  <si>
+    <t>Around synovial joints, there is a membrane called the synovial membrane, which supplies joints with synovial fluid. In rheumatoid arthritis, the body's immune systems attacks the synovial membranes, destroying them. This is especially common in the metacarpophalangeal joints. After the synovial membranes have been destroyed, extremely thick, fibrous material replaces them, which not only makes movement painful and difficult, but can also cause deformity, turning the fingers into an adducted position.</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis can produce pain and discomfort in the affected joints, as well as cause pain and stiffness after long periods of inactivity in the joints. Fever and fatigue may also be symptoms of general rheumatoid arthritis. Less commonly, some people may experience symptoms in structures completely urnrelated to the affected joints, such as the eyes, heart, lungs, and kidneys.</t>
+  </si>
+  <si>
+    <t>There is no cure for rheumatoid arthritis, but treatments include non-steroidal anti-inflammatory drugs, corticosteroids, and physical therapy.</t>
+  </si>
+  <si>
+    <t>In the acute stage, rheumatoid arthritis is considered a local contraindication, as the pain may be too intesne for the client to receive massage on the affected area. In general, however, a client with rheumatoid arthritis may receive massage to help ease pain associated with inflammation if the body can tolerate a light-to-medium pressured massage.</t>
+  </si>
+  <si>
+    <t>Scoliosis is a condition causing the vertebral column, usually in the thoracic region, to be pulled into a lateral position.</t>
+  </si>
+  <si>
+    <t>The causes of scoliosis are unknown, but there may be a hereditary link. Scoliosis typically develps around the beginning stages of puberty. Scoliosis is mostly mild in severity, but can become mush more prominent, which can put incredible strain on the ribs, vertebrae, and hips. With scoliosis, one hip may be higher than the other, which causes a discrepancy in gait. Tight muscles may also contribute to the  development of scoliosis, as seen in cases such as a hypertonci rhomboid major and minor unilaterally, which pulls the vertebrae to one side.</t>
+  </si>
+  <si>
+    <t>If soliosis is severe, damage to the heart or lungs may occur due to the deformity of the rib cage. Back pain may also persist.</t>
+  </si>
+  <si>
+    <t>Treatment, while commonly unnecessary, may include the use of braces to correct posture, the use of chiropractic therapy, massage therapy, or in severe cases, surgery with metal rod implantation.</t>
+  </si>
+  <si>
+    <t>Scoliosis is indicated for massage. In instances where scoliosis is caused by hypertonic muscles, such as the rhomboids unilaterally, massage may help loosen the muscles and allow the bones to realign themselves. If surgery has been performed and metal rods have been placed in the back, massage should be performed lighter on the area, and the use of cold packs should be avoided.</t>
+  </si>
+  <si>
+    <t>A sprain is an injury to a ligament.</t>
+  </si>
+  <si>
+    <t>Sprains are much less likely to be caused by repetitive motions, unlike strains. Sprains typically occur quickly, causing tears in a ligament. Like strains, sprains may be broken down in severity by using grades: 1,2, and 3. A grade 1 sprain is caused by stretching of a ligament, but does not cause major tearing. Common grade 1 sprains may be caused by activities such as running. After 24/48 hours, the ligament should return to normal, and any pain and/or inflammation should subside. A grade 2 sprain, such as a high ankle sprain, causes tearing of  a ligament and presents with bruising and inflammation. Grade 2 sprains may require surgery to repair, or they may heal on their own, depending on the severity of the tear. A grade 3 sprain is a complete rupture of a ligament, and much like a grade 3 strain, does require surgery to repair. The most common form of grade 3 sprain is a torn anterior cruciate ligament (ACL, the ligament holding the femur and tibia together), most commonly caused by sports or automobile accidents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Symptoms of sprains are very similar to symptoms of strains, including inflammation, pain, and potential bruising depending on the grade of sprain. If the sprain is severe, a pop in the joint may be heard or felt at the time of injury. </t>
+  </si>
+  <si>
+    <t>Sprains take much longer to heal than strains, due to ligaments being avascular, compared to muscles and tendons, which have a rich blood supply. Treatment for sprains very depending on the severity of the sprain. The less severe, the more likely it is that rest, ice, and elevation will suffice. Surgery is only required when there is no chance of the ligament repairing itself.</t>
+  </si>
+  <si>
+    <t>In the acute stage, sprains are local contraindications. If inflammation has subsided from a first degree sprain, gentle massage in the area may be performed to bring fresh blood and nutrients into the area and speed healing. Contrast therapy may be performed in addition to gentle massage to reduce any inflammation that may occur due to the massage.</t>
+  </si>
+  <si>
+    <t>Temporomandibular Joint Dysfunction (TMJD) is a condition affecting the mandible, causing simple tasks such as chewing to become painful and difficult.</t>
+  </si>
+  <si>
+    <t>The temporomandibular joint is the joint that connects the mandible to the temporal bone. Between the bones, there is a small disc of cartilage, used to prevent friction between the bones and to make movement smooth. If there is arthritis in the joint, or the disc is damaged, it can result in temporomandibular joint dysfunction. This can cause pain, difficulty in moving the jaw, and produce a  clicking sensation when the jaw opens. Often times, the muscles that connect to the mandible (temporalis, lateral pterygoid) may tighten and pull the mandible out of place.</t>
+  </si>
+  <si>
+    <t>Temporomandibular joint dysfunction can produce pain in the face, a clicking or popping sound when closing the mouth and difficulty in opening the mouth. The jaw may become locked while open.</t>
+  </si>
+  <si>
+    <t>Treatments vary depending on the primary cause, ranging from prescription muscle relaxants and pain relievers, to physical and massage therapy.</t>
+  </si>
+  <si>
+    <t>Massage is indicated for temporomandibular joint dysfunction. Massage of the temporalis may help the jaw realign and reduce the pain and clicking.</t>
+  </si>
+  <si>
+    <t>Cystitis is a bacterial infection resulting in inflammation of the bladder. Often, it can involve the entire Urinary System and is then known as a Urinary Tract Infection (UTI). Cystitis is most common in women, as the female urethra is shorter than the male urethra, giving bacteria a shorter passage to the bladder.</t>
+  </si>
+  <si>
+    <t>Cystitis is caused most commonly by E. Coli entering the urethra, then reproducing. The increased amount of bacterium in the urethra causes the infection to spread upwards into the bladder. Cystitis can cause numerous symptoms, including blood in the urine, burning sensations while urinating, and a frequent urge to urinate. If untreated, the infection may spread to the kidneys. When this happens, it is known as pyelonephritis.</t>
+  </si>
+  <si>
+    <t>Symptoms of cystitis include a frequent urge to urinate, a painful bruning sensation upon urination, urinating small amounts at a time, fever, and blood in the urine.</t>
+  </si>
+  <si>
+    <t>Cystitis is a bacterial infection, and ist reated with antibiotics.</t>
+  </si>
+  <si>
+    <t>In the acute stage of infection, massage is contraindicated for cystitis. Once the infection has cleared, massage may be performed.</t>
+  </si>
+  <si>
+    <t>Kidney Stones, also known as Nephroliathiasis, are deposits of salts and minerals created inside the kidney, which are hard and rough. They vary in size and may cause many differing health complications. Kidney Stones are more common in people who are obese or have a family history of kindey stone development. Diet may play a role as well.</t>
+  </si>
+  <si>
+    <t>Kidney stones may be caused by numerous factors. Most commonly, they are caused by increased amounts of calcium oxalate, which is found in many types of food. Excessive amounts of calcium oxalate can cause stones to develop. Uric acid may also produce stones if a person does not drink enough fluids. A high protein diet may contribute to the development of uric acid stones. Less commonly, struvite stones may form, which are the result of bacterial infections of the urinary tract.</t>
+  </si>
+  <si>
+    <t>Kidney stones are laregly asymptomatic until they leave the kindey and enter the ureter. When this occurs, pain may be felt around the abdomen, groin, back, and sides. Painful urination may take place as the stne blocks the ureter. The urine may hae a pink or brown appearance due to blood in the urine. An inadequate amount of urine may be produced due to blockages.</t>
+  </si>
+  <si>
+    <t>Many treatment options are available. In less severe cases, increasing water intake can help flush the kidneys of the increased calcium and help move the stones out of the body. To aid in moving the stone out of the body, a doctor may prescribe medications that help to relax the smooth muscle in the ureter, known as alpha blockers. In more severe cases, stones may be destroyed still inside the body using a treatment known as extracorporeal shock wave lithotripsy. The stones are broken down using sound waves and then are bale to be passed out of the body easier. If the stones are too big to be destroyed using sound waves, they may be removed surgically.</t>
+  </si>
+  <si>
+    <t>Kidney stones are not considered a contraindication for massage therapy.</t>
+  </si>
+  <si>
+    <t>Pyelonephritis is a bacterial infection of the kindey, usually beginning in the urethra or bladder. The infection spreads upwards through the ureters and into the kidneys. Pyelonephritis is considered a serious condition, and if suspected, should be seen by a doctor immediately for treatment.</t>
+  </si>
+  <si>
+    <t>Bacteria enters the urethra even though urinating usually cleans out the urethra, but sometimes bacteria stays in the urethra and reproduce then spread up into the bladder and even further up into the ureters and kidneys. Women are more likely than men to develop urinary tract infections due to a shorter urethra.</t>
+  </si>
+  <si>
+    <t>Symptoms of an acute infection in the kidneys include pain in the back, groin, or abdomen, nausea, vomiting, fever, blood in the urine, burning during urination, and an urge to constantly urinate. Cloudy urine may also be a sign of an infection especially if there is a foul odor.</t>
+  </si>
+  <si>
+    <t>Antibiotics are used to combat pyelonephritis. Typically they are administered orally, but in more severe cases that require hospitalization, they may be administered via IV. Pain relievers may be used for associated pain.</t>
+  </si>
+  <si>
+    <t>Pyelonephritis is considered an absolute contraindication. A client who suspects a kindey infection should seek medical treatment.</t>
+  </si>
+  <si>
+    <t>Renal failure is kindey failure, where kidneys stop funcitoning properly. This can lead to the body being unable to eliminate waste, electrolytes, and exessive fluid. This can lead to dangerous,even fatal levels of these substances in the body.</t>
+  </si>
+  <si>
+    <t>Renal failure is commonly the result of another condition damaging the kidney enough to impair function. Examples are hypertension, glomerulonephritis, pyelonephritis, diabetes, and polycystic kidney disease.</t>
+  </si>
+  <si>
+    <t>Usually, renal failure occurs gradually, and symptoms become more known as the kidney begins to lose funciton. Fatigue, nausea, vomiting, hypertension, increased fluid accumulation in the lower limbs, and loss of appetite are common symptoms.</t>
+  </si>
+  <si>
+    <t>As the kidneys begin failing, treatment usually revolves around treating the symptoms to try and slow the disease. Once the kidneys have experienced too much damage and the body is unable to eliminate waste and fluid effectively, dialysis may be performed to remove these substances, either through the blood or through the peritoneum. Kidney transplants may be performed. Instead of removign the damaged kidneys, a doctor will leave the damaged kidneys in the body and attach another kidney. Despite not functioning optimally, the damaged kidneys can still assist the new kidney in filtering waste and fluid, even though it may only be a small amount.</t>
+  </si>
+  <si>
+    <t>Because massage may increase the load on kidneys by helping rid the body of waste, massage is considered an absolute contraindication in clients with renal failure. There is debate amongst kidney specialists on this matter, thugh, and some believe massage therapy does not do harm in people with renal failure.</t>
+  </si>
+  <si>
+    <t>Urethritis is inflammation of the urethra, usually caused by a bacterial infection. It is extremely treatable.</t>
+  </si>
+  <si>
+    <t>Urethritis is caused by a bacterial infection. Bacteria enters the urethra and reproduces, resulting in an infection. The infeciton may spread up the urinary tract, and may lead to cystitis or pylonephritis if left untreated. Less commonly, urethritis may be caused by herpes simplex.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pain upon urination is the primary symptom of urethritis. A less common symptom is inability to effectively urinate, known as dysuria. Discharge from the vagina may present, and the urine may contain blood. </t>
+  </si>
+  <si>
+    <t>Because urethritis is most commonly caused by bacterial infection, antibiotics are prescribed to destroy the bacteria and prevent the infection from moving further into the Urinary System.</t>
+  </si>
+  <si>
+    <t>Massage is indicated for clients with urethritis.</t>
+  </si>
+  <si>
+    <t>Basal Cell Carcinoma is a type of skin ancer typically seen around the face, head, neck, and arms.</t>
+  </si>
+  <si>
+    <t>Basal cell carcinoma is the most common form of skin cancer, caused by exposure to ultraviolet light. The tumor grows extremely slowly, which makes basal cell carcinoma much more treatable than other types of skin cancer. Because it is much more treatable, it is considered the least serious form of skin cancer. Basal Cell carcinoma is considered a malignant form of cancer, due to its ability to spread to the tissues immediately surrounding it. It will very rarely spread to other organs.</t>
+  </si>
+  <si>
+    <t>Basal Cell carcinaoma tumors may appear to have blood vessels in them, and vary in color from black to brown to pink. These growths may bleed easily.</t>
+  </si>
+  <si>
+    <t>Treatments for basal cell carcinoma includes surgical excision of the tumor, freezing the tumor, or in more serious cases, medications that prevent the cancerous cells from spreading to other tissues.</t>
+  </si>
+  <si>
+    <t>Massage is indicated for a client with basal cell carcinoma but the tumor is a local contraindication, and massage around the areas should be avoided to prevent spreading of cnacerous tissue through the increased blood and lymph flow.</t>
+  </si>
+  <si>
+    <t>Breast Cancer is cancer of breast tissue, including lymph nodes and vessels in the breast and axillary region. Breast cancer is the second most common form of cancer diagnosed in women, behind skin cancer. Breast cancer is much more common in women, but it can also occur in men. Breast cancer can spread throughout the breast and to other regions of the body, and is considered a malignant form of cancer.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breast cancer occurs when breast tissue begins growing abnormally, forming a tumor that feels like a lump under the skin. Breast cancer may be a genetic disorder, or may be the cause of unspecified environmental factors. Women who are older in age tend ot develop breast cancer moreoften than younger women. </t>
+  </si>
+  <si>
+    <t>Symptoms include a lump in the breast that does not feel the same as tissue surrounding it a nipple that has recently become inverted, change in size or appearance of the breast, dimpling of the skin of the breast, the skin of the breast and/or areola becoming scaly or flakey, and the skin of the breast becoming red. If any of these symptoms occur, a person should be seen by a medical professional.</t>
+  </si>
+  <si>
+    <t>A massage therapist should obtain a doctor's note approving massage. Afterwards massage may be performed, avoiding any tumors, lymph nodes, or other areas affected.</t>
+  </si>
+  <si>
+    <t>Treatment is based on the severity of the tumor growth. Surgery to remove the tumor will likely be performed after locating it via mammogram and ultrasound. If a large amount of breast tissue is involved, the breast may be completely removed, known as a mastectomy. Lymph nodes may also be removed to prevent any canceroud tissue from spreading to other parts of the body. Chemotherapy and radiation therapy are performed to kill the remaining cancerous cells.</t>
+  </si>
+  <si>
+    <t>Hodgkin's Lymphoma is a malignant cancer affecting the Lymphatic System, specifically the lymph nodes in the upper limb, chest, and neck. Hodgkin's Lymphoma usually follow lymph channels in a predictable manner, mvoign from one lymph node to the next.</t>
+  </si>
+  <si>
+    <t>Hodgkin's Lymphoma is caused by an excessive amount of B cells being produced. These cells, known as Reed-Sternerg cells are larger than normal and contain multiple nuclei, as opposed to non-canceroud B cells, which are smaller and only contain one nucleus.</t>
+  </si>
+  <si>
+    <t>Symptoms of Hodgkin's Lymphoma include swelling of lymph nodes in the neck, upper limb, and axilla that may be painless, weight loss, fever, and fatigue. A person may also experience sensitivity to alcohol.</t>
+  </si>
+  <si>
+    <t>Surgery isn't usually performed for a patient with Hodgkin's Lymphoma. Instead, chemotherapy and radiation therapy are used to destroy the canceroud lymphocytes. Bone marrow transplants may also be performed to stimulate the production of non-cancerous cells.</t>
+  </si>
+  <si>
+    <t>A massage therapist should obtain a doctor's note approving massage. Afterwards, massage may  be performed, avoiding any tumors, lymph nodes, or other areas affected.</t>
+  </si>
+  <si>
+    <t>Leukemia is a cancer of the bone and lymph involving excessive production of non-functioning leukocytes. These leukocytes do not function the way normal leukocytes should, leaving the body with a compromised immune system. These cancerous cells may spread to other parts of the body such as the liver and brain.</t>
+  </si>
+  <si>
+    <t>There is no known cause for the development of leukemia.</t>
+  </si>
+  <si>
+    <t>Common symptoms of leukemia include pain in the bone, swollen lymph nodes, fatigue, fever, chills, increased likelihood of developing infections, the appearance of small red spots in the skin, and bruising or bleeding easily. A doctor should be seen if any of these symptoms persist.</t>
+  </si>
+  <si>
+    <t>Treatment for leukemia largely depends on the advancement of the condition. If the cancer has metastasized to other parts of the body, treatment would be performed on those areas in conjunction with treating the leukemia. Chemotherapy and radiation therapy are used to target and destroy cancerous cells throughout the body. After chemotherapy and/or radiation therapy, stem cell transplant may be performed to supply the bone with stem cells that grow healthy marrow, which produces functioning leukocytes. Bone marrow itself may also be transplanted into the patient ot accomplish the same goal.</t>
+  </si>
+  <si>
+    <t>A massage therapist should obtain a doctor's ntoe approving massage. aFterwards, massage may be performed, avoiding any tumors, lymph nodes, or other areas affected.</t>
+  </si>
+  <si>
+    <t>Malignant melanoma is the least common form of skin cancer, but it is the most serious. It is caused by exposure to ultraviolet light. The cells in the body that prodcue skin pigment, melanocytes, become stimulated by exposure to ultraviolet light and reproduce, causing darker skin. In malignant melanoma, the melanocytes reproduce uncontrolled. Thihs uncontrolled reproduction results in a tumor, and these cancerous cells can easily be spread throughout the body and damage other organs and tissues. Dermatologists use the ABCDE method to diagnose malignant melanoma: A-asymmetrical; moles are typically symmetrical, but melanoma tumors have an unusual shape, and the side don't match, B-Borders; the borders of the growth change over time. This is a sign of significantly increased melanin production, C-Color; moles are typically some shade of brown. IF there are multiple shades or colors, or if the tumor is black, this may be a sign of increased melanin production, D-Diameter; if a growth is 6mm or greater in diameter this may be a sign of melanoma, E-Evolving; moles typically look the same over time. If a mole or growth begins to evolve or change in any way, this may be a sign of melanoma. Malignant melanoma most commonly begins to appear on a part of the body that doesn't have any prior lesions, like moles. If a new growth appears where there was nothing prior, this may be a sign of melanoma. Less commonly, moles may become cancerous.</t>
+  </si>
+  <si>
+    <t>Symptoms of melanoma are all included in the ABCDEs.</t>
+  </si>
+  <si>
+    <t>Malignant melanoma, if caugth early enough, is easily treatable. Later stages, where it has grown beyond the skin, need more advanced treatmetns, including surgery to remove any tumors or cancerous lymph nodes, chemotherapy, and radiation therapy.</t>
+  </si>
+  <si>
+    <t>Malignant melanoma is a type of skin cancer that may affect any part of the skin, and can also affect other tissues, scuh as the eyes and organs.</t>
+  </si>
+  <si>
+    <t>A client with malignant melanoma should obtain permission from a doctor before proceeding with any type of massage because the cancerous cells are easily spread throughout the body through the blood and lymph. The site of tumor growth should be avoided.</t>
+  </si>
+  <si>
+    <t>Non-Hodgkin's Lymphoma is a type of cancer of the lymphatic system, caused by the development of tumors by lymphocytes</t>
+  </si>
+  <si>
+    <t>In the body, lymphocytes, like every cell, go through their normal life cycle and die when they are supposed to. In non-hodgkin's lymphoma, the lymphocytes don't die, but continue reproducing. This causes an excessive amount of lymphocytes to build up in the lymph nodes.</t>
+  </si>
+  <si>
+    <t>People with non-hodgkin's lymphoma may experience swollen lymph nodes around the neck, groin, and axilla, fatigue, weight loss, and fever.</t>
+  </si>
+  <si>
+    <t>Often times, non-hodgkin's lymphoma isn't serious and treatment is only requried when it becomes advanced. Advanced non-hodgkin's lymphoma is treated with chemotherapy and radiation therapy to destroy the cancerous cells.</t>
+  </si>
+  <si>
+    <t>A massage therapist should obtain a docto's note approving massage. Afterwards, massage may be performed, avoiding any tumors, lymph nodes, or other areas affected.</t>
+  </si>
+  <si>
+    <t>Squamous Cell Carcinoma is a form of skin cancer that in many cases is not serious,but has the ability to spread to other parts of the body. Squamous cell carcinoma is more serious and less common than basal cell carcinoma, but not as serious and more common than malignant melanoma.</t>
+  </si>
+  <si>
+    <t>Squamous Cell Carcinoma, much like basal cell carcinoma and malignant melanoma, is most often caused by exposure to ultraviolet light. Tumors most commonly develop on areas of the body constatnly exposed to sunlight, such as the head, neck, arms, and hands. Tumors may be flat, scaly, and firm, and appear round the mouth, in the mouth, and on the lips.</t>
+  </si>
+  <si>
+    <t>Squamous Cell Carcinoma tumors are typically shaped like a dome, and tend to bleed easily. They appear red and scaly, with a rough texture. If the tumor is lare, pain may be present around the area.</t>
+  </si>
+  <si>
+    <t>Much like basal cell carcinoma, treatment for squamous cell carcinoma is relatively easy, with several different methods from surgical excision and freezing of the tumor, to radiation therapy for more advanced tumors.</t>
+  </si>
+  <si>
+    <t>A client with squamous cell carcinoma may receive massage, but the site of the tumor should be avoided.</t>
   </si>
 </sst>
 </file>
@@ -1963,7 +2383,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B115" sqref="B115:E115"/>
+      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3797,224 +4217,644 @@
       <c r="B80" s="1" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>153</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>153</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>153</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C83" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>153</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>153</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C85" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>153</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C86" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>153</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C87" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>153</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C88" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>153</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C89" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>153</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C90" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>153</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C91" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>153</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C92" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>153</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C93" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>153</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C94" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>153</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C95" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>170</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C96" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>170</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C97" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>170</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>170</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>170</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C100" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="G100" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>176</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C101" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>176</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C102" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>176</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C103" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>641</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>176</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C104" s="1" t="s">
+        <v>643</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>645</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>176</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C105" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>176</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C106" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>655</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>176</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C107" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>659</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>661</v>
+      </c>
+      <c r="G107" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>184</v>
       </c>
@@ -4022,7 +4862,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>184</v>
       </c>
@@ -4030,7 +4870,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>184</v>
       </c>
@@ -4038,7 +4878,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>184</v>
       </c>
@@ -4046,7 +4886,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>184</v>
       </c>

--- a/massage-pathologies.xlsx
+++ b/massage-pathologies.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B0EF0C7-80BA-4B0A-A42C-AB4D92FA2B5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB2FB3E-9C1E-4450-A7DE-6B1A456D9455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{20794535-4FD1-4E45-ACFD-3E2AFC742BC3}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1528" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="698">
   <si>
     <t>pathology</t>
   </si>
@@ -2022,6 +2022,111 @@
   </si>
   <si>
     <t>A client with squamous cell carcinoma may receive massage, but the site of the tumor should be avoided.</t>
+  </si>
+  <si>
+    <t>Anorexia nervosa is a condition marked by sever weight loss resulting from an unhealthy restricting of caloric intake. In conjunction with eating an inadequate amount of food, a person with anorexia may also try losing weight by taking diuretics, laxatives, and vomiting after eating . This can cause a severe lack of nutrition, resulting in the body thinning far beyond a healthy level.</t>
+  </si>
+  <si>
+    <t>Anorexia si a pyschological disorder in which a person's perception of their weight is distorted. Contributing factors towards the development of anorexia include environmental influences that put an over-emphasis on being thin and pyschological issues such as obsessive compulsive disorder that make it easier to not eat by sticking to set goals.</t>
+  </si>
+  <si>
+    <t>Symptoms are wide-ranging, from severe thinness and weight loss, to problems with tooth decay from excessive vomiting. A lack of proper nutrition can lead to fatigue, weakness, thinning hair, and dehydration. A person with anorexia may develop anemia, osteoporosis, abnormalities in hormone production and regulation, issues with kidney function, and muscle atrophy. Pyschologically, a person may withdraw socially, and try to hide their anorexia by wearing clothing to hide their weight loss. A person may become irritable and skip meals. When confronted, a person may deny skipping meals or lie about how much food they have eaten.</t>
+  </si>
+  <si>
+    <t>Treatment for anorexia may include hospitalization in severe cases, where the body is not receiving adequate nutrition over a long period of time. While in the hospital, a person will be given fluids to balance hydration and electrolyte levels, and be treated for issues possibly relating to the heart, liver, and kidneys. A feeding tube may be inserted to ensure a person is receiving enough nutrients. Aside from a stay in the hospital, a person may be seen by a mental health professional to deal with underlying causes of anorexia. A person may work closely with a dietician to maintain a healthy diet.</t>
+  </si>
+  <si>
+    <t>Massage therapy is not contraindicated for clients with anorexia. A lighter massage should be performed to prevent damage to bones and other structures in the body.</t>
+  </si>
+  <si>
+    <t>Anxiety disorders are a group of disorders in where a person experiences an increased amount of anxiety, often at a level where the person feels they are in a life-or-death situation. These anxious moments can adversely affect a person's daily life and relationships. Different types of anxiety disorders include panic disorder, social anxiety disorder, and general anxiety disorder. A person with an anxiety disorder may also suffer from addiction, depression, chronic pain, or even attempt suicide.</t>
+  </si>
+  <si>
+    <t>Often times, underlying medical issues may be the cause of anxiety disorders. Some examples include cardiovascular diseases, substance withdrawal, asthma, and hyperthyroidism. Medications may also induce anxiety.</t>
+  </si>
+  <si>
+    <t>Symptoms very depending on the type of anxiety a person suffers from. General symptoms include nervousness, increased breathing and heart rate, shaking, trembling, digestive issues, and the inability to stop thinking about whatever it is that is putting a person into a state of anxiety. Panic anxiety may leave a person with a feeling of fear or terror, and lead to chest pain, shortness of breath, and a rapid heart beat. Social anxiety may lead a person to avoid contact with others as a means to protect themselves from situations they might find themselves being embarrassed or self-conscious in.</t>
+  </si>
+  <si>
+    <t>Psychotherapy is the primary treatment for anxiety disorders. Cognitive Behavioral Therapy is used to help treat social anxiety by exposing a person to situations they may experience in real life, helping them learn how to cope with the situation when it arises. Medications may be prescribed, such antidepressants, that can help a person from feeling anxious.</t>
+  </si>
+  <si>
+    <t>Anxiety disorders are not contraindicated for massage therapy.</t>
+  </si>
+  <si>
+    <t>Bulimia is a psychological disorder in which a person ingests abnormally large portions of food, followed by purging of the food ingested. Purging of food can be caused by self-induced vomiting, by consuming laxatives or diuretics, and/or excessive exercise. This is all done in an effort to avoid weight gain. The use of self-induced vomiting and laxatives/diuretics is known as pruging bulimia. These involve ridding the body of the ingested food in some way that doesn't allow it to be properly digested. The use of excessive exercise is known as non-purging bulimia.</t>
+  </si>
+  <si>
+    <t>The exact cause of bulimia is unknown, although there are several contributing factors that may lead to the development of the condition. Stress, histoy of abuse, trauma, low self-esteem, and having a negative image of one's body can all be contributing factors.</t>
+  </si>
+  <si>
+    <t>Common symptoms may include dehydration, imbalances in electrolyte levels, fluctuating weight, lesions in the mouth due to excessive vomiting, chronic heart burun, and infertility. People with bulimia may exhibit some of the following traits and behaviours: frequent bathroom usage after eating, eating privately, smelling of vomit, and lacking control when eating.</t>
+  </si>
+  <si>
+    <t>Bulimia is most commonly caused by low self-esteem and negative body image. Therefore, the primary treatment is therapy to help the patient overcome these pyschological issues.</t>
+  </si>
+  <si>
+    <t>Bulimia is not contraindicated for massage therapy. Massage may help psychologically and improve self esteem and body image. A lighter massage may be indicated, as the client may have atrophied muscles and a weakended body due to lack of nutrients.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dementia is a general term for symptoms that involve loss of memory, social skills, and critical thinking skills. These skills may be impairred to the point where it affects a person's ability to function effectively on a daily basis. Dementia is caused by damage to neurons in the brain. There are numerous reasons for neurons to be damaged that can contribute to dementia.</t>
+  </si>
+  <si>
+    <t>Dementia may be permanent, or may be reversed , depending on the cause. Causes of dementia that involve permanent damage to the brain include progressive disorders such as Alzheimer's disease. Strokes may permanently damage the brain. Similar to strokes, injuries to the brain such as consussions may lead to brain damage. Cases where dementia may be reversed include certain infections that cause high fever, autoimmune disorders such as multiple sclerosis, tumors in the brain, hypoxia, inadequate fluid intake, and hormonal problems such as having too much calcium in the body. As these conditions are treated, the dementia should go away.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dementia is most commonly associated with memory loss. This can lad to problems communicating, focusing, usign the body properly, and problem solving. A person may become depressed, develop anxiety or paranoia, and become easily irritated. </t>
+  </si>
+  <si>
+    <t>Dementia itself can't be cured. Treating the underlying cause is the best way to treat dementia. This can include medications to help brain functions, and physical therapy to help with any motor skills that may be affected.</t>
+  </si>
+  <si>
+    <t>Dementia is not contraindicated for massage therapy.</t>
+  </si>
+  <si>
+    <t>Depression is a disorder affecting mood, causing a person to feel sad, usually over a prolonged period of time. A person may become disinterested in normal daily activities, and become more distant. Depression usually develops during teenage years, but may occur at any time. If a person is experiencing depression, they should seek help from a mental health professional</t>
+  </si>
+  <si>
+    <t>There are many different causes for depression, and no one person is the same as another. Causes include a change in the body's hormone leveles, such as during and after pregnancy, chagnes in the funciton of neurotransmitters in the brain, and even may be genetically passed down.</t>
+  </si>
+  <si>
+    <t>Symptoms are wide-ranging, and people experience depression differently. Symptoms may include a feeling of sadness, fatigue, disinterest in eating, anxiety, insomnia, irritability, and constantly thinking about death and suicide. A person with depression may attempt suicide.</t>
+  </si>
+  <si>
+    <t>If a person is diagnosed with depression, antidepressants known as selective serotonin reuptake inhibitors, or SSRIs are usually prescribed to help manage hormone levels and increase serotonin levels in the blood. Talking with a mental halth professional may help a person feel better. Exercise and a healthy diet may help with hormone imbalances and increase a person's self esteem, which can aid in lowering depression. Other relaxation techniques, such as massage therapy and yoga may be sought.</t>
+  </si>
+  <si>
+    <t>Depression is not contraindicated for massage therapy. Massge may help relax a person with depression, increase self-esteem and body image, and help manage hormone leveles in the body.</t>
+  </si>
+  <si>
+    <t>Insomnia is a disorder causing a lack of sufficient sleep. This may be the result of a person having difficulty fallling asleep, staying asleep, or waking too early. This can lead to many health complications.</t>
+  </si>
+  <si>
+    <t>There are many reasons a person's sleep may be affected. Stress is the most common cause of insomnia, making it difficult to 'turn off' thoughts when its time to sleep. Having an irregular sleep schedule may make it difficult for the body to adjust when its time to sleep. Jet lag may also cause insomnia. and certian medications may interfere with normal sleep. Pain associated with medical conditions may also keep a person from sleeping.</t>
+  </si>
+  <si>
+    <t>Common symptoms include trouble falling asleep, trouble staying asleep waking too early, general fatigue, irritablility, increased stress and anxiety, and depression. A person with insomnia may develop other health conditions as a result of not getting enough sleep, such as hypertension.</t>
+  </si>
+  <si>
+    <t>Determining the root cause of the insomnia and treating that is the primary treatment for insomnia. Reducing stress, getting a person on a set sleep scheudle, increasing exercise, meditaiton, yoga, and massage therapy can all aid in eliminating insomnia. If these methods do not accomplish the goal, medications to help a person sleep may be prescribed. Over-the-counter sleep aids may help a person sleep, but should not be used long-term as a person may develop a dependency for them.</t>
+  </si>
+  <si>
+    <t>Insomnia is not a contraindication for massage. Massage therapy may aid a person in reducing stress and helping them to obtain a normal sleep cycle.</t>
+  </si>
+  <si>
+    <t>Veritgo is the senstion that a person's surroundings are moving or spinning, which may cause dizziness. This can be especially prevalent if a person is looking down from a tall height.</t>
+  </si>
+  <si>
+    <t>Commonly, vertigo is the result of a problem with the inner ear. Menier's desease, which causes fluid buildup that changes pressure inside the ear, is a common cause. A buildup of calcium deposits in the inner ear can alter balance. Viral infections, such as vestibular neuritis, may also cause vertigo. Less commonly, tumors in the ear may cause vertigo.</t>
+  </si>
+  <si>
+    <t>Verigo presents with a feeling of the environment around a person spinning, moving, swaying, or tilting. A person may become unbalanced, become nauseated, vomit, or develop headaches.</t>
+  </si>
+  <si>
+    <t>Treatment for vertigo is usually dependent on the cause. If calcium is present in the inner ear, certain head and neck movements may be performed to aid the calcium in leaving the inner ear, allowing it to be broken down by the body. Medications may be prescribed to aid with nausea and fluid build up associated with Menier's disease. Surgery may be performed if there is a tumor present. Often times, no treatmetn is necessary, as the brain becomes acclimated to vertigo and the symptoms lessen or disappear.</t>
+  </si>
+  <si>
+    <t>Vertigo is not contraindicated for massage. The massage therapist may need to help the client on and off the table to avoid accidental falls due to dizziness.</t>
   </si>
 </sst>
 </file>
@@ -2383,7 +2488,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C108" sqref="C108"/>
+      <selection pane="bottomLeft" activeCell="E116" sqref="E116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4861,6 +4966,21 @@
       <c r="B108" s="1" t="s">
         <v>185</v>
       </c>
+      <c r="C108" s="1" t="s">
+        <v>663</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="G108" s="1" t="s">
+        <v>667</v>
+      </c>
     </row>
     <row r="109" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
@@ -4869,6 +4989,21 @@
       <c r="B109" s="1" t="s">
         <v>186</v>
       </c>
+      <c r="C109" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>669</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>671</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>672</v>
+      </c>
     </row>
     <row r="110" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -4877,6 +5012,21 @@
       <c r="B110" s="1" t="s">
         <v>187</v>
       </c>
+      <c r="C110" s="1" t="s">
+        <v>673</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>677</v>
+      </c>
     </row>
     <row r="111" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
@@ -4885,6 +5035,21 @@
       <c r="B111" s="1" t="s">
         <v>188</v>
       </c>
+      <c r="C111" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>681</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>682</v>
+      </c>
     </row>
     <row r="112" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
@@ -4893,24 +5058,69 @@
       <c r="B112" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C112" s="1" t="s">
+        <v>683</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>184</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C113" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="G113" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>184</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C114" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>695</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
         <v>522</v>
       </c>
@@ -4918,9 +5128,9 @@
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
     </row>
-    <row r="116" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="117" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="118" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="117" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B115:E115"/>

--- a/massage-pathologies.xlsx
+++ b/massage-pathologies.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m\Desktop\resumes\2020 taxes\The Massage Negotiator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDB2FB3E-9C1E-4450-A7DE-6B1A456D9455}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A44F57A-BF01-49CE-B033-BC7B11ABF03B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{20794535-4FD1-4E45-ACFD-3E2AFC742BC3}"/>
   </bookViews>
@@ -56,12 +56,6 @@
     <t>anemia is a disease of the blood, resulting in a lack of oxygen and an over-abundance of carbon dioxide in the blood. There are many different types of anemia, ranging from iron-deficient anemia, to sickle cell anemia. Anemia is the most common blood condition in the United States, with an estimated 3.5-4 million people afflicted with it. Iron-deficient anemia is the most common form of anemia. The cells in the blood that are responsible for carrying oxygen and carbon dioxide throughout the body are the erythrocytes, or red blood cells. In the cytoplasm of erythrocytes, there is a protein present known as hemoglobin, which is made of iron. The hemoglobin attracts oxygen and carbon dioxide, allowing these molecules to attach to the erythrocytes.</t>
   </si>
   <si>
-    <t>In iron-deficent anemia, the primary cause is a lack of iron being consumed. Less iron being consumed results in less hemoglobin in the erythrocytes, which in turn causes a lack of oxygen and carbon dioxide attaching to the red blood cells. Sickle cell anemia is an inherited for of anemia, in which the erythrocytes have a sicle shape, as opposed to a normal erythrocyte, which is circular. This shape can cause the erythrocytes to become stuck in blood vessels, and reduce adequate blood flow to tissues.</t>
-  </si>
-  <si>
-    <t>People with anemia may feel sluggish, tired, have an increased heart rate, may show paleness in the skin, shortness of breath, and experience dizziness, all due to a lack of sufficient oxygen reaching tissues. Sickle cell anemia may also result in the further development of infections due to damage caused to the spleen, pain in the thorax and abdomen (known as crises) due to blockage of blood vessels in these locations, and a lack of nutrients ot the body, which can stunt growth. People whose diet lacks proper amounts of iron or vitamin B-12 may develop enemia. Pregnancy, and a lack of folic acid, may result in anemia in pregnant women. Sickle cell anemia is primarily seen in African-Americans, resulting from a genetic defect.</t>
-  </si>
-  <si>
     <t>Treatments for anemia vary depending on the type, but may include increasing iron intake, bone marrow transplants, or blood transfusions. Pregnant women may require an increased intake of folic acid. People with sickle cell anemia face less treatment options. The only potential cure is through a bone marrow transplant. Often times, the only treatment is trying to minimize the number of crises a person may experience. Antibiotics and pain relievers may help in preventing infections in younger patients and reducing pain experienced during crises.</t>
   </si>
   <si>
@@ -71,30 +65,15 @@
     <t>an aneurysm is a condition of the arteries, resulting in a bulge in the wall of an artery. There are several different forms and causes of aneurysms. Different types of aneurysms include Aortic (bulge in the wall of the aorta), cerebral (bulge in an artery supplying blood to the brain), and ventricular (bulge in the wall of the heart)</t>
   </si>
   <si>
-    <t>Aneurysms are the result of a part of anarterial wall becoming weakened. When the wall of the artery becomes weakened, it forces the wall out, creating a pouch or bubble. Most commonly, aneurysms are the result of hypertension putting too much pressure or strain on the artery. Ventricular aneurysms are most commonly caused by myocardial infarction, which can weaken the heart muscle. When the arterial wall stretches due to weakness, it makes it ;much easier for the artery to rupture. Because the artery carries oxygen-rich blood, this makes aneurysms very dangerous, as any rupture will severely cut off blood flow to the structure supplied with blood by the artery.</t>
-  </si>
-  <si>
     <t>Unfortunately, aneurysms that have not ruptured are symptomatic. In fact, aneurysms themselves, unless very large, cause no symptoms at all. When an aneurysm ruptures, however, a person may experience severe chest or back pain, low blood pressure, severe headache, tachycardia, and lightheadedness. People may develop aneurysms for many different reasons, including obesity, hypertension, diabetes, advanced age, and alcoholism. Some people develop aneurysms for no apparent reason at all.</t>
   </si>
   <si>
     <t>Common locations for aneurysms include the abdominal aorta and the brain. Aneurysms may be treated surgically before rupture to prevent major medical emergencies in the future. Beta blockers are commonly used as medications before surgery is required.</t>
   </si>
   <si>
-    <t>Massage is indicated with a docto's note. Any massage that increases blood pressure should be avoided, such as deep tissue, because it can put pressure on arteries, which may lead to bursting of an aneurysm.</t>
-  </si>
-  <si>
     <t>arrhythmia is a condition of the heart, which results in the heart's natural rhythm being altered. There are several different forms of arrhythmia. Some of the most common forms of arrhythmia are Atrial Fibrillation, Bradycardia, and Tachycardia.</t>
   </si>
   <si>
-    <t>There are many different symptoms seen with arrhythmia. Symptoms include dissiness, fatigue, shortness of breath, pain in the chest, lightheadedness, and fainting. Arrhythmia may also result in cardiac arrest in severe cases.</t>
-  </si>
-  <si>
-    <t>Treatments vary, depending on the type of arrhythmia a person suffers from. Medical devices, such as pacemakers, may be implanted into the body to help regulate and control heart rhythm (ie, if a person's heart rate drops too low, the pacemaker will stimulate the heart muscle and cause it to contract, increasing heart rate back to safe levles). Alternative methods to controlling arrhythmia, such as amssage therapy and yoga, may be applied in some cases.</t>
-  </si>
-  <si>
-    <t>Atrial fibrillation, the most common form of arrhythmia, results when the atria, the heart's upper chambers, contract irregularly, which sends blood into the ventricles at uncoordinated times. This is caused by an electrical signal from the SA Node not firing correctly, which disrupts the timing of the atria contracting. This can affect the ability of the heart to consistently deliver oxygenated blood to the body.Bradycardia (brady-:slow; -cardia:heart) results in the heart rate being reduced to a rate of contraction that is considered too slow to deliver substantial oxygen to the body. Tachycardia (tachy-:rapid; -cardia: heart) results in the heart rate being increased to a rate of contraction that is consdiered too rapid. In tachycardia, the ventricles of the heart are contracting too rapidly, which may cause a lack of oxygen-rich blood from reaching the body, as the quick contractions do not allow the ventricles to properly fill with blood before being pumped out to the rest of the body. Older adults, those over age 60, are more likely to develop arrhythmia than younger adults and children. Heart development of arrhythmia, so people who have had myocardial infarction may be more prone to developing the disease. Diabetes, sleep apnea, and hypertension all have contributed to the development of arrhythmia.</t>
-  </si>
-  <si>
     <t>Untreated arrhythmia is an absolute contraindication for massage therapy. If a client has a pacemaker, massage may be performed. A client may have discomfort while lying prone due to pressure on the pacemaker, which may call for side-lying massage to be performed, or pillows to be used to take pressure off the area. Avoid massaging the site of the pacemaker (upper left chest just below clavicle).</t>
   </si>
   <si>
@@ -131,18 +110,9 @@
     <t>Deep Vein Thrombosis (DVT) is a condition in which blood clots (thrombi) form in the veins deep in the body, typically the legs. These clots can block blood flow in the veins, which can lead to several serious issues.</t>
   </si>
   <si>
-    <t>There are various causes for DVT. Primary causes are injury to a vein, surgery, imparied or limited mobility, and certain medications. An injury to a vein can result in blood clots, especially if there is significant damage to the vein. Surgery, which can result in cutting through veins, can also lead to blood clots. Post-surgery, if a patient is immobilized for extended periods, circulation starts to decrease in efficiancy, which can lead to blood pooling in the veins of the legs. This pooling of blood can result in clots. It is this same reason pepole who have paralysis may develop blood clots as well.</t>
-  </si>
-  <si>
-    <t>Although symptoms may not be present in someone with DVT, others do show symptoms, which include a warm sensation in the affected area, pain in the affected area that can increase in intensity, and discoloration in the affected area. Most commonly, DVT affects the lower limb, so this is where a a person will most likely experience these symptoms.</t>
-  </si>
-  <si>
     <t>The primary treatment for DVT is medication. Certain medications can help reduce the chance of developing DVT in the future, or even remove the blood clot from the body. Intravenous anticoagulants such as heparin help to thin the blood. Other anticoagulants, such as warfarin, work extremely well in conjunction with injectable anticoagulants. If the blood clot is severe, the patient might be given a thrombolytic, a type of medication that destroys blood clots. Theses are typically only given in serious cases of blood clots, such as those that result in pulmonary embolism. Compression socks, which compress the leg up to the knee, can help reduce the amount of swelling a patient might experience with DVT.</t>
   </si>
   <si>
-    <t>Deep vein thrombosis is typically a local contraindication. Avoid the site of the thrombus, as dislodging the clot may lead to circulation being cut off in organs such as the lungs, brain, or heart. Massage that increases blood pressure may be contraindicated, and deeper massages may be contrindicated due to the use of anticoagulants and thrombolytics.</t>
-  </si>
-  <si>
     <t>Heart murmur (murmer: to mutter)</t>
   </si>
   <si>
@@ -152,9 +122,6 @@
     <t>Heart murmurs may not require any medical attention, depending on the cause. Other times, medical attention may be needed. Most commonly, heart murmurs are the result of a bicuspid/mitral valve prolapse, where the valve is pulled backwards into the left atrium. This allows blood to flow backwards in the heart, which may reduce the ability of the heart to pump enough oxygen-rich blood to the body. People who have developed endocarditis or Rheumatic fever often develop heart murmurs due to damage to the valves in the heart.</t>
   </si>
   <si>
-    <t>While most heart murmurs aren't serious, abnormal heart murmurs may present with symptoms such as cyanosis in the fingers, chest pain, dissiness, shortness of breath, and fainting.</t>
-  </si>
-  <si>
     <t>Heart murmurs may require the person to take anticoagulants to prevent the formation of blood clots, may be treated for hypertension if it is resulting in heart murmurs, or may need surgery to repair or replace the malfunctioning valve.</t>
   </si>
   <si>
@@ -164,9 +131,6 @@
     <t>hypertension (hyper-: above; -tension: tension)</t>
   </si>
   <si>
-    <t>Hypertension is a condition of the cardiovascular system, resulting in elevated blood pressure. There are numerous factors that may contribute to the development of hypertension. For an average healthy adult, systolic blood pressure (pressure felt in arteries when the heart beats) is around 120 mmHg, and diastolic pressure (pressure felt in arteries when the heart is at rest) is around 80 mmJg. To be diagnosed with hypertension, a person's systolic pressure would be 140 mmHg and diastolic pressure would be 90 mmHg.</t>
-  </si>
-  <si>
     <t>Hypertension may have no underlying cause, or may be the result of factors such as dysfunction of the adrenal glands or thyroid, dietary issues such as obesity or high sodium intake, kidney disease, and alcohol consumption. Hypertension is most commonly associated with people who smoke, drink excessive amounts of alcohol, are overweight, are older in age, consume excessive salt, and more.</t>
   </si>
   <si>
@@ -185,9 +149,6 @@
     <t>migraine headaches are a type of headache that affect the brain, which results in most side effects experienced. Migraines have been referred to as 'vascular headaches' due to the involvement of blood vessels. In migraines, when the brain is stimulated by a trigger, neurons rapidly send impulses which affects the blood vessels surrounding the meninges, three layers of connective tissue that surround and protect the brain. At first, the blood vessels constrict, which does not result in pain. A short time after constricting, the blood vessels will dilate, which places immense pressure on the meninges, which results in severe pain.</t>
   </si>
   <si>
-    <t>Migraines have numerous causes, which may be from exposure to substances like tyramine ( a naturally occuring chemical found in foods such as aged cheese, alcoholic beverages, and cured meats), caffeine, stress, or even hormonal imbalace during stages such as menstruation. Migraines may even be considered hereditary.</t>
-  </si>
-  <si>
     <t>Symptoms include nausea, fatigue, extreme pain, loss of sight, blurred vision, sensitivity to sound, and pain on one side of the head. Not everyone that experiences a migraine experiences all of the symptoms detailed, as each migraine is different.</t>
   </si>
   <si>
@@ -200,9 +161,6 @@
     <t>Myocardial Infarction (myo-: muscle: -cardia: heart; infarct: obstruction of blood flow)</t>
   </si>
   <si>
-    <t>A myocardial infarction, or heart attack, is a condition that affects the heart muscle, reducing blood flow throughout the body. An infarction is an obstruction of blood flow to a specific part of the body. In this case, blood flow to the heart is obstructed. The two arteries that supply blood to the heart muscle are known as the coronary arteries. When an abundance of substances such as plaque buld up inside these arteries, it restricts blood flow to the heart muscle. When blood flow is restricted, the tissue does not receive adequate oxygen, which results in necrosis of the affected tissue. When too much cardiac muscle dies, the body experiences a myocardial infarction, or heart attack</t>
-  </si>
-  <si>
     <t>Myocardial infarctions may be the result of atherosclerosis, a condition which causes the artery walls to harden and thicken, due to a build-up of plaque in the arteries. Hypertension, smoking, and obesity may also contribute to the development of atherosclerosis.</t>
   </si>
   <si>
@@ -245,18 +203,12 @@
     <t>Symptoms of Raynaud's Syndrome include discoloration of the skin in affected areas, cold fingers and/or toes, numbness, and stinging pain upon warming of the area.</t>
   </si>
   <si>
-    <t>Treatments for Raynaud's Syndrome include exercide, reducing stress, not smoking, and avoiding cold temperatures whenever possible. Secondary Raynaud's Syndrome may require medications such as statins to help regulate blood pressure and cholesterol.</t>
-  </si>
-  <si>
     <t>Raynaud's Syndrome is indicated for massage. Using heat should be avoided, as sensation in the affected area may be decreased and tissue damage may result. Massaging the area can help dilate blood vessels and bring blood back into the fingers and toes. Increasing the temperature of the massage room may also help dilate blood vessels.</t>
   </si>
   <si>
     <t>Varicase Veins (varicose: abnormally swollen)</t>
   </si>
   <si>
-    <t>Varicose veins are the abnormal swelling of viens in the body, most commonly seen in the legs, but may be present in any vein. There are many different types, ranging from regular varicose veins, to spider veins, and even hemorrhoids.</t>
-  </si>
-  <si>
     <t>Inside the veins, there are valves that push deoxygenated blood back up to the heart. Typically as a person ages, the valves stop working as efficiently, which allows blood to pool backwards in the veins. This added pressure causes irritation and swelling of the veins. Blood pooling in the veins may also lead to complications such as the development of blood clots. Because veins are much more superficial than arteries, when a vein becomes swollen, it is often visible. Varicose veins often present with a purple color, may look cord-like, and may even cause pain and discomfort. Causes of varicose veins include sitting or standing for prolonged periods, age, and even pregnancy.</t>
   </si>
   <si>
@@ -611,39 +563,18 @@
     <t>Vertigo</t>
   </si>
   <si>
-    <t>Cholescystitis is inflammation of the gallbladder. If untreated, cholecystitis may lead to extremely serious conditions, such as rupture of the gallbladder.</t>
-  </si>
-  <si>
-    <t>Most ocmmonly, cholecystitis is the result of formation of gallstones. Gallstones can block the cystic duct, which connects the gallbladder to the bile duct on its way to the duodenum, causing inflammation of the gallbladder as bile backs up in the organ. There is no consensus on what causes gallstones to form. Some theories state gallstones form because the bile contains too much colesterol, too much bilirubin, or the gallbladder doesn't properly empty bile into the duodenum.</t>
-  </si>
-  <si>
     <t>Symptoms of cholecystitis include severe abdominal pain in the upper right quadrant near the liver, nausea, vomiting, fever and pain in the right shoulder/back. These symptoms often occur after ingesting large meals.</t>
   </si>
   <si>
-    <t>A diagnosis of cholcystitis almost always results in a hospital stay. Teatments may include antibiotics to fight off any associated infection, pain medications to reduce discomfort, and fasting to let the gallbladder rest and reduce inflammation. Cholecystitis often recurs, and therefore most people who are diagnosed with cholcystitis require surgery to completely remove the gallbladder. The liver is then connected directly to the duodenum, allowing bile to enter into the small intestine.</t>
-  </si>
-  <si>
     <t>Cholecystitis is considered an absolute contraindication in the acute stage. After the underlying cause has been determined, medications may be prescribed to help deal with the formation of gallstones and infection, or the gallbladder may be removed completely. This will require a hospital stay, in which massage will not be performed.</t>
   </si>
   <si>
-    <t>Crohn's Disease is an inflammatory bowel disease, which causes inflammation of the digestive tract. Crohn' s has periods of exacerbation and remission, were the disease is actively causing inflammation, then periods where it is not. Crohn's disease typically appears in younger people, people who are of East European Jewish descent, people who have relatives with the disease, and people who smoke cigarettes. Damage to the digestive tract, including ulcerations and scarring, may result. Depending on the loactions of the uleration and scarring, abscesses and constipation may result.</t>
-  </si>
-  <si>
     <t>The exact cause of Crohn's disease is unknown. The leading theory is that heredity and an immune system that does not function properly are the main causes of Crohn's.</t>
   </si>
   <si>
-    <t>In acute stages of Crohn's, symptoms may include darrhea, abdominal pain, cramping, fatigue, fever, and bloody stool. Depending on the severity of these symptoms, a person may need to visit a doctor.</t>
-  </si>
-  <si>
-    <t>A variety of medications may be prescribed for a patient with Crohn's, including anti-inflammatory drugs such as corticosteroids to reduce inflammation in the digestive tract, immunosuppresors to help regulate the effects of the immune system on the digestive tract, and antibiotics to reduce any abscesses that may result. Pain relievers may ablso be prescribed. In serious cases, surgery may be required. During Crohn's, scarring in the ileum or large intestine may result. In this surgery, the damaged portion of the digestive tract may be removed. This does not cure Crohn's, but can make it easier to manage. Changes in diet, especially in acute stages, may be beneficial.</t>
-  </si>
-  <si>
     <t>Massage in the acute stage of Crohn's disease should be avoided, as the client may be in pain and experience symptoms such as diarrhea. In the post-acute stage, massage is indicated for Crohn's disease.</t>
   </si>
   <si>
-    <t>Diverticulitis is a condition affecting the large intestine, but may also affect other structures such as the abdomen, or the entire Cardiovascular System. If a person is affected by divertculosis, they have small pouches that develop in the large intestine. In certain cases, these pouches may become inflamed and/or infected, which then becomes diverticulitis.</t>
-  </si>
-  <si>
     <t>Because diverticulitis puts strain on sections of the large intestine that are already weakened from diverticulosis, it may result in ulcerations, or open sores. These open sores may lead to infection, and leaking of feces into the abdomen, which results in peritonitis (inflammation of the peritoneum, a very serious condition that requires medical attention).</t>
   </si>
   <si>
@@ -659,12 +590,6 @@
     <t>Diverticulosis is a condition affecting the large intestine, which presents with pouches forming in the walls of the large intestine, typically in the descending and/or sigmoid colons. It is a common condition seen in roughly half of people over the age of 65.</t>
   </si>
   <si>
-    <t>During peristalsis, the smooth muscle located in the walls of the large intestine contract, forcing food to move further through the organ and eventually out of the body. If the large intestine does not contain enough fecal matter, as in the case of a low-fiber diet, the contractions may result in weakening of the wall of the large intestine. As a result, small pouches may develop. If a person develops diverticulosis, small pieces of feces, nuts, seeds, etc, may become stuck inside the pouches. If feces becomes trapped in a pouch, the large intestine will absorb all of the water from it, and it will become very solid and extremely hard to remove. This may result in pain in the abdomen.</t>
-  </si>
-  <si>
-    <t>Typically, people with diverticulosis don't exhibit symptoms. When they do, however, symptoms may include darrhea, abdominal cramping, or fever. These are typically the result of infection, which may lead to diverticulitis.</t>
-  </si>
-  <si>
     <t>Treatment primarily includes increasing intake of fiber via fruits and vegetables, and increasing fluid intake to make passing of stool easier to manage.</t>
   </si>
   <si>
@@ -692,39 +617,18 @@
     <t>GERD is the result of acid flowing backwards into the stomach. This is primarily caused by the lower gastroesophageal sphincter (also known as the cardiac sphincter) relaxing when it normally is contracted and tightened. This can happen  abnormally, or be caused by the sphincter weakening over time.</t>
   </si>
   <si>
-    <t>Symptoms include burning in the chest, pain in the cest, a dry cough, a sour taste in the mouth, and a sore throat. It is advisable to seek medical attention if chest pain is present, because symptoms are very similar to those seen in myocardial infarction.</t>
-  </si>
-  <si>
-    <t>Over-the-counter medications, such as antacids, are the primary treatment for GERD. Other medications may be prescried by a doctor if the GERD is not helped by antacids, such as H-2-receptor blockers, which reduce stomach acid production, and proton pump inhibitors, which completely block the production of stomach acid and give the lining of the esophagus time to heal.</t>
-  </si>
-  <si>
     <t>Unless chest pain is present, massage is indicated for Gastroesophageal Reflux Disease. Semi-reclined position may help reduce acid from moving into the esophagus.</t>
   </si>
   <si>
     <t>Hepatitis is a condition that results in inflammation of the liver</t>
   </si>
   <si>
-    <t>There are numerous casues of hapatitis, which affect numerous different organ systems. Most commonly, hepatitis is the result of a viral infection, but may also result from toxic substances entering into the body, such as alchohol. Short-term symptoms of hepatitis include jaundice (yellowing of the skin due to increased bilirubin in the blood stream), fever, and nausea. Long-term symptoms include cirrhosis (destruction of healthy liver cells), scarring of the liver, liver cancer, and liver failure. There  are five known hepatitis viruses: Hepatitis A, B, C, D, and E. Each vaires in mode of contraction and severity in symptoms. Hepatitis B is typically transmitted through exposure to body fluids such as blood. The virus produces symptoms for a period greater than Hepatitits A, but most people will develop an immunity to it after about four weeks. A small percentage of people who contract Hepatitis B will become chronically affected by it. Vaccines for Hepatitis B are available. Hepatitis C, much like Hepatitis B, s contracted through exposure to body fluids such as blood. Hepatitis C is a chronic condition which damages the liver even further each time the person's symptoms are in the acute stage. Hepatitis C is one of the leading causes of liver failure. Hepatitis D is an infection that only results in symptoms if the person is also infected with the Hepatitis B virus. When this occurs, major complications may arise. Because Hepatitis D is only activated by the Hepatitis B virus, the Hepatitis B vaccine may contribute to the prevention of Hepatitis D. Hepatitis E, like Hepatitis A, is contracted through exposure to fecal matter. It is most commonly seen in developing countries, where sanitation standards may not be high. Hepatitis E, if sever, may lead to liver failure, despite being an acute infection.</t>
-  </si>
-  <si>
-    <t>Hepatitis often results in no symptoms. More sever cases of hapatitis may result in a person presenting with nausea, fatigue, mild fever, loss of appetite, abdominal tenderness, and jaundice, among others.</t>
-  </si>
-  <si>
     <t>Treatments vary, depending on severity. Immunizations are available for Hepatitis B, and medications may help reduce the symptoms.</t>
   </si>
   <si>
     <t>In the acute stage, massage is an absolute contraindication for hepatitis. In the post-acute stage, massage is indicated.</t>
   </si>
   <si>
-    <t>Hernia is a rupture in a muscle or connective tissue, allowing an organ or other tissue to protrude through its normal location. There are many different types of herniae in the Digestive System, including hiatal, umbilical, and inguinal.</t>
-  </si>
-  <si>
-    <t>A hernia is caused by a weakness in the affected tissue, and/or straining of the tissue. When the tissue tears, the organ, usually the small intestine, protrudes through it. This can lead to many complications, such as organ strangulation, constipation, pain, or even trauma to other structures, such as the testes. A hiatal hernia results from part of the stomach protruding upwards through the daphragm, into the chest. Gastroesophageal Reflux Disease may result from this type of hernia, where stomach acids leak from teh stomach backwards into the esophagus. An umbilical hernia, most commonly seen in infants, is caused by the small intestine protruding through the abdominal wall and into the umbilicus. This condition usually resolves on its own. An inguinal hernia, most commonly seen in men, is caused by the small intestine protruding through the wall of the abdomen,which typically descends into the scrotum. This may cause trauma to the testes. Sometimes, the small intestine may even drop farther down the body, into the thigh.</t>
-  </si>
-  <si>
-    <t>Symptoms vary depending on the type of nernia suffered. Examples include swelling beneath the skin in the abdomen or groin in an inguinal or umbilical hernia, and heart burn and pain in the upper abdomen in hiatal herniae.</t>
-  </si>
-  <si>
     <t>Treatments may include dietary changes in cases such as a hiatal hernia, weight loss, medication such as antacids, or even surgery to repair the hernia</t>
   </si>
   <si>
@@ -740,9 +644,6 @@
     <t>Pain in the throat is one of the main symptoms of pharyngitis. Speaking and swallowing food may be painful. A person may develop a fever, and the tonsils and lymph nodes in the neck may enlarge. Excessive mucous may be produced if it is caused by bacterial infection.</t>
   </si>
   <si>
-    <t>Antiviral medications may pevent the condition from worsening. If the condition is caused by bacterial infection, antibiotics can help combat the infection and improve the condition.</t>
-  </si>
-  <si>
     <t>Pharyngitis is commonly considered an absolute contraindication to massage during the acute stage. After the infection has cleared, massage may be performed.</t>
   </si>
   <si>
@@ -752,12 +653,6 @@
     <t>Strep throat is caused by an infection of the streptococcal bacteria, which is contagious. Children are most at risk of contracting strep throat, but it can occur in people of all ages.</t>
   </si>
   <si>
-    <t>In additionto sore throat, a person with strep throat may develop red spots on the roof of the mouth, white patches on the tonsils, swollen lymph nodes in the neck, pain upon swallowing, and fever, amongst others. If lieft untreated, strep throat may contribute to the development of Rheumatic fever, which can cause damage to heart valves.</t>
-  </si>
-  <si>
-    <t>Because strep throat is caused by bacteria, antibiotics are the primary treatment. Acetaminophen is useful in treating any pain that may be present due to the infection. After starting a course of antibiotics, a person should begin feeling better within a couple days. Taking all the medication prescribed is required to prevent the infection from returning and becoming resisant to the antibiotics.</t>
-  </si>
-  <si>
     <t>Because strep throat is highly contagious, it is considered an absolute contraindication until the condition has completely cleared.</t>
   </si>
   <si>
@@ -788,9 +683,6 @@
     <t>Treatment primarily consists of hormone replacements, which may be taken orally or injected.</t>
   </si>
   <si>
-    <t>Massage is indicated for a client with Addison's Disease. Hwever, the type and length of massage varies depending on how a client is feeling and their stamina. Clients with low stamina should receive shorter, lighter massages, while clients with increased stamina may receive longer and stimulating massages.</t>
-  </si>
-  <si>
     <t>Cushing's Disease is a disease of the pituitary gland, which results in hyper-production of adrenocorticotropic hormone (ACTH)</t>
   </si>
   <si>
@@ -800,15 +692,9 @@
     <t>Treatments for Cushing's Disease include surgery to remove a tumor, and hormone therapy to reduce the production of cortisol.</t>
   </si>
   <si>
-    <t>Massage is indicated for Cushing's Disease, bt precautions may be taken in clients with weakened bones. Lighter massage is recommended for these clients to prevent damaging bone.</t>
-  </si>
-  <si>
     <t>Diabetes Mellitus is a condition of the Endocrine System that affects insulin function in the body. There are three types of diabetes: Diabetes Type I, Diabetes Type II, and Gestational Diabetes</t>
   </si>
   <si>
-    <t>Type I is often known as juvenile diabetes as it bgins in childhood. The body's immune system attacks the pancreas, the organ that produces insulin. This results in the body not producing enough insulin, which the body needs in order to convert glucose to energy. Type II is the most common diabetes caused by the body having an insulin resistance. The insulin in the body is unable to break down glucose, which causes high levels of sugar in the blood stream. Obesity is a common cause of Diabetes Type II. Gestational Diabetes is only present during pregnancy. It affects less than 10% of all pregnant women, and typically resolves after pregnancy ends</t>
-  </si>
-  <si>
     <t>Symptoms of diabetes include frequent urination, fatigue, weight loss, pain and/or numbness in the hands or feet, extreme thirst, and extreme hunger.</t>
   </si>
   <si>
@@ -821,15 +707,9 @@
     <t>A goiter is an enlargement of the thyroid gland, located at the base of the neck.</t>
   </si>
   <si>
-    <t>The primary cause of a goiter is a lack of iodine in the diet. If a person does not consume enough iodine, the body is unable to produce sufficient thyroid hormones. Other conditions, such as Grave's disease or Hashimoto's disease, can affect the levels of thyroid hormone being produced. Too much thyroid hormone or too little thryroid hormone being produced can have negative effects on teh thryoid and could produce a goiter.</t>
-  </si>
-  <si>
     <t>Goiters produce a bulge in the throat, which may place pressure on other structures such as the esophagus or trachea, making it difficult to eat or breathe.</t>
   </si>
   <si>
-    <t>Treatment of a goiter typically depends on the cause. If it is caused by low levels of thyroid hormones, theyroid hormone replacement medications may be prescribed. If the thyroid is producing too much thyroid hormone, medications may be prescribed to stabilize the levels of thyroid hormone in the body. Surgery to remove the thyroid may be an option if the goiter causes any difficulty breathing or swallowing, or causes discomfort. Increasing iodine consumption may be all it takes to reduce the goiter. Iodized salt may be added to the diet, along with other foods high in iodine such as seafood.</t>
-  </si>
-  <si>
     <t>A goiter is considered a local contraindication for massage.</t>
   </si>
   <si>
@@ -848,12 +728,6 @@
     <t>Hyperthyroidism is an increase in production of thyroxine, a hormone secreted by the thyroid gland. Thyroxine is primarily responsible for stimulating tissues to consume oxygen. Excessive amounts of thyroxine can significantly increase the body's metabolism, which can have numerous effects.</t>
   </si>
   <si>
-    <t>Hyperthyroidism is often caused by other condtions such as Graves' Disease. Tumors may grow in or on the thyroid, which can increase production of thyroxine.</t>
-  </si>
-  <si>
-    <t>Treatments are similar to Graves' Disease, including a prescription of oral radioactive iodine. Other medications may help lower the amount of hormone bieng produced by the thyroid. If a person has tachycardia as a result of hyperthyroidsim, beta blockers may be prescribed. In cases where these treatments aren't helpful, surgical removal of the thyroid may be performed.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Generally, hyperthyroidism is not contraindicated. However, conditions such as arrhythmia that can be caused by hyperthyroidism may be contraindicated if uncontrolled. </t>
   </si>
   <si>
@@ -875,15 +749,6 @@
     <t>Acne may result in the development of whiteheads, blackheads, pimples, or even cystic lesions beneath the skin. These are often painful to the touch and may present with infection and inflammation.</t>
   </si>
   <si>
-    <t>Treatment includes over-the-counter skin care products for mild acne, or in the case of severe acne, medications such as birth control pills to regulate hormone levels in womren, and antibiotics to eliminate bacterial growth. Other treatments include light therapy and chemical peels.</t>
-  </si>
-  <si>
-    <t>Whiteheads are considered local contraindications. Any part of the body experienceing inflammation from acne should also be considered a  local contraindication.</t>
-  </si>
-  <si>
-    <t>Athlete's Foot (also known as Tinea Pedic) is a fungal infection of the foot. Despite the name, anyone may develop athlet'es foot , not just athletes. Athlete's foot, like other fungal infections such as ringworm and jock itch, is highly contagious.</t>
-  </si>
-  <si>
     <t>Athlete's foot is caused by exposure to fungus on the foot. When a person wears tight-fitting shoes, it provides an environment for the fungus to thrive: a warm, humid, dark space. The fungus spreads, growing between the toes, then expanding across the foot. The infection causes the skin to become dry and scaly, which may result in breaking of the skin and bacterial infection.</t>
   </si>
   <si>
@@ -905,15 +770,9 @@
     <t>A boil may result in pain around the boil, the development of a fever, and swelling of lymph nodes. More boils may develop around the site of the original boil.</t>
   </si>
   <si>
-    <t>Boils are treated by lancing (draining) the area with application of antibatcerial soap and water, or in more severe cases, prescription of antibiotics to combat the baterial infection.</t>
-  </si>
-  <si>
     <t>A boil is considered a local contraindication for massage.</t>
   </si>
   <si>
-    <t>Burns are a skin condition in which the skin is damaged due to exposure to heat, chemicals, or other means. This may result in inflammation, blister formation, or necrosis, depending on the severity of the burn. Burns of the skin can be categorized as first, second, third, or fourth degree, with first being the least severe. A first degree burn only affects the epidermis. It may lead to pain and inflammation of teh skin, but nothing more. A common first degree burn is a sun burn. The hpain and inflammation subsides in a day or two, and the skin returns to normal. A second degree burn is more severe. In a second degree burn, the burn moves through the epidermis and into the dervis. Because the burn goes deeper into the skin, it causes more damage, which can be seen by blistering. Blisters form to help repair the damage doen by the burn. Second degree burns may result in scarring if they are too severe. Third degree burns moe even deeper into the skin, reaching the subcutaneous layer of the skin. Third degree burns often cause severe tissue damage and necrosis. Skin grafts may be needed to help repair an area damaged by a third degree burn. While first, second, and third degree burns are most common, a fourth degree burn moves completely through all layers of the skin and goes deeper into tissues beneath the skin, such as tendons, ligaments, muscles, and bones.</t>
-  </si>
-  <si>
     <t>As stated, burns may be caused by many different factors, including heat (thermal burns), chemical, electricity, radiation (sunburn), friction (rugs), and even extreme cold temperatures.</t>
   </si>
   <si>
@@ -929,9 +788,6 @@
     <t>Cellulitis is a bacterial infection of the skin, causing symptoms such as inflammation of the infected area, fever, pain, and blisters.</t>
   </si>
   <si>
-    <t>Cellulitis is caused by staphylococci bacterium entering the body through exposure to wounds, most commonly on the legs. The infection typically stays localized, but continues to spread to surrounding tissues as the bacteria grows. The infection can present with well-defined borders of infection. If the infection enters the blood stream, it may result in septicemia, a potentially life-threatening condition. Spider or insect bites may also introduce the bacterium into the body. Any insect bite should be cleaned thoroughly to prevent infeciton.</t>
-  </si>
-  <si>
     <t>symptoms include a red area of skin that spreads and increases in size over time, swelling, pain, fever, and blisters on the infected area.</t>
   </si>
   <si>
@@ -950,33 +806,21 @@
     <t>Symptoms of decubitus ulcers include discoloration of the skin, tenderness in the affected area, temperature variation in the affected area, and swelling. In severe cases, infection may result after ulceration has occurred.</t>
   </si>
   <si>
-    <t>Treatments for decubitus ulcers vary, depending on the severity of the ulceration. If an infection is present, antibiotics may be prescribed. If there is an abundance of cecrotic tissue, cleaning of the area (debridement) may be performed. If there is ischemia, but no ulcer, massage and application of heat may help brings blood back into the area.</t>
-  </si>
-  <si>
     <t>A decubitus ulcer is considered a local contraindication if the skin has developed into an ulcer. If the skin has not opened, massage in the area is indicated to increase blood flow into the affected tissue. If the sore is present, massage up to two inches around the area is indicated to increase circulation and prevent further necrosis.</t>
   </si>
   <si>
     <t>Dermatitis is inflammatio of the skin. There are several types of dermatitis, including contact dermatitis, atopic dermatitis, and seborrheic dermatitis. Each has different causes, but each presents with some sort of inflammation of the skin.</t>
   </si>
   <si>
-    <t>Contact dermatitis results when the skin comes in to contact with some sort of irritant or allergen, causing the skin to become inflamed. Atopic dermatitis also known as eczema, can be caused by numerous factors, including an improperly functioning immune system, bacteria, dry skin, and the environment. Eczema usually begins in infancy. Seborrheic dermatitis is typically the result of a fungus growing on the skin, usually in regions that are mroe oily than others such as the scalp.</t>
-  </si>
-  <si>
     <t>Contact dermatitis presents with inflammation and possible blistering where the skin has come into contact with an irritant. This is usually an acute condition, and will improve after the irritant has been cleaned or removed from the body. Atopic dermatitis presents with red, itchy patches on the body, usually near joints that flex and extend. This can be a chronic condition and the patches may go away and come back later depending on factors such as the weather. Seborrheic dermatitis can cause itchy patches around the face, cheeks, nose, back, and chest.</t>
   </si>
   <si>
-    <t>Often times application of an over-the-counter corticosteroid cream is all that's needed to alleviate dervatitis symptoms. If over-the-counter creams are ineffective, prescription strength corticosteroid creams may be administered, which usually take care of the dermatitis. Other treatments can even include exposure to sunlight.</t>
-  </si>
-  <si>
     <t>Dermatitis is considered a local contraindication, as massage to the affected area will increase inflammation.</t>
   </si>
   <si>
     <t>Herpes Simplex is a viral infection of the skin. There are two types of herpes simplex: Herpes Simplex I, which causes sores around the mouth, and Herpes Simplex II, which causes sores around the genitals.</t>
   </si>
   <si>
-    <t>Herpes simplex is highly contagious, passing between people via direct contact. During an acute outbreak, a sore may appear on the skin, most commonly the mouth, face, or genitals. This sore disappears after a short time. Despite not having any sores presetn, a person may still be able to transmit the virus to another asymptomatically.</t>
-  </si>
-  <si>
     <t>Symptoms vary depending on the type of herpes simplex a person has. Herpes Simplex I primarily presents with sores around the mouth, while Herpes Simplex II may cause painful urination. Both forms, however, may result in fever, headache, and swollen lymph nodes.</t>
   </si>
   <si>
@@ -989,9 +833,6 @@
     <t>Impetigo is a bacterial infection of the skin, most commonly seen in children. Impetigo is often consfused with Hand, Foot, and Mouth Disease, which is a viral infection.</t>
   </si>
   <si>
-    <t>Impetigo is a highly contagious infection, caused by staphylococci or streptococci, which most commonly enter the body through already damaged skin, but may affect healthy skin as well. When the bacteria enters the skin, it produces sores that blister and leak a yellow, crust-like fluid. These sores typically develop around teh mouth, nose, and ears.</t>
-  </si>
-  <si>
     <t>Symptoms of impetigo include red sores that may pop and leave a yellowish crust, swollen lymph nodes, and fluid-filled blisters. The affected areas may also itch.</t>
   </si>
   <si>
@@ -1013,9 +854,6 @@
     <t>Over-the-counter or prescription medications may be prescribed to help kill the lice. Shampoos specifically designed to eliminate lice are often used.</t>
   </si>
   <si>
-    <t>Lice isa  highly contagious parasitic infection, and is therefore an absolute contraindication.</t>
-  </si>
-  <si>
     <t>Onychomycosis is a fungal infection of the nails, most commonly the result of an infection by the dermatophyte fungi.</t>
   </si>
   <si>
@@ -1034,18 +872,12 @@
     <t>Psoriasis is an autoimmune disorder of the skin, resulting in the produciton of thick, dry, scaly patches. Psoriasis has periods of exacerbation and remission, where the patches appear and then resolve themselves.</t>
   </si>
   <si>
-    <t>The exact cause of psoriasis is unknown. Certain triggers, such as stress, may cuase the body's immune system to attack the skin. Normally, skin cells have a life span of 3-4 weeks and ultimatel flake off the body. When the immune system attacks the skin, the body responds by increasing production of epithelial cells at an extremely rapid pace, hwich is much faster than the cells are being destroyed. This rapid pace of cell production is what produces the patches on the skin.</t>
-  </si>
-  <si>
     <t>Symptoms of psoriasis differ based on each person, but may include red, patchy skin covered in thick, silvery scales, dry skin that may crack and bleed, thickened finger and toe nails, and itchy skin.</t>
   </si>
   <si>
     <t>There is no cure for psoriasis, but treatments are available to help manage the condition. Treatments include topical creams (which may contain steroids), exposure to sunlight, and application of aloe vera.</t>
   </si>
   <si>
-    <t>Psoriasis is not contraindicated for massage. Massage may be altered if the patches are painful or are scabbing, but otherise the patches may be massaged.</t>
-  </si>
-  <si>
     <t>Ringworm (also known as dermatophytosis) is a fungal infection of the skin, similar to athlete's foot. Despite the name, it is not a parasitic infection. It results in a ring-like area of infection.</t>
   </si>
   <si>
@@ -1055,54 +887,33 @@
     <t>Ringworm typically presents with well-defined circular patches of infection on the skin, usually more red on the outer edges than inside. These patches can be itchy and develop blisters.</t>
   </si>
   <si>
-    <t>Treatmetn includes good personal hygiene, and most commonly application of antifungal ointment to the affected area. More severe cases may require oral antifungal medication.</t>
-  </si>
-  <si>
     <t>Ringworm is a highly contagious fungal infection, and is considered a local contraindication. Linens should be treated as contaminated.</t>
   </si>
   <si>
     <t>Scabies is a parasitic infection caused by a mite, known as Sacroptes scabiei. This mite burrows under the skin and lays eggs, causing intense itching. The tunnels the mite creates are visible in the skin. Scratching due to a scabies infection may lead to an infection, and is not recommended.</t>
   </si>
   <si>
-    <t>Scabies are extremely contagious, transmitting easily from one person the the next via physical contact, or sharing clothing or other linens.</t>
-  </si>
-  <si>
     <t>The main symptoms of a scabies infection are severe itching and visible burrows in the skin where the mite has worked its way in to the body.</t>
   </si>
   <si>
-    <t>Topical creams that are specifically designed to kill mites are prescribed to treat scabies. They kill the mites quicly, but itching may persist for some time after treatment begins.</t>
-  </si>
-  <si>
     <t>Scabies is a contagious parasitic infection, and is considered an absolute contraindication.</t>
   </si>
   <si>
     <t>A sebaceous cyst is a condition affecting the skin, but may affect other tissues as well. These are typically the result of a blockage in a sebaceous gland that causes a backup of sebum, which is then surrounded by a membrane to keep it or an infection from harming the rest of the body.</t>
   </si>
   <si>
-    <t>A sebaceous gland produces oil, and secretes oil onto the surface of the skin. If a blocage of a sebaceous gland occurs, oil cannot escape the gland, and bacteria may infect the area. If too much bacteria is present, the body may develop connective tissue that surrounds the infected sebaceous gland, trappping it inside. this is a sebaceous cyst. Sabaceous cysts may be large or small. they may be painful to the touch, or may lead to localized infections known as abscesses. Cysts may need to be removed surgically. If the enire cyst membrane is not removed, there may be a chance of the cyst returning in the future.</t>
-  </si>
-  <si>
     <t>Some cysts show no symptoms, but symptoms are more likely to appear the larger the cyst is. Small cysts usually do not cause pain, but large cysts may cause pain and discomfort in the surrounding area.</t>
   </si>
   <si>
-    <t>Treatment, if necessay, includes moist compresses on the area to help drain the cyst, or possibly surgery if there is a risk of infection. Surgical removal may be required if the cyst is large, causes pain, or may be cancerous.</t>
-  </si>
-  <si>
     <t>Sebaceous cysts are considered local contraindications, and should be avoided to prevent damaging the cyst and allowing the fluid inside to affect the body. The area may also be painful.</t>
   </si>
   <si>
     <t>Urticaria, also known as hives, is a condition that results in welts, known as wheals, appearing on the skin. Wheals are raised areas that typically itch and can appear anywhere on the body.</t>
   </si>
   <si>
-    <t>These urticaria are caused by the release of histamine in the body's blood. The body may release histamines in response to the body coming in to contact with a substance it is allergic to, in response to insect or bug bites/stings, scratches, and even certain infections. Histamines dilate blood vesseles, which bring leukocytes in to the area to help destroy any substance that may be causing the reaction.</t>
-  </si>
-  <si>
     <t>Symptoms include the wheals on the body that are usually itchy. These can be raised off the skin, discolored, and possibly painful.</t>
   </si>
   <si>
-    <t>Over-the-counter antihistamines are likely the first treatment recommended. If the ocndition does not resolve, prescription antihistamines may be given. Immunosuppressants, antiinflammatory medication, and even oral corticosteroids such as prednisone may also be given to help with the reaction.</t>
-  </si>
-  <si>
     <t>In the acute stage, the cause of the hives should be determined before massage can be performed. Once the cause is determined, massage on the area should be avoided, or if it’s a more serious reason for hives, massage should be avoided completely.</t>
   </si>
   <si>
@@ -1112,27 +923,15 @@
     <t>Warts are contagious, and may be spread by direct skin contact. The human papilloma virus stimulates the skin to produce more keratin, which causes a hard, thick overgrowth on a small localized area. This is a wart. Warts may be located in numerous locations on the body, including the hands, feet (plantar warts), and genitals (genital warts).</t>
   </si>
   <si>
-    <t>Warts are typically rough, grainy bumps, which may be a range of colors, from the color of the person's skin to white, tan, or even pink. Often, warts may have black spots in them, which is nothing more than blood clots. Depending on the location of the wart, such as plantar warts, teh wart may be painful due to calluses forming over them, pushing them deeper into the skin.</t>
-  </si>
-  <si>
-    <t>Warts ofen go into remission on their own, and treatment is not necessary. Treatment options include cryotherapy to freeze the wart, excising (cutting out) the wart, or electrosurgery to burn the wart.</t>
-  </si>
-  <si>
     <t>Warts are contagious, and should be treated as a local contraindication.</t>
   </si>
   <si>
     <t>Wounds are the rsult of a breakage in the skin, which exposes underlying tissues. There are several different types of open wounds. An abrasion is a scraping off of layers of the skin, such as a skinned knee from falling. An avulsion is caused by tissue being torn off in some way. An incision, such as produced during surgery, is a clean cut through tissue. A laceration is a cut that produces jagged edges. A puncture is caused by an object percing the skin, producing a hole.</t>
   </si>
   <si>
-    <t>Caused by many different factors, ischemia may cause owounds in cases such as decubitus ulcers or infections may cause wounds to appear in the skin as well. Damage to blood vessels, like thoe seen in diaetes mellitus can also result in wounds. Trauma is usually the main cause of wounds, and abrasions, lacerations, incisions, and punctures.</t>
-  </si>
-  <si>
     <t>Wounds in the acute stage often present with bleeding, pain, and redness in the area. These symptoms usually resolve with the healing process. If a wound is not properly treated, infection may occur, along with fever if the infection becomes systemic. A wound that becomes infected and results in necrosis is known as gangrene, caused by a severe lack of blood flow in the area.</t>
   </si>
   <si>
-    <t>Wounds should be cleansed with soap and water, and a sterile bandage should be appliied to stop bleeding. If a wound is caused by a bite from an animal or insect, medical attention may and probably should be recommended.</t>
-  </si>
-  <si>
     <t>Wounds should be treated as local contraindications until healed.</t>
   </si>
   <si>
@@ -1142,9 +941,6 @@
     <t>HIV is spread through unprotected sex, through needles that have been shared by an infected person, as a result of a mother passing HIV on to her unborn child, or even through blood transfusions if the blood was not properly screened beforehand. HIV cannot be spread through skin contact, water contact, through the bites of insects such as mosquitos, or breathing in the air of an infected person.</t>
   </si>
   <si>
-    <t>Close after the initial infection has occurred, a person may experience fever, fatigue, body aches, headache, and swollen lymph nodes. As the infection spreads, symptoms emerge such as darrhea and weight loss in conjunction with previously mentioned symptoms. Complications caused by infection by HIV include ebing more prone to infection of other conditions such as pneumonia. A type of cancer known as Kaposi's Sarcoma may develop. Severe wasting of the body may occur, in which a person loses at least ten percent of his body weight.</t>
-  </si>
-  <si>
     <t>A person infected with HIV should be prescribed antiretroviral therapy to help prevent the virus from further replicating.</t>
   </si>
   <si>
@@ -1154,27 +950,15 @@
     <t>An allergy is a reaction fo the body's immune system in response to substances that normally do not affect people. Common substances people may be allergic to include dust, pollen, mold, certain foods, pet dander, and medication.</t>
   </si>
   <si>
-    <t>Allergies occur when a substance enters the body that the body's immune system thinks is dangerous. The body produces antibodies for that specific substance. When the substance enters the body, the body releases the antibodies and other substances such as histamines to attack the substance. The release of histamines is what gives people allergey symptoms.</t>
-  </si>
-  <si>
     <t>Symptoms of allergies may be mils, or may be severe and result in serious conditions such as anaphylactic shock. Anaphylactic shock requires the use of an epinephrine shot to reverse the effects of the allergens. Less sever allergies may result in a runny nose, itchy eyes or skin, and hives.</t>
   </si>
   <si>
     <t>Typical treatments of allergens include the use of antihistamines, decongestants, and steroid nasal sprays. Avoiding the allergen is advised.</t>
   </si>
   <si>
-    <t>Allergies should be determined prior to massage to aoid using any allergens in massage lubricant. If a client develops any signs of contact with an allergen during the massage, massage should be stopped. If essential oild are the cause of th allergic reaction, effects can be managed with the application of vegetable oil</t>
-  </si>
-  <si>
     <t>Lupus erythmatosus is an autoimmune disorder affecting the connective tissues of the entire body, but can be physically seen in the skin by the formation of a butterfly rash that appears on the face during flare-ups. This rash is similar in shape to the markings found on the face of a wolf, which is wehre lupus gets its name.</t>
   </si>
   <si>
-    <t>The exact cause of lupus in unknown. Some experts believe it is a genetic disorder that influences the immune system's function. Lupus may also be triggered by smoling, sunlight, infections, and medications.</t>
-  </si>
-  <si>
-    <t>Symptoms of lupus erythmatosus incluse fever, the formation of a butterfly rash, joint pain, discomfort, fatigue, and sensitivity to sunlight. It may also contribute to the development of other medical conditions, such as Raynaud's Syndrome.</t>
-  </si>
-  <si>
     <t>There is no cue for lupus erythematosus, but treatment is available to help manage the condition. Non-steroidal anti-inflammatory drugs may help with systemic inflammation in non-severe cases. Topical corticosteroid creams may help alleviate rashes. Blood thinners may also be used in more severe cases.</t>
   </si>
   <si>
@@ -1199,45 +983,24 @@
     <t>Pitting edema is a form of lymphedema that produces pits in the skin after pressure is applied and released. Lymphedema does not leave pits, and the skin rebounds immediately due to the amount of fluid in the area.</t>
   </si>
   <si>
-    <t>Pitting edema may be non-serious, or may have severe underlyign causes. A common cause of pitting edema is pregnancy, due to the body creating much more fluid than it normally has. This increases fluid retention. Other more serious causes include heart failure, liver failure, or most commonly amongst these, renal failure. If these organs are not funcitoning properly, fluid is not effectively drained from the body, which increases swelling.</t>
-  </si>
-  <si>
     <t>Pitting edema results in pits left in the skin after applying pressure. Other symptoms may include swelling, pain, numbness, and cramping in the area. If the swelling is near a joint, movement of the joint may become difficult.</t>
   </si>
   <si>
     <t>For serious cases of pitting edema, it is recommended to visit a doctor to find the underlying cause. Once the cause is determined, a proper treatment plan may be developed. Typically if a person is suffering from organ failure, diuretics may be prescribed to help drain excess fluid from the body. Keeping limbs such as the legs elevated may also help reduce swelling.</t>
   </si>
   <si>
-    <t>Massage on a client with pitting edima should not be performed utnil the cause of pitting edema is established. If the client's cause for pitting edema is something such as pregnancy and not organ failure, massage is indicated, but massage would be done on the limb as done with lymphedema.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adhesive capsulitis is a condition of the mucsular system, which results in restricted range-of-motion at the shoulder joint. Another name for adhesive capsulities is 'Frozen Shoulder.' </t>
   </si>
   <si>
-    <t>As adhesive capsulitis progresses, symptoms vry. In beginning stages, pain may be prsent, with a gradual decrease in the range-of-motion. As te condition advances, pain may subside, with a severely reduced range-of-motion.</t>
-  </si>
-  <si>
-    <t>Treatments include stretching exercises and massage therapy to help break up the adhesions restricting range-of-motion, or to relax the suscapularis.</t>
-  </si>
-  <si>
-    <t>Surrounding the glenohumeral joint is connective tissue known as te joint capsule. This joint capsule holds everything in the joint in place, such as the bones themselves, synovial membrane, synovial fluid, etc. If there is irritation or over ue of the shoulder joint, adhesions may form between the joint capsule and the head of the humerus. These adhesions can decrease range-of-motion in the joint, and make mvoement in the joint uncomfortable. The subscapularis muscle is often called the 'frosen shoulder muscle' due to its possible role in adhesive capsulitis. If the subscapularis is hypertonic, it may pull back on the humerus, which can restrict range-of-motion.</t>
-  </si>
-  <si>
     <t>Adhesive capsulitis is not a contraindication for massage as it may help loosen adhesions and increase range-of-motion. Stretching should be performed, as well as compression in the joint.</t>
   </si>
   <si>
     <t>De Quervain's Tenosynovitis is a form of tenosynovitis that specifically affects the thumb.</t>
   </si>
   <si>
-    <t>De Quervain's Tenosynovitis is caused by over-use of the thumb, which contribuites to straining of the tendons around the thumb and their protective sheaths. This may cause pain around the thumb, inflammation, and difficulty in moving the area.</t>
-  </si>
-  <si>
     <t>Symptoms include pain and inflammation at the base of the thumb, loss of sensation in the posterior thumb, and difficulty moving the thumb and/or wrist while performing certain actions. Pain may gradually increase and radiate to other areas, such as the posterior forearm.</t>
   </si>
   <si>
-    <t>Treatments primarily consist of rest and ice to reduce pain and inflammation in the ara. Any repetitive actions that are causing the inflammation should be stopped to allow irritation to subside.</t>
-  </si>
-  <si>
     <t>Massage is a local contraindication for De Quervain's Tenosynovitis, as it may increase inflammation and pain. Application of cold may be performed to decrease inflammation around the thumb.</t>
   </si>
   <si>
@@ -1250,51 +1013,27 @@
     <t>Symptoms of fibromyalgia primarily include widespread pain, usually a dull ache in specific regions of the body for longer than three months, general fatigue, and issues with memory.</t>
   </si>
   <si>
-    <t>Medications are important in the treatment of fibromyalgia. Pain relievers help to reduce the pain a person may be experienceing, while antidepressants can help treat depression that may result due to the fatigue a person can experience.</t>
-  </si>
-  <si>
     <t>Fibromyalgia is indicated for massage, working within the client's pain tolerance.</t>
   </si>
   <si>
     <t>Golfer's Elbow isa  form of tendonitis that affects and weakens the flexors of the writst. Golfer's elbow is also known as Medial Epicondylitis, inflammation of the medial epicondyle (inside of arm at elbow of humerous)</t>
   </si>
   <si>
-    <t>Golfer's elbow is caused by repetitive motions such as elbow flexion, which put strain on the tendons connecting the flexors of the wrist to the humerus, at the medial epicondyle.</t>
-  </si>
-  <si>
-    <t>Golfer's elbow may present with pain and inflammation at the medial epicondyle of the humerus, weakness in the elbow joint, and numbness in digits four and five.</t>
-  </si>
-  <si>
     <t>Treatment usually involves rest and ice on the medial epicondyle to reduce inflammation. Any repetitive actions that are causing the inflammation should be topped to allow irritation to subside.</t>
   </si>
   <si>
-    <t>Golfer's elbow whould be treated as a local contraindication. Application of cold may help reduce pain and inflammation at the medial epicondyle of the humerus or inside elbow of inflicted arm.</t>
-  </si>
-  <si>
     <t>A strain is an injury to a tendon or muscle, usually caused by over-exertion or over-use.</t>
   </si>
   <si>
-    <t>Activities such as exercise are a common cause of strains. Much like burns, there are three grades of strains: grade 1, grade 2, and grade 3. The lesser being grade 1 in damage. A grade 1 strain results in slight tearing of a tendon or muscle. An example could be a person's muscles being sore after exercise. The muscles have experienced slight tears during exercise, but will heal after a day or two. Grade 2 strains have more tearing of a muscle or tndon than grade 1 and may require surgery to repair, or may heal on their own with rest. There may be accompanying bruising and inflammation around the strain. Grade 3 tears are complete tears of a muscle or tendon. Surgery is required to repair a grade 3 strain. Teh quadriceps and biceps brachii are two muscles prone to grade 3 strains more than others. Grade 3 strains will inhibit movement of the joint the muscle crosses, due to its inability to pull on the bone.</t>
-  </si>
-  <si>
     <t>Strains may result in pain, inflammation, and an inability to move the injured muscle or tendon.</t>
   </si>
   <si>
-    <t>Treatments vary depending on the severity of the strain. Grade 1 strains should be able to receive massage and heat therapy after 24-48 hours to increase circulation and promot healing. Grade 2 strains may need to rest longer before receiving treatment. Grade 3 strains would require surgery to repair.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Acute strains are considered a local contraindication, and should be avoided to prevent increasing pain and inflammation in the area. Contrast therapy, utilizing alternating cold and heat, ending with cold, may be performed to decrease inflammation and bring fresh blood and nutrients into the injured area. </t>
   </si>
   <si>
     <t>Tendonitis is an injury that results in inflammation in a tendon.</t>
   </si>
   <si>
-    <t>Caused mostly by repetitive movements to one specific muscle, which can over-exert the tendon. When the tendon is over-exerted, it may tear slightly, which causes pain and inflammation. There are seeral different types of tendonitis, including Golfer's Elbow (inflammation of the tendon at the medial epicondyle of the humerus), tennis elbow (inflammation of the tendon at the lateral epicondyle of the humerus or outside elbow), and Jumper's knee (inflammation of the patellar tendon). All these conditions are caused by repetitive movements.</t>
-  </si>
-  <si>
-    <t>Symptoms may include pain upon mvoing a muscle connected to an affected tendon, and inflammation.</t>
-  </si>
-  <si>
     <t>Treatment for tendonitis is primarily rest and application of ice to reduce any inflammation. Repetitive actions causing the inflammation should cease until the irritation is controlled or subsides.</t>
   </si>
   <si>
@@ -1304,27 +1043,18 @@
     <t>Tennis Elbow is a form of tendonitis that affects and weakens the extensors of the writst. Tennis elbow is also known as Lateral Epicondylitis, inflammation of the lateral epicondyle.</t>
   </si>
   <si>
-    <t>Tennis Elbow is caused by repetitive motions such as elbow extendion, which put strain on the tendons connecting the extensors of the wrist to the humerus, at the lateral epicondyle.</t>
-  </si>
-  <si>
     <t>Tennis elbow commonly presents with pain that radiates distally to the posterior forearm. Weakness may result, especially when performing actions that require grasping.</t>
   </si>
   <si>
     <t>Treatment typically involves rest and ice on the lateral epicondyle to reduce inflammation. Any repetitive actions that are causing the inflammation should e stopped to allow irritation to subside.</t>
   </si>
   <si>
-    <t>Tennis elbow should eb treated as a local contraindication. Alternating application of cold and heat, ending with cold, can assist in decreasing inflammation and associated pain at the lateral epicondyle of the humerus.</t>
-  </si>
-  <si>
     <t>Tenosynovitis is a repetitive strain injury that results in inflammation of a tendon and its protective sheath.</t>
   </si>
   <si>
     <t>Tenosynovitis primarily affects the hands, wrists, and feet due to the length of the tendons in these areas. The longer the tendon is, the easier it becomes to strain. Because there may be inflammation, pain may be present, and it may be difficult to move the affected area. A common type of tenosynovitis is known as De Quervain's tenosynovitis, which causes inflammation around the thumb due to over-use.</t>
   </si>
   <si>
-    <t>Tenosynovitis may produce pain and inflammation in affected joints making it painful to mvoe these joints. The area of the inflamed tendon may also be red.</t>
-  </si>
-  <si>
     <t>Tenosynovitis is typically treated the same as any strain, with rest and ice to reduce pain and inflammation Less commonly, tenosynovitis may be the result of bacterial infection, which may produce a fever. If a fever is present, medications such antibiotics and antipyretics may be prescribed to combat bacterial growth and fever.</t>
   </si>
   <si>
@@ -1334,18 +1064,12 @@
     <t>Toticollis, also known as wry neck, is a condition casuing the neck to twist to one side, which tilts the head.</t>
   </si>
   <si>
-    <t>Trauma to the cervical region may cause torticollis. An injury to the sternocleidomastoid is often the prime cause. Spasms of the sternocleidomastoid amy cause a type of torticollis known as spasmodic torticollis, and is usually a chronic condition. An injury to the trochlear nerve may cause a separate type of torticollis know as trochlear torticollis, in which a person must adjust the position of their head to see properly due to the trochlear nerve, which provides stimulation to muscles controlling the eye, no longer funcitoning as effectively.</t>
-  </si>
-  <si>
     <t>A person affected by torticollis will have their head tilted to one side. This can be uncomfortable or painful, especially when trying to move the neck or head back to a normal position. This can also lead to pain in the back and shoulders, and headaches.</t>
   </si>
   <si>
     <t>Because torticollis is the result of a spasm or contraction of neck muscles, treatments aim to relax the affected muscles. These treatments may include physical therapy, prescribing muscle relaxants, or possible surgery to correct any structural issues that may arise. Torticollis usually resolves itself within a few days, unless there is a more severe cause.</t>
   </si>
   <si>
-    <t>Torticollis is generally not considered a contraindication, but precautions hsould be taken if damage to a muscle or nerve is the cause.</t>
-  </si>
-  <si>
     <t>Alzheimer's Disease is the most common form of dementia, with memory loss, confusion, and a general loss of intellectual abilities. It is a result of brain tissue gradually dying over time. Icreased age is a risk factor of developing alsheimer's and becomes much more common after the age of 65 in those affected.</t>
   </si>
   <si>
@@ -1373,9 +1097,6 @@
     <t>A person with Bell's Palsy may take corticosteroids to help treat the muscle weakness. Self care, including facial exercises are recommended.</t>
   </si>
   <si>
-    <t>Bell's Palsy isindicated for massage. The side of the face that is paralyzed should be massaged lightly to avoid damaging any tissue. The client may not be able to tel the therapist if the massage is too deep around facial structures, so lighter massage on the affected area should be performed.</t>
-  </si>
-  <si>
     <t>Carpal Tunnel Syndrome is a condition caused by compression of the median nerve between the carpals and the transverse carpal ligament</t>
   </si>
   <si>
@@ -1385,12 +1106,6 @@
     <t>Carpal tunnel syndrome often results in pain, numbness, and tingling sensations in the hand and wrist. Atrophy of the hand muscles may result due to lack of use.</t>
   </si>
   <si>
-    <t>Several tratments are available for carpal tunnel syndrome. Self-care is recommended, including stretching the forearm and writst flexors, massaging the transverse carpal ligament and hand muscles, and icing the area. Because carpal tunnel syndrome is often caused by repetitive actions, ceasing these actions is recommended. Non-steroidal anti-inflammatory medications may be prescribed. Surgery to remove the transverse carpal ligament may also be an option if the condition is severe.</t>
-  </si>
-  <si>
-    <t>Massage is indicated for carpal tunnel syndrome. Cross-fiber and ciruclar friction on the transverse carpal ligament should be performed to help loosen adhesions in the area. Application of heat can help soften the ligament, and allow more space in the carpal canal.</t>
-  </si>
-  <si>
     <t>Encephalitis is primarily a viral infection that results in inflammation of the brain.</t>
   </si>
   <si>
@@ -1400,9 +1115,6 @@
     <t>Symptoms of encephalitis vary depending on severity. Mild cases result in flu-like symptoms such as fever, headache, general body ache, and fatigue. More severe cases may result in unconsciousness, seizures, weakness, and difficulty speaking or hearing.</t>
   </si>
   <si>
-    <t>Because most cases of encephalitis are mild, treatment often consists of bed rest, and letting the virus work through its course. Antivial medications may also be administered via an IV if the infection is more severe.</t>
-  </si>
-  <si>
     <t>Because encephalitis is contagious and a serious medical condition, it is an absolute contraindication. Massage may be performed after the condition has completely resolved.</t>
   </si>
   <si>
@@ -1412,12 +1124,6 @@
     <t>Being exposed to a pathogen, such as streptococci bacterium, or West Nile virus, are the casue of meningitis. Exposure to these may differ, and contracting them does not necessarily mean a person will develop meningitis. West Nile virus, which also may cause encephalitis, is often transmitted by mosquitos. Rarely, meningitis may be caused by things that are not infectious, such as medications or allergies to certain chemicals.</t>
   </si>
   <si>
-    <t>Symptoms very depending on the underlying cause. Viral meningitis may present with symptoms extremely similar to influenze, and will likely dlear up on their own within a couple weeks. Fever, headache, nausea, vomiting, and an unuaually stiff neck are symptoms to watch for. Meningitis is considered a medical emergency, and a person with suspected meningitis should be seen by a medical professional right away.</t>
-  </si>
-  <si>
-    <t>Bacterial meningitis is treated with intravenous antibiotics to combat the infection, and a course of corticosteroids to prevent inflammation in the brain. Draining the infection from the sinuses may be helful. Viral meningitis, however, is far less serious, and often clears up after a couple weeks. Treatment for viral meningitis is simply rest and increasing fluid intake. Pain relievers may also help if a person has genral body aches or is suffering from mild fever.</t>
-  </si>
-  <si>
     <t>Because meningitis is a contagious condition, it is an absolute contraindication to massage. Massage may be performed after the condition has completely resolved.</t>
   </si>
   <si>
@@ -1427,15 +1133,6 @@
     <t>The cause of multiple scleroisis is unknown, but may be hereditary, and even environmental factors have been linked to the development of the disease. The disease begins with the body's immune system attacking the myelin sheaths, the protective fatty layers surrounding axons. These sheaths help to insulate the axons and prevent damage to the axons. When the myelin sheath is attacked and destroyed, it exposed the axons, which can have many different effects. Impulses traveling along an axon may terminate at the site of myelin degeneration, which may cause loss of funcitons. Scar tissue may form over the axons, which leads to extreme pain.</t>
   </si>
   <si>
-    <t>Symptoms of multipel sclerosis in acute stages include pain, weakness, fatigue, numbness (usually in the face), itingling sensation, blurry vision, and difficulty walking.</t>
-  </si>
-  <si>
-    <t>There is no cure for multiple sclerosis. People may be prescribed disease-altering drugs that may suppress the funcitons of the immune system. People may seek other means of managing their multiple sclerosis and the accompnaying pain and fatigue, including massage therapy, yoga, and meditation.</t>
-  </si>
-  <si>
-    <t>Massage in the acute stage of mulitple sclerosis may be performed, but it is highly unlikely a client will seek massage because of the pain involved. Modalities that do not involve touching, such as Reiki, may be recommended and performed in these instances. In the post-acute stage, massage may be performed.</t>
-  </si>
-  <si>
     <t>Parkinson's Disease is a motor disease that results in trembling due to a loss of the neurotransmitter dopamine.</t>
   </si>
   <si>
@@ -1448,9 +1145,6 @@
     <t>While there is no cure for Parkinson's Disease, treatments are available to help manage the condition, including dopamine replacement medications.</t>
   </si>
   <si>
-    <t>Massage is indicated for clietns with Parkinson's Disease. In advanced stages, when a client is unable to lie on a table without the entire body trambling, a doctor's note may be requested. In these advanced stages, the therapist may need to help the client on and off the table.</t>
-  </si>
-  <si>
     <t>Sciatica is a condition causing pain radiating down the buttocks, posterior thigh, and leg.</t>
   </si>
   <si>
@@ -1460,12 +1154,6 @@
     <t xml:space="preserve">The primary symptom of sciatica is pain in the posterior leg, thigh, and glutes, usually only on one side of the body. There may also be numbness and tingling in the affected area. </t>
   </si>
   <si>
-    <t>Treatmetn for sciatica may include physical therapy, anti-inflammatory medications, or surgery if the condition is severe enough.</t>
-  </si>
-  <si>
-    <t>Massage is indicated for sciatica, but if the sciatica is the result of a herniated disck, the site of disc herniation should be considered a local contraindication. sTretching techniques, especially in the glutes, may help ease some pain associated with sciatica.</t>
-  </si>
-  <si>
     <t>Thoracic Outlet Syndrome is a condition caused by compression of nerves and blood vessels passing through the thoracic outlet</t>
   </si>
   <si>
@@ -1478,24 +1166,12 @@
     <t>Treatments primarily consist of stretching of the tight muscles to release pressure on the nerves and blood vessels. In the case of a tumor, surgery to remove the tumor may be required.</t>
   </si>
   <si>
-    <t>Massage is generally indicated for thoracic outlet syndrome. Massaging the scalenese and pectoralis minor may assist in releasing pressure on the area, returning sufficient blood supply to the area. Sensation may return to the upper limb as a result. If thoracic outlet syndrome is the result of tumors, the area should be avoided, and massage would be a local contraindication.</t>
-  </si>
-  <si>
     <t>Trigeminal Neuralgia is a chronic condition causing extreme pain in the face.</t>
   </si>
   <si>
     <t>The trigeminal nerve (cranial nerve V) sends sensory information from the face to the brain. When a blood vessel comes into contact with the trigeminal nerve at the brain stem, it results in dysfunction of the trigeminal neree. The dysfunction results in heyper -sensitivity of the face, making even light touch extremely painful.</t>
   </si>
   <si>
-    <t>Treatments for trigeminal neuralgia include medications to reduce pain, botox injections, or possible surgery to reduce pressure one the trigeminal nerve caused by blood vessels.</t>
-  </si>
-  <si>
-    <t>Massage for trigeminal neuralgia is generally not contraindicated, but everything is dependent on the severity of pain experienced by the client. If pain is severe, massage may be considered a local contraindicatin, or the client may not want to be massaged at all and the appointmet would need to be rescheduled. If massage is able to be performed, the therapist should not use a face rest, instead opting to use a pillow for the client to rest their head up one while prone.</t>
-  </si>
-  <si>
-    <t>Extreme pain in the face, which may last from days to weeks in sthe primary symptom of trigeminal neuralgia. This pain typically only felt in one side tof the face, but may worsen over time. The three areas of the face the trigeminal nerve affect are the mandibular branch nerve to the jaw, the maxillary brance nerve to the cheekbones, and the ophthalmic branch nerve to the eye.</t>
-  </si>
-  <si>
     <t>Apnea, commonly referred to as sleep apnea, is a temporary cessation of breathing during sleep. Apnea may be a serious condition, depending on the patient. There are three types of sleep apnea: Central sleep apnea, Obstructive sleep apnea, and Complex sleep apnea syndrome. People who are overweight have a much higher rate of occurrence than others. Advanced age and being male are also common demographics for the development of sleep apnea.</t>
   </si>
   <si>
@@ -1505,9 +1181,6 @@
     <t>Symptoms of apnea include snoring, shortness of breath upon waking, fatigue, and briefly waking at night. Another person may see the cessation of breathing and report it to the patient.</t>
   </si>
   <si>
-    <t>Less severe forms of apnea may require less drastic forms of treatment, such as losing weight. In more severe forms, a person may be instructed to wear CPAP (continuous positive airway pressure) machine during sleep, which increases air pressure in the airway, keeping the airways open enough for adequate oxygen intake to occur. If other tratments are ineffective, surgery may be performed to remove tissue in and around the airway, which can increase the passageway for air to travel through.</t>
-  </si>
-  <si>
     <t>Apnea is not contraindicated for massage.</t>
   </si>
   <si>
@@ -1517,12 +1190,6 @@
     <t>Asthma affects the smooth muscle in the walls of the bronchial tubes. Typically, when a person inhales an irritant (such as dust or smoke) the smooth muscle spasms and constricts in an effort to reduce the irritant moving further into the lungs. The bronchi walls also produce an excessive amount of mucous, hwich further restricts the flow of oxygen into the lungs. Asthma usually begins in childhood, but may disappear with age. Other times, it reamins a chronic condition. Other factors such as smoking or obesity may lead to the development of ashma.</t>
   </si>
   <si>
-    <t>Symptoms include wheezing, chest tightness, and shortness of breath. Treatment vaires depending on the severity in acute stages. If it is mild, medication may not be required. If symptoms are more severe, bronchodilators may be required to calm and open the airways. In extreme cases, where regular bronchodilators do not work, medical attention should be sought. A nebulizer, with inhalable steroids, should be used with ashma attacks.</t>
-  </si>
-  <si>
-    <t>Treatment for asthma primarily consists of the use of steroids and broncodilaotrs adminsitered directly to the lungs via inhalers. If a person sufferes from an asthma attack or has more severe forms of asthma, a nebulizer (which turns medication into a mist) may be required. Corticosteroids may also be used to lessen the chances of having an asthma attack.</t>
-  </si>
-  <si>
     <t>In the acute stage, asthma is considered an absolute contraindication. Once breathing has returned to normal massage may be performed. Tapotement may be performed on the back and chest to help loosen any excess phlegm that may be present.</t>
   </si>
   <si>
@@ -1535,9 +1202,6 @@
     <t>With both forms of bronchitis, there is an increased amount of mucous produced in the lungs, which makes breathing difficult. Increased coughing may be a side effect of the increase in mucous.</t>
   </si>
   <si>
-    <t>Treatments vary depending on shich type of bronchitis is involved. Acute bronchitis may require nothing more than a bronchodilator or cough suppressant. Because acute bronchitis is usually caused by a viral infection, antivirals may be prescribed to stop the advancement of the virus. Chronic bronchitis often requries the use of a bronchodilator, but not much else.</t>
-  </si>
-  <si>
     <t>Acute bronchitis is considered an absolute contraindication, because it only appears as a secondary condition with another infection that is an absolute contraindication, such as influenza or pneumonia. Once these conditions resolve, the bronchitis will also resolve, and massage may be performed. Chronic bronchitis is indicated for massage. Tapotement may help loosen any excess phlegm as a result of the bronchitis, which can help breathing.</t>
   </si>
   <si>
@@ -1577,9 +1241,6 @@
     <t>The primary cause of pneumonia is bacterial infection (staphylococci) but may also be caused by a virus or fungi. The bacterim enters the body through breathing which then infects the lungs.</t>
   </si>
   <si>
-    <t xml:space="preserve">Mild cases of pneumonia usually present with symptoms similar tohsoe of influenza. Other symptoms may include pain in the chest upon breathing, coughing which may produce phlegm, fever, nausea, and shortness of breath. Symptoms can range from mild to severe, and even life threatening, based on the overall health and age of the person infected. </t>
-  </si>
-  <si>
     <t>Pneumonia is typically treated with antibiotics. Cough medicine and antipyretics may be prescribed to aid with coughing and to lower fever.</t>
   </si>
   <si>
@@ -1598,9 +1259,6 @@
     <t>Decongestants are effective at helping to drain the nasal cavities, which can help ease pressure in the area. Nasal sprays can help alleviate inflammation and clean out the nasal cavity, further helping to reduce pressure. If bacterial infection is present, antibiotics may be prescribed.</t>
   </si>
   <si>
-    <t>During the acute stage, and due to being caused by a contagious viral infection, sinusitis is considered an aboslue contraindication for massage. Once the condition has resolved, a client may receive massage.</t>
-  </si>
-  <si>
     <t>! MBLEx Test Prep - Comprehensive Study Guide and Workbook 2020 by David Merlino, LMT, published by Wanderer Studios, 2019</t>
   </si>
   <si>
@@ -1628,9 +1286,6 @@
     <t>Pain and swelling may present in the area of the bunion. With bunions, the big toe may cross under the second toe. This may cause calluses or corns to form on the area where these toes rub together. Movement in the big toe may be reduced.</t>
   </si>
   <si>
-    <t>How severe the bunion is determines the treatment. Less severe bunions may require only changing shoes or applying a spint to help reset the toe. More severe forms of a bunion may require surgery to correct the placement of the toe.</t>
-  </si>
-  <si>
     <t>Massage is generally not contraindicated for a bunion. But if the client is experiencing pain as a result of the bunion, massage in the area is to be avoided.</t>
   </si>
   <si>
@@ -1658,9 +1313,6 @@
     <t>Dislocations are extremely painful, and often present with deformity of the joint and an inability to move the joint. Inflammation may be present in some cases.</t>
   </si>
   <si>
-    <t>Treatment of a dislocation in the acute stage primarily involves trying to get the bone back to its norml position, known as reduction. After the joint has returned to its normal position, it is typically immobilized for a number of weeks to reduce revurrence of dislocation and to help the tissues around the joint to heal. If the dislocation is severe and unable to be returned to position, surgery may be required.</t>
-  </si>
-  <si>
     <t>In the acute stage, a dislocation is considered a local contraindication. If the joint has healed, massage may be performed on the area with caution. Stretching and range-of-motion should be avoided because the joint is much weaker after a dislocation.</t>
   </si>
   <si>
@@ -1676,9 +1328,6 @@
     <t>Fractures should be treated immediately. A cast or splint may be applied, depending on which bone is fractured. Other fractures, such as vertebrae fractures, may need more extensive treatment, including metal plates or bone grafts.</t>
   </si>
   <si>
-    <t>In the acute stage, a fracture should be considered a local contraindication. After the fracture has healed, massage may be performed on the area. If metal plaates, rods, screws, or pins have been placed in the bone, caution should be taken in the area, but massage may still be performed.</t>
-  </si>
-  <si>
     <t>Gout is the form of arthritis, mostly seen around the base of the big toe, but may also affect other joints in the body, such as the hands and fingers.</t>
   </si>
   <si>
@@ -1688,9 +1337,6 @@
     <t>Gout may be extremely painful in the acute stage as the crystals collect in the joints. Inflammation may set in, which can increase the pressure and pain in the joint. Loss of range-of-motion may also occur. Untreated, gout may result in kidney stones.</t>
   </si>
   <si>
-    <t>Treatments for gout include non-steroidal anti-inflammatory drugs and/or corticosteroids to reduce pain and inflammation. Gout may also require the use of certain medications that prevent the creatioin of uric acid in the body.</t>
-  </si>
-  <si>
     <t>Gout is considered a local contraindication.</t>
   </si>
   <si>
@@ -1718,12 +1364,6 @@
     <t>Kyphosis may cause pain in the back, and difficulty in movement and breathing as a result. It may also result in the lumbar vertebrae losing its curvature, a condition known as flat back.</t>
   </si>
   <si>
-    <t>Kyphosis may vary from mild to severe, depending on the cause. Treatments include exercises that strenthen the muscles of the back, stretching of tight muscles that may contribute to kyphosis, braces to keep the vertebrae properly aligned, and possibly even surgery if it's warranted.</t>
-  </si>
-  <si>
-    <t>Kyphosis is not contraindicated for massage. A person with kyphosis may be uncomfortable lying supine, and may need to be placed into side-lying position for comfort. Massage of the pectoralis minor and serratus anterior muscles may help the scapulae return to theri normal locations, which can help straighten the vertebrae.</t>
-  </si>
-  <si>
     <t>Lordosis is a condition affecting the lumbar vertebrae, resulting in hyper-curvature. Another name for lordosis is 'Swayback.'</t>
   </si>
   <si>
@@ -1745,9 +1385,6 @@
     <t>Osgood-Schlatter Disease primarily affects adolescents, particularly those involved in sports. Over-use of the quadriceps during activities such as running and jumping can cause tightness in the patellar tendon. When the patellar tendon tighten, it pulls proximally on teh tibial tuberosity. Because the bone is still growing, the force of the patellar tendon on the tibial tuberosity can cause an over-growth of bone, resulting in a bony lump. Males are more likely to develop this condition than females, but instances in females are increasing as participation in sports by females increases.</t>
   </si>
   <si>
-    <t>Osgood-Schlatter Disease may cause pain, but it varies from person to person. The pain may be mild, or it may be more intense, making movement of the knee difficult. Despite comlications from Osgood-Schlatter Disease being rare, inflammation of the area may persist over time. The bony lump produced by increased bone production may also remain.</t>
-  </si>
-  <si>
     <t>Treatment is mild, usually nothing more than pain relievers, rest, and ice. Exercises that stretch the quadriceps are recommended.</t>
   </si>
   <si>
@@ -1760,9 +1397,6 @@
     <t>Osteoarthritis is also known as 'wear-and-tear arthritis' and caused by damage to the hyaline cartilage separating one bone from another. The cartilage between bones reduces friction between the bones, and absorbs shock in the joint. Over time, the articular cartilage may begin to break down and wear away. This causes irritation in the joint and increases friction between the bones, which causes inflammation. As this persists, damage to the bone may take place. The most common location of osteoarthritis is the knee, but in massage therapy, it may also affect the carpometacarpal joint of the thumb (saddle joint).</t>
   </si>
   <si>
-    <t>Osteoarthritis may cause pain, difficulty mvoing the affected joint, and bone spurs in the joint due to increased friction between the bones. When the condition advances to the point of the joint being mostly unusable, joint replacement surgery may be recommended.</t>
-  </si>
-  <si>
     <t>Treatment includes non-steroidal anti-inflammatory drugs, lifestyle and dietary changes if caused by obesity, and alternative methods such as yoga.</t>
   </si>
   <si>
@@ -1778,9 +1412,6 @@
     <t>In the early stages of osteoporosis, there are usually no symptoms. As bone loss increases over time, a person may experience back pain, hunched posture (kyphosis) and bones that fracture easier than usual. These symptoms often become worse as the disease progresses and more bone tissue is lost.</t>
   </si>
   <si>
-    <t>Treatments for osteoporosis include estrogen replacement therapy, and weight-bearing exercise earlier in life before any symptoms of osteoposrosis surface. Weight-bearing exercise, such as squats and dead-lifts help to strenthen the bones substantially reducing the risk of developing ostoporosis in older age.</t>
-  </si>
-  <si>
     <t>Massage is indicated for osteoporosis. However, precautions should be taken, such as performing a lighter massage, and not performing techniques such as tapotement to avoid damaging bone.</t>
   </si>
   <si>
@@ -1790,24 +1421,15 @@
     <t>Around synovial joints, there is a membrane called the synovial membrane, which supplies joints with synovial fluid. In rheumatoid arthritis, the body's immune systems attacks the synovial membranes, destroying them. This is especially common in the metacarpophalangeal joints. After the synovial membranes have been destroyed, extremely thick, fibrous material replaces them, which not only makes movement painful and difficult, but can also cause deformity, turning the fingers into an adducted position.</t>
   </si>
   <si>
-    <t>Rheumatoid arthritis can produce pain and discomfort in the affected joints, as well as cause pain and stiffness after long periods of inactivity in the joints. Fever and fatigue may also be symptoms of general rheumatoid arthritis. Less commonly, some people may experience symptoms in structures completely urnrelated to the affected joints, such as the eyes, heart, lungs, and kidneys.</t>
-  </si>
-  <si>
     <t>There is no cure for rheumatoid arthritis, but treatments include non-steroidal anti-inflammatory drugs, corticosteroids, and physical therapy.</t>
   </si>
   <si>
-    <t>In the acute stage, rheumatoid arthritis is considered a local contraindication, as the pain may be too intesne for the client to receive massage on the affected area. In general, however, a client with rheumatoid arthritis may receive massage to help ease pain associated with inflammation if the body can tolerate a light-to-medium pressured massage.</t>
-  </si>
-  <si>
     <t>Scoliosis is a condition causing the vertebral column, usually in the thoracic region, to be pulled into a lateral position.</t>
   </si>
   <si>
     <t>The causes of scoliosis are unknown, but there may be a hereditary link. Scoliosis typically develps around the beginning stages of puberty. Scoliosis is mostly mild in severity, but can become mush more prominent, which can put incredible strain on the ribs, vertebrae, and hips. With scoliosis, one hip may be higher than the other, which causes a discrepancy in gait. Tight muscles may also contribute to the  development of scoliosis, as seen in cases such as a hypertonci rhomboid major and minor unilaterally, which pulls the vertebrae to one side.</t>
   </si>
   <si>
-    <t>If soliosis is severe, damage to the heart or lungs may occur due to the deformity of the rib cage. Back pain may also persist.</t>
-  </si>
-  <si>
     <t>Treatment, while commonly unnecessary, may include the use of braces to correct posture, the use of chiropractic therapy, massage therapy, or in severe cases, surgery with metal rod implantation.</t>
   </si>
   <si>
@@ -1850,12 +1472,6 @@
     <t>Cystitis is caused most commonly by E. Coli entering the urethra, then reproducing. The increased amount of bacterium in the urethra causes the infection to spread upwards into the bladder. Cystitis can cause numerous symptoms, including blood in the urine, burning sensations while urinating, and a frequent urge to urinate. If untreated, the infection may spread to the kidneys. When this happens, it is known as pyelonephritis.</t>
   </si>
   <si>
-    <t>Symptoms of cystitis include a frequent urge to urinate, a painful bruning sensation upon urination, urinating small amounts at a time, fever, and blood in the urine.</t>
-  </si>
-  <si>
-    <t>Cystitis is a bacterial infection, and ist reated with antibiotics.</t>
-  </si>
-  <si>
     <t>In the acute stage of infection, massage is contraindicated for cystitis. Once the infection has cleared, massage may be performed.</t>
   </si>
   <si>
@@ -1865,9 +1481,6 @@
     <t>Kidney stones may be caused by numerous factors. Most commonly, they are caused by increased amounts of calcium oxalate, which is found in many types of food. Excessive amounts of calcium oxalate can cause stones to develop. Uric acid may also produce stones if a person does not drink enough fluids. A high protein diet may contribute to the development of uric acid stones. Less commonly, struvite stones may form, which are the result of bacterial infections of the urinary tract.</t>
   </si>
   <si>
-    <t>Kidney stones are laregly asymptomatic until they leave the kindey and enter the ureter. When this occurs, pain may be felt around the abdomen, groin, back, and sides. Painful urination may take place as the stne blocks the ureter. The urine may hae a pink or brown appearance due to blood in the urine. An inadequate amount of urine may be produced due to blockages.</t>
-  </si>
-  <si>
     <t>Many treatment options are available. In less severe cases, increasing water intake can help flush the kidneys of the increased calcium and help move the stones out of the body. To aid in moving the stone out of the body, a doctor may prescribe medications that help to relax the smooth muscle in the ureter, known as alpha blockers. In more severe cases, stones may be destroyed still inside the body using a treatment known as extracorporeal shock wave lithotripsy. The stones are broken down using sound waves and then are bale to be passed out of the body easier. If the stones are too big to be destroyed using sound waves, they may be removed surgically.</t>
   </si>
   <si>
@@ -1886,24 +1499,12 @@
     <t>Antibiotics are used to combat pyelonephritis. Typically they are administered orally, but in more severe cases that require hospitalization, they may be administered via IV. Pain relievers may be used for associated pain.</t>
   </si>
   <si>
-    <t>Pyelonephritis is considered an absolute contraindication. A client who suspects a kindey infection should seek medical treatment.</t>
-  </si>
-  <si>
     <t>Renal failure is kindey failure, where kidneys stop funcitoning properly. This can lead to the body being unable to eliminate waste, electrolytes, and exessive fluid. This can lead to dangerous,even fatal levels of these substances in the body.</t>
   </si>
   <si>
     <t>Renal failure is commonly the result of another condition damaging the kidney enough to impair function. Examples are hypertension, glomerulonephritis, pyelonephritis, diabetes, and polycystic kidney disease.</t>
   </si>
   <si>
-    <t>Usually, renal failure occurs gradually, and symptoms become more known as the kidney begins to lose funciton. Fatigue, nausea, vomiting, hypertension, increased fluid accumulation in the lower limbs, and loss of appetite are common symptoms.</t>
-  </si>
-  <si>
-    <t>As the kidneys begin failing, treatment usually revolves around treating the symptoms to try and slow the disease. Once the kidneys have experienced too much damage and the body is unable to eliminate waste and fluid effectively, dialysis may be performed to remove these substances, either through the blood or through the peritoneum. Kidney transplants may be performed. Instead of removign the damaged kidneys, a doctor will leave the damaged kidneys in the body and attach another kidney. Despite not functioning optimally, the damaged kidneys can still assist the new kidney in filtering waste and fluid, even though it may only be a small amount.</t>
-  </si>
-  <si>
-    <t>Because massage may increase the load on kidneys by helping rid the body of waste, massage is considered an absolute contraindication in clients with renal failure. There is debate amongst kidney specialists on this matter, thugh, and some believe massage therapy does not do harm in people with renal failure.</t>
-  </si>
-  <si>
     <t>Urethritis is inflammation of the urethra, usually caused by a bacterial infection. It is extremely treatable.</t>
   </si>
   <si>
@@ -1925,15 +1526,9 @@
     <t>Basal cell carcinoma is the most common form of skin cancer, caused by exposure to ultraviolet light. The tumor grows extremely slowly, which makes basal cell carcinoma much more treatable than other types of skin cancer. Because it is much more treatable, it is considered the least serious form of skin cancer. Basal Cell carcinoma is considered a malignant form of cancer, due to its ability to spread to the tissues immediately surrounding it. It will very rarely spread to other organs.</t>
   </si>
   <si>
-    <t>Basal Cell carcinaoma tumors may appear to have blood vessels in them, and vary in color from black to brown to pink. These growths may bleed easily.</t>
-  </si>
-  <si>
     <t>Treatments for basal cell carcinoma includes surgical excision of the tumor, freezing the tumor, or in more serious cases, medications that prevent the cancerous cells from spreading to other tissues.</t>
   </si>
   <si>
-    <t>Massage is indicated for a client with basal cell carcinoma but the tumor is a local contraindication, and massage around the areas should be avoided to prevent spreading of cnacerous tissue through the increased blood and lymph flow.</t>
-  </si>
-  <si>
     <t>Breast Cancer is cancer of breast tissue, including lymph nodes and vessels in the breast and axillary region. Breast cancer is the second most common form of cancer diagnosed in women, behind skin cancer. Breast cancer is much more common in women, but it can also occur in men. Breast cancer can spread throughout the breast and to other regions of the body, and is considered a malignant form of cancer.</t>
   </si>
   <si>
@@ -1946,9 +1541,6 @@
     <t>A massage therapist should obtain a doctor's note approving massage. Afterwards massage may be performed, avoiding any tumors, lymph nodes, or other areas affected.</t>
   </si>
   <si>
-    <t>Treatment is based on the severity of the tumor growth. Surgery to remove the tumor will likely be performed after locating it via mammogram and ultrasound. If a large amount of breast tissue is involved, the breast may be completely removed, known as a mastectomy. Lymph nodes may also be removed to prevent any canceroud tissue from spreading to other parts of the body. Chemotherapy and radiation therapy are performed to kill the remaining cancerous cells.</t>
-  </si>
-  <si>
     <t>Hodgkin's Lymphoma is a malignant cancer affecting the Lymphatic System, specifically the lymph nodes in the upper limb, chest, and neck. Hodgkin's Lymphoma usually follow lymph channels in a predictable manner, mvoign from one lymph node to the next.</t>
   </si>
   <si>
@@ -1958,9 +1550,6 @@
     <t>Symptoms of Hodgkin's Lymphoma include swelling of lymph nodes in the neck, upper limb, and axilla that may be painless, weight loss, fever, and fatigue. A person may also experience sensitivity to alcohol.</t>
   </si>
   <si>
-    <t>Surgery isn't usually performed for a patient with Hodgkin's Lymphoma. Instead, chemotherapy and radiation therapy are used to destroy the canceroud lymphocytes. Bone marrow transplants may also be performed to stimulate the production of non-cancerous cells.</t>
-  </si>
-  <si>
     <t>A massage therapist should obtain a doctor's note approving massage. Afterwards, massage may  be performed, avoiding any tumors, lymph nodes, or other areas affected.</t>
   </si>
   <si>
@@ -1973,21 +1562,12 @@
     <t>Common symptoms of leukemia include pain in the bone, swollen lymph nodes, fatigue, fever, chills, increased likelihood of developing infections, the appearance of small red spots in the skin, and bruising or bleeding easily. A doctor should be seen if any of these symptoms persist.</t>
   </si>
   <si>
-    <t>Treatment for leukemia largely depends on the advancement of the condition. If the cancer has metastasized to other parts of the body, treatment would be performed on those areas in conjunction with treating the leukemia. Chemotherapy and radiation therapy are used to target and destroy cancerous cells throughout the body. After chemotherapy and/or radiation therapy, stem cell transplant may be performed to supply the bone with stem cells that grow healthy marrow, which produces functioning leukocytes. Bone marrow itself may also be transplanted into the patient ot accomplish the same goal.</t>
-  </si>
-  <si>
-    <t>A massage therapist should obtain a doctor's ntoe approving massage. aFterwards, massage may be performed, avoiding any tumors, lymph nodes, or other areas affected.</t>
-  </si>
-  <si>
     <t>Malignant melanoma is the least common form of skin cancer, but it is the most serious. It is caused by exposure to ultraviolet light. The cells in the body that prodcue skin pigment, melanocytes, become stimulated by exposure to ultraviolet light and reproduce, causing darker skin. In malignant melanoma, the melanocytes reproduce uncontrolled. Thihs uncontrolled reproduction results in a tumor, and these cancerous cells can easily be spread throughout the body and damage other organs and tissues. Dermatologists use the ABCDE method to diagnose malignant melanoma: A-asymmetrical; moles are typically symmetrical, but melanoma tumors have an unusual shape, and the side don't match, B-Borders; the borders of the growth change over time. This is a sign of significantly increased melanin production, C-Color; moles are typically some shade of brown. IF there are multiple shades or colors, or if the tumor is black, this may be a sign of increased melanin production, D-Diameter; if a growth is 6mm or greater in diameter this may be a sign of melanoma, E-Evolving; moles typically look the same over time. If a mole or growth begins to evolve or change in any way, this may be a sign of melanoma. Malignant melanoma most commonly begins to appear on a part of the body that doesn't have any prior lesions, like moles. If a new growth appears where there was nothing prior, this may be a sign of melanoma. Less commonly, moles may become cancerous.</t>
   </si>
   <si>
     <t>Symptoms of melanoma are all included in the ABCDEs.</t>
   </si>
   <si>
-    <t>Malignant melanoma, if caugth early enough, is easily treatable. Later stages, where it has grown beyond the skin, need more advanced treatmetns, including surgery to remove any tumors or cancerous lymph nodes, chemotherapy, and radiation therapy.</t>
-  </si>
-  <si>
     <t>Malignant melanoma is a type of skin cancer that may affect any part of the skin, and can also affect other tissues, scuh as the eyes and organs.</t>
   </si>
   <si>
@@ -2000,24 +1580,12 @@
     <t>In the body, lymphocytes, like every cell, go through their normal life cycle and die when they are supposed to. In non-hodgkin's lymphoma, the lymphocytes don't die, but continue reproducing. This causes an excessive amount of lymphocytes to build up in the lymph nodes.</t>
   </si>
   <si>
-    <t>People with non-hodgkin's lymphoma may experience swollen lymph nodes around the neck, groin, and axilla, fatigue, weight loss, and fever.</t>
-  </si>
-  <si>
-    <t>Often times, non-hodgkin's lymphoma isn't serious and treatment is only requried when it becomes advanced. Advanced non-hodgkin's lymphoma is treated with chemotherapy and radiation therapy to destroy the cancerous cells.</t>
-  </si>
-  <si>
-    <t>A massage therapist should obtain a docto's note approving massage. Afterwards, massage may be performed, avoiding any tumors, lymph nodes, or other areas affected.</t>
-  </si>
-  <si>
     <t>Squamous Cell Carcinoma is a form of skin cancer that in many cases is not serious,but has the ability to spread to other parts of the body. Squamous cell carcinoma is more serious and less common than basal cell carcinoma, but not as serious and more common than malignant melanoma.</t>
   </si>
   <si>
     <t>Squamous Cell Carcinoma, much like basal cell carcinoma and malignant melanoma, is most often caused by exposure to ultraviolet light. Tumors most commonly develop on areas of the body constatnly exposed to sunlight, such as the head, neck, arms, and hands. Tumors may be flat, scaly, and firm, and appear round the mouth, in the mouth, and on the lips.</t>
   </si>
   <si>
-    <t>Squamous Cell Carcinoma tumors are typically shaped like a dome, and tend to bleed easily. They appear red and scaly, with a rough texture. If the tumor is lare, pain may be present around the area.</t>
-  </si>
-  <si>
     <t>Much like basal cell carcinoma, treatment for squamous cell carcinoma is relatively easy, with several different methods from surgical excision and freezing of the tumor, to radiation therapy for more advanced tumors.</t>
   </si>
   <si>
@@ -2030,9 +1598,6 @@
     <t>Anorexia si a pyschological disorder in which a person's perception of their weight is distorted. Contributing factors towards the development of anorexia include environmental influences that put an over-emphasis on being thin and pyschological issues such as obsessive compulsive disorder that make it easier to not eat by sticking to set goals.</t>
   </si>
   <si>
-    <t>Symptoms are wide-ranging, from severe thinness and weight loss, to problems with tooth decay from excessive vomiting. A lack of proper nutrition can lead to fatigue, weakness, thinning hair, and dehydration. A person with anorexia may develop anemia, osteoporosis, abnormalities in hormone production and regulation, issues with kidney function, and muscle atrophy. Pyschologically, a person may withdraw socially, and try to hide their anorexia by wearing clothing to hide their weight loss. A person may become irritable and skip meals. When confronted, a person may deny skipping meals or lie about how much food they have eaten.</t>
-  </si>
-  <si>
     <t>Treatment for anorexia may include hospitalization in severe cases, where the body is not receiving adequate nutrition over a long period of time. While in the hospital, a person will be given fluids to balance hydration and electrolyte levels, and be treated for issues possibly relating to the heart, liver, and kidneys. A feeding tube may be inserted to ensure a person is receiving enough nutrients. Aside from a stay in the hospital, a person may be seen by a mental health professional to deal with underlying causes of anorexia. A person may work closely with a dietician to maintain a healthy diet.</t>
   </si>
   <si>
@@ -2060,24 +1625,12 @@
     <t>The exact cause of bulimia is unknown, although there are several contributing factors that may lead to the development of the condition. Stress, histoy of abuse, trauma, low self-esteem, and having a negative image of one's body can all be contributing factors.</t>
   </si>
   <si>
-    <t>Common symptoms may include dehydration, imbalances in electrolyte levels, fluctuating weight, lesions in the mouth due to excessive vomiting, chronic heart burun, and infertility. People with bulimia may exhibit some of the following traits and behaviours: frequent bathroom usage after eating, eating privately, smelling of vomit, and lacking control when eating.</t>
-  </si>
-  <si>
-    <t>Bulimia is most commonly caused by low self-esteem and negative body image. Therefore, the primary treatment is therapy to help the patient overcome these pyschological issues.</t>
-  </si>
-  <si>
-    <t>Bulimia is not contraindicated for massage therapy. Massage may help psychologically and improve self esteem and body image. A lighter massage may be indicated, as the client may have atrophied muscles and a weakended body due to lack of nutrients.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Dementia is a general term for symptoms that involve loss of memory, social skills, and critical thinking skills. These skills may be impairred to the point where it affects a person's ability to function effectively on a daily basis. Dementia is caused by damage to neurons in the brain. There are numerous reasons for neurons to be damaged that can contribute to dementia.</t>
   </si>
   <si>
     <t>Dementia may be permanent, or may be reversed , depending on the cause. Causes of dementia that involve permanent damage to the brain include progressive disorders such as Alzheimer's disease. Strokes may permanently damage the brain. Similar to strokes, injuries to the brain such as consussions may lead to brain damage. Cases where dementia may be reversed include certain infections that cause high fever, autoimmune disorders such as multiple sclerosis, tumors in the brain, hypoxia, inadequate fluid intake, and hormonal problems such as having too much calcium in the body. As these conditions are treated, the dementia should go away.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Dementia is most commonly associated with memory loss. This can lad to problems communicating, focusing, usign the body properly, and problem solving. A person may become depressed, develop anxiety or paranoia, and become easily irritated. </t>
-  </si>
-  <si>
     <t>Dementia itself can't be cured. Treating the underlying cause is the best way to treat dementia. This can include medications to help brain functions, and physical therapy to help with any motor skills that may be affected.</t>
   </si>
   <si>
@@ -2093,24 +1646,12 @@
     <t>Symptoms are wide-ranging, and people experience depression differently. Symptoms may include a feeling of sadness, fatigue, disinterest in eating, anxiety, insomnia, irritability, and constantly thinking about death and suicide. A person with depression may attempt suicide.</t>
   </si>
   <si>
-    <t>If a person is diagnosed with depression, antidepressants known as selective serotonin reuptake inhibitors, or SSRIs are usually prescribed to help manage hormone levels and increase serotonin levels in the blood. Talking with a mental halth professional may help a person feel better. Exercise and a healthy diet may help with hormone imbalances and increase a person's self esteem, which can aid in lowering depression. Other relaxation techniques, such as massage therapy and yoga may be sought.</t>
-  </si>
-  <si>
-    <t>Depression is not contraindicated for massage therapy. Massge may help relax a person with depression, increase self-esteem and body image, and help manage hormone leveles in the body.</t>
-  </si>
-  <si>
     <t>Insomnia is a disorder causing a lack of sufficient sleep. This may be the result of a person having difficulty fallling asleep, staying asleep, or waking too early. This can lead to many health complications.</t>
   </si>
   <si>
     <t>There are many reasons a person's sleep may be affected. Stress is the most common cause of insomnia, making it difficult to 'turn off' thoughts when its time to sleep. Having an irregular sleep schedule may make it difficult for the body to adjust when its time to sleep. Jet lag may also cause insomnia. and certian medications may interfere with normal sleep. Pain associated with medical conditions may also keep a person from sleeping.</t>
   </si>
   <si>
-    <t>Common symptoms include trouble falling asleep, trouble staying asleep waking too early, general fatigue, irritablility, increased stress and anxiety, and depression. A person with insomnia may develop other health conditions as a result of not getting enough sleep, such as hypertension.</t>
-  </si>
-  <si>
-    <t>Determining the root cause of the insomnia and treating that is the primary treatment for insomnia. Reducing stress, getting a person on a set sleep scheudle, increasing exercise, meditaiton, yoga, and massage therapy can all aid in eliminating insomnia. If these methods do not accomplish the goal, medications to help a person sleep may be prescribed. Over-the-counter sleep aids may help a person sleep, but should not be used long-term as a person may develop a dependency for them.</t>
-  </si>
-  <si>
     <t>Insomnia is not a contraindication for massage. Massage therapy may aid a person in reducing stress and helping them to obtain a normal sleep cycle.</t>
   </si>
   <si>
@@ -2120,20 +1661,479 @@
     <t>Commonly, vertigo is the result of a problem with the inner ear. Menier's desease, which causes fluid buildup that changes pressure inside the ear, is a common cause. A buildup of calcium deposits in the inner ear can alter balance. Viral infections, such as vestibular neuritis, may also cause vertigo. Less commonly, tumors in the ear may cause vertigo.</t>
   </si>
   <si>
-    <t>Verigo presents with a feeling of the environment around a person spinning, moving, swaying, or tilting. A person may become unbalanced, become nauseated, vomit, or develop headaches.</t>
-  </si>
-  <si>
-    <t>Treatment for vertigo is usually dependent on the cause. If calcium is present in the inner ear, certain head and neck movements may be performed to aid the calcium in leaving the inner ear, allowing it to be broken down by the body. Medications may be prescribed to aid with nausea and fluid build up associated with Menier's disease. Surgery may be performed if there is a tumor present. Often times, no treatmetn is necessary, as the brain becomes acclimated to vertigo and the symptoms lessen or disappear.</t>
-  </si>
-  <si>
     <t>Vertigo is not contraindicated for massage. The massage therapist may need to help the client on and off the table to avoid accidental falls due to dizziness.</t>
+  </si>
+  <si>
+    <t>Massage is indicated for a client with basal cell carcinoma but the tumor is a local contraindication, and massage around the areas should be avoided to prevent spreading of cancerous tissue through the increased blood and lymph flow.</t>
+  </si>
+  <si>
+    <t>A massage therapist should obtain a doctor's note approving massage. Afterwards, massage may be performed, avoiding any tumors, lymph nodes, or other areas affected.</t>
+  </si>
+  <si>
+    <t>Hypertension is a condition of the cardiovascular system, resulting in elevated blood pressure. There are numerous factors that may contribute to the development of hypertension. For an average healthy adult, systolic blood pressure (pressure felt in arteries when the heart beats) is around 120 mmHg, and diastolic pressure (pressure felt in arteries when the heart is at rest) is around 80 mmHg. To be diagnosed with hypertension, a person's systolic pressure would be 140 mmHg and diastolic pressure would be 90 mmHg.</t>
+  </si>
+  <si>
+    <t>A myocardial infarction, or heart attack, is a condition that affects the heart muscle, reducing blood flow throughout the body. An infarction is an obstruction of blood flow to a specific part of the body. In this case, blood flow to the heart is obstructed. The two arteries that supply blood to the heart muscle are known as the coronary arteries. When an abundance of substances such as plaque build up inside these arteries, it restricts blood flow to the heart muscle. When blood flow is restricted, the tissue does not receive adequate oxygen, which results in necrosis of the affected tissue. When too much cardiac muscle dies, the body experiences a myocardial infarction, or heart attack</t>
+  </si>
+  <si>
+    <t>Varicose veins are the abnormal swelling of veins in the body, most commonly seen in the legs, but may be present in any vein. There are many different types, ranging from regular varicose veins, to spider veins, and even hemorrhoids.</t>
+  </si>
+  <si>
+    <t>Cholecystitis is inflammation of the gallbladder. If untreated, cholecystitis may lead to extremely serious conditions, such as rupture of the gallbladder.</t>
+  </si>
+  <si>
+    <t>Crohn's Disease is an inflammatory bowel disease, which causes inflammation of the digestive tract. Crohn' s has periods of exacerbation and remission, were the disease is actively causing inflammation, then periods where it is not. Crohn's disease typically appears in younger people, people who are of East European Jewish descent, people who have relatives with the disease, and people who smoke cigarettes. Damage to the digestive tract, including ulcerations and scarring, may result. Depending on the locations of the ulceration and scarring, abscesses and constipation may result.</t>
+  </si>
+  <si>
+    <t>Diverticulitis is a condition affecting the large intestine, but may also affect other structures such as the abdomen, or the entire Cardiovascular System. If a person is affected by diverticulosis, they have small pouches that develop in the large intestine. In certain cases, these pouches may become inflamed and/or infected, which then becomes diverticulitis.</t>
+  </si>
+  <si>
+    <t>Hernia is a rupture in a muscle or connective tissue, allowing an organ or other tissue to protrude through its normal location. There are many different types of hernia in the Digestive System, including hiatal, umbilical, and inguinal.</t>
+  </si>
+  <si>
+    <t>Athlete's Foot (also known as Tinea Pedic) is a fungal infection of the foot. Despite the name, anyone may develop athlete's foot , not just athletes. Athlete's foot, like other fungal infections such as ringworm and jock itch, is highly contagious.</t>
+  </si>
+  <si>
+    <t>Burns are a skin condition in which the skin is damaged due to exposure to heat, chemicals, or other means. This may result in inflammation, blister formation, or necrosis, depending on the severity of the burn. Burns of the skin can be categorized as first, second, third, or fourth degree, with first being the least severe. A first degree burn only affects the epidermis. It may lead to pain and inflammation of the skin, but nothing more. A common first degree burn is a sun burn. The pain and inflammation subsides in a day or two, and the skin returns to normal. A second degree burn is more severe. In a second degree burn, the burn moves through the epidermis and into the dermis. Because the burn goes deeper into the skin, it causes more damage, which can be seen by blistering. Blisters form to help repair the damage done by the burn. Second degree burns may result in scarring if they are too severe. Third degree burns more even deeper into the skin, reaching the subcutaneous layer of the skin. Third degree burns often cause severe tissue damage and necrosis. Skin grafts may be needed to help repair an area damaged by a third degree burn. While first, second, and third degree burns are most common, a fourth degree burn moves completely through all layers of the skin and goes deeper into tissues beneath the skin, such as tendons, ligaments, muscles, and bones.</t>
+  </si>
+  <si>
+    <t>In iron-deficient anemia, the primary cause is a lack of iron being consumed. Less iron being consumed results in less hemoglobin in the erythrocytes, which in turn causes a lack of oxygen and carbon dioxide attaching to the red blood cells. Sickle cell anemia is an inherited for of anemia, in which the erythrocytes have a sickle shape, as opposed to a normal erythrocyte, which is circular. This shape can cause the erythrocytes to become stuck in blood vessels, and reduce adequate blood flow to tissues.</t>
+  </si>
+  <si>
+    <t>Aneurysms are the result of a part of an arterial wall becoming weakened. When the wall of the artery becomes weakened, it forces the wall out, creating a pouch or bubble. Most commonly, aneurysms are the result of hypertension putting too much pressure or strain on the artery. Ventricular aneurysms are most commonly caused by myocardial infarction, which can weaken the heart muscle. When the arterial wall stretches due to weakness, it makes it ;much easier for the artery to rupture. Because the artery carries oxygen-rich blood, this makes aneurysms very dangerous, as any rupture will severely cut off blood flow to the structure supplied with blood by the artery.</t>
+  </si>
+  <si>
+    <t>Atrial fibrillation, the most common form of arrhythmia, results when the atria, the heart's upper chambers, contract irregularly, which sends blood into the ventricles at uncoordinated times. This is caused by an electrical signal from the SA Node not firing correctly, which disrupts the timing of the atria contracting. This can affect the ability of the heart to consistently deliver oxygenated blood to the body. Bradycardia (brady-:slow; -cardia: heart) results in the heart rate being reduced to a rate of contraction that is considered too slow to deliver substantial oxygen to the body. Tachycardia (tachy-:rapid; -cardia: heart) results in the heart rate being increased to a rate of contraction that is considered too rapid. In tachycardia, the ventricles of the heart are contracting too rapidly, which may cause a lack of oxygen-rich blood from reaching the body, as the quick contractions do not allow the ventricles to properly fill with blood before being pumped out to the rest of the body. Older adults, those over age 60, are more likely to develop arrhythmia than younger adults and children. Heart development of arrhythmia, so people who have had myocardial infarction may be more prone to developing the disease. Diabetes, sleep apnea, and hypertension all have contributed to the development of arrhythmia.</t>
+  </si>
+  <si>
+    <t>There are various causes for DVT. Primary causes are injury to a vein, surgery, impaired or limited mobility, and certain medications. An injury to a vein can result in blood clots, especially if there is significant damage to the vein. Surgery, which can result in cutting through veins, can also lead to blood clots. Post-surgery, if a patient is immobilized for extended periods, circulation starts to decrease in efficiency, which can lead to blood pooling in the veins of the legs. This pooling of blood can result in clots. It is this same reason people who have paralysis may develop blood clots as well.</t>
+  </si>
+  <si>
+    <t>Migraines have numerous causes, which may be from exposure to substances like tyramine ( a naturally occurring chemical found in foods such as aged cheese, alcoholic beverages, and cured meats), caffeine, stress, or even hormonal imbalance during stages such as menstruation. Migraines may even be considered hereditary.</t>
+  </si>
+  <si>
+    <t>Most commonly, cholecystitis is the result of formation of gallstones. Gallstones can block the cystic duct, which connects the gallbladder to the bile duct on its way to the duodenum, causing inflammation of the gallbladder as bile backs up in the organ. There is no consensus on what causes gallstones to form. Some theories state gallstones form because the bile contains too much cholesterol, too much bilirubin, or the gallbladder doesn't properly empty bile into the duodenum.</t>
+  </si>
+  <si>
+    <t>During peristalsis, the smooth muscle located in the walls of the large intestine contract, forcing food to move further through the organ and eventually out of the body. If the large intestine does not contain enough fecal matter, as in the case of a low-fiber diet, the contractions may result in weakening of the wall of the large intestine. As a result, small pouches may develop. If a person develops diverticulosis, small pieces of feces, nuts, seeds, etc., may become stuck inside the pouches. If feces becomes trapped in a pouch, the large intestine will absorb all of the water from it, and it will become very solid and extremely hard to remove. This may result in pain in the abdomen.</t>
+  </si>
+  <si>
+    <t>There are numerous causes of hepatitis, which affect numerous different organ systems. Most commonly, hepatitis is the result of a viral infection, but may also result from toxic substances entering into the body, such as alcohol. Short-term symptoms of hepatitis include jaundice (yellowing of the skin due to increased bilirubin in the blood stream), fever, and nausea. Long-term symptoms include cirrhosis (destruction of healthy liver cells), scarring of the liver, liver cancer, and liver failure. There  are five known hepatitis viruses: Hepatitis A, B, C, D, and E. Each varies in mode of contraction and severity in symptoms. Hepatitis B is typically transmitted through exposure to body fluids such as blood. The virus produces symptoms for a period greater than Hepatitis A, but most people will develop an immunity to it after about four weeks. A small percentage of people who contract Hepatitis B will become chronically affected by it. Vaccines for Hepatitis B are available. Hepatitis C, much like Hepatitis B, s contracted through exposure to body fluids such as blood. Hepatitis C is a chronic condition which damages the liver even further each time the person's symptoms are in the acute stage. Hepatitis C is one of the leading causes of liver failure. Hepatitis D is an infection that only results in symptoms if the person is also infected with the Hepatitis B virus. When this occurs, major complications may arise. Because Hepatitis D is only activated by the Hepatitis B virus, the Hepatitis B vaccine may contribute to the prevention of Hepatitis D. Hepatitis E, like Hepatitis A, is contracted through exposure to fecal matter. It is most commonly seen in developing countries, where sanitation standards may not be high. Hepatitis E, if sever, may lead to liver failure, despite being an acute infection.</t>
+  </si>
+  <si>
+    <t>A hernia is caused by a weakness in the affected tissue, and/or straining of the tissue. When the tissue tears, the organ, usually the small intestine, protrudes through it. This can lead to many complications, such as organ strangulation, constipation, pain, or even trauma to other structures, such as the testes. A hiatal hernia results from part of the stomach protruding upwards through the diaphragm, into the chest. Gastroesophageal Reflux Disease may result from this type of hernia, where stomach acids leak from the stomach backwards into the esophagus. An umbilical hernia, most commonly seen in infants, is caused by the small intestine protruding through the abdominal wall and into the umbilicus. This condition usually resolves on its own. An inguinal hernia, most commonly seen in men, is caused by the small intestine protruding through the wall of the abdomen, which typically descends into the scrotum. This may cause trauma to the testes. Sometimes, the small intestine may even drop farther down the body, into the thigh.</t>
+  </si>
+  <si>
+    <t>Type I is often known as juvenile diabetes as it begins in childhood. The body's immune system attacks the pancreas, the organ that produces insulin. This results in the body not producing enough insulin, which the body needs in order to convert glucose to energy. Type II is the most common diabetes caused by the body having an insulin resistance. The insulin in the body is unable to break down glucose, which causes high levels of sugar in the blood stream. Obesity is a common cause of Diabetes Type II. Gestational Diabetes is only present during pregnancy. It affects less than 10% of all pregnant women, and typically resolves after pregnancy ends</t>
+  </si>
+  <si>
+    <t>The primary cause of a goiter is a lack of iodine in the diet. If a person does not consume enough iodine, the body is unable to produce sufficient thyroid hormones. Other conditions, such as Grave's disease or Hashimoto's disease, can affect the levels of thyroid hormone being produced. Too much thyroid hormone or too little thyroid hormone being produced can have negative effects on the thyroid and could produce a goiter.</t>
+  </si>
+  <si>
+    <t>Hyperthyroidism is often caused by other conditions such as Graves' Disease. Tumors may grow in or on the thyroid, which can increase production of thyroxine.</t>
+  </si>
+  <si>
+    <t>Cellulitis is caused by staphylococci bacterium entering the body through exposure to wounds, most commonly on the legs. The infection typically stays localized, but continues to spread to surrounding tissues as the bacteria grows. The infection can present with well-defined borders of infection. If the infection enters the blood stream, it may result in septicemia, a potentially life-threatening condition. Spider or insect bites may also introduce the bacterium into the body. Any insect bite should be cleaned thoroughly to prevent infection.</t>
+  </si>
+  <si>
+    <t>Contact dermatitis results when the skin comes in to contact with some sort of irritant or allergen, causing the skin to become inflamed. Atopic dermatitis also known as eczema, can be caused by numerous factors, including an improperly functioning immune system, bacteria, dry skin, and the environment. Eczema usually begins in infancy. Seborrheic dermatitis is typically the result of a fungus growing on the skin, usually in regions that are more oily than others such as the scalp.</t>
+  </si>
+  <si>
+    <t>Herpes simplex is highly contagious, passing between people via direct contact. During an acute outbreak, a sore may appear on the skin, most commonly the mouth, face, or genitals. This sore disappears after a short time. Despite not having any sores present, a person may still be able to transmit the virus to another asymptomatically.</t>
+  </si>
+  <si>
+    <t>Impetigo is a highly contagious infection, caused by staphylococci or streptococci, which most commonly enter the body through already damaged skin, but may affect healthy skin as well. When the bacteria enters the skin, it produces sores that blister and leak a yellow, crust-like fluid. These sores typically develop around the mouth, nose, and ears.</t>
+  </si>
+  <si>
+    <t>The exact cause of psoriasis is unknown. Certain triggers, such as stress, may cause the body's immune system to attack the skin. Normally, skin cells have a life span of 3-4 weeks and ultimately flake off the body. When the immune system attacks the skin, the body responds by increasing production of epithelial cells at an extremely rapid pace, which is much faster than the cells are being destroyed. This rapid pace of cell production is what produces the patches on the skin.</t>
+  </si>
+  <si>
+    <t>Scabies are extremely contagious, transmitting easily from one person the  next via physical contact, or sharing clothing or other linens.</t>
+  </si>
+  <si>
+    <t>A sebaceous gland produces oil, and secretes oil onto the surface of the skin. If a blockage of a sebaceous gland occurs, oil cannot escape the gland, and bacteria may infect the area. If too much bacteria is present, the body may develop connective tissue that surrounds the infected sebaceous gland, trapping it inside. this is a sebaceous cyst. Sebaceous cysts may be large or small. they may be painful to the touch, or may lead to localized infections known as abscesses. Cysts may need to be removed surgically. If the entire cyst membrane is not removed, there may be a chance of the cyst returning in the future.</t>
+  </si>
+  <si>
+    <t>These urticaria are caused by the release of histamine in the body's blood. The body may release histamines in response to the body coming in to contact with a substance it is allergic to, in response to insect or bug bites/stings, scratches, and even certain infections. Histamines dilate blood vessels, which bring leukocytes in to the area to help destroy any substance that may be causing the reaction.</t>
+  </si>
+  <si>
+    <t>Caused by many different factors, ischemia may cause wounds in cases such as decubitus ulcers or infections may cause wounds to appear in the skin as well. Damage to blood vessels, like the seen in diabetes mellitus can also result in wounds. Trauma is usually the main cause of wounds, and abrasions, lacerations, incisions, and punctures.</t>
+  </si>
+  <si>
+    <t>Allergies occur when a substance enters the body that the body's immune system thinks is dangerous. The body produces antibodies for that specific substance. When the substance enters the body, the body releases the antibodies and other substances such as histamines to attack the substance. The release of histamines is what gives people allergy symptoms.</t>
+  </si>
+  <si>
+    <t>The exact cause of lupus in unknown. Some experts believe it is a genetic disorder that influences the immune system's function. Lupus may also be triggered by smiling, sunlight, infections, and medications.</t>
+  </si>
+  <si>
+    <t>Pitting edema may be non-serious, or may have severe underlying causes. A common cause of pitting edema is pregnancy, due to the body creating much more fluid than it normally has. This increases fluid retention. Other more serious causes include heart failure, liver failure, or most commonly amongst these, renal failure. If these organs are not functioning properly, fluid is not effectively drained from the body, which increases swelling.</t>
+  </si>
+  <si>
+    <t>Surrounding the glenohumeral joint is connective tissue known as the joint capsule. This joint capsule holds everything in the joint in place, such as the bones themselves, synovial membrane, synovial fluid, etc. If there is irritation or over use of the shoulder joint, adhesions may form between the joint capsule and the head of the humorous. These adhesions can decrease range-of-motion in the joint, and make movement in the joint uncomfortable. The subscapularis muscle is often called the 'frozen shoulder muscle' due to its possible role in adhesive capsulitis. If the subscapularis is hypertonic, it may pull back on the humorous, which can restrict range-of-motion.</t>
+  </si>
+  <si>
+    <t>De Quervain's Tenosynovitis is caused by over-use of the thumb, which contributes to straining of the tendons around the thumb and their protective sheaths. This may cause pain around the thumb, inflammation, and difficulty in moving the area.</t>
+  </si>
+  <si>
+    <t>Golfer's elbow is caused by repetitive motions such as elbow flexion, which put strain on the tendons connecting the flexors of the wrist to the humorous, at the medial epicondyle.</t>
+  </si>
+  <si>
+    <t>Activities such as exercise are a common cause of strains. Much like burns, there are three grades of strains: grade 1, grade 2, and grade 3. The lesser being grade 1 in damage. A grade 1 strain results in slight tearing of a tendon or muscle. An example could be a person's muscles being sore after exercise. The muscles have experienced slight tears during exercise, but will heal after a day or two. Grade 2 strains have more tearing of a muscle or tendon than grade 1 and may require surgery to repair, or may heal on their own with rest. There may be accompanying bruising and inflammation around the strain. Grade 3 tears are complete tears of a muscle or tendon. Surgery is required to repair a grade 3 strain. The quadriceps and biceps brachii are two muscles prone to grade 3 strains more than others. Grade 3 strains will inhibit movement of the joint the muscle crosses, due to its inability to pull on the bone.</t>
+  </si>
+  <si>
+    <t>Caused mostly by repetitive movements to one specific muscle, which can over-exert the tendon. When the tendon is over-exerted, it may tear slightly, which causes pain and inflammation. There are several different types of tendonitis, including Golfer's Elbow (inflammation of the tendon at the medial epicondyle of the humorous), tennis elbow (inflammation of the tendon at the lateral epicondyle of the humorous or outside elbow), and Jumper's knee (inflammation of the patellar tendon). All these conditions are caused by repetitive movements.</t>
+  </si>
+  <si>
+    <t>Tennis Elbow is caused by repetitive motions such as elbow extension, which put strain on the tendons connecting the extensors of the wrist to the humorous, at the lateral epicondyle.</t>
+  </si>
+  <si>
+    <t>Trauma to the cervical region may cause torticollis. An injury to the sternocleidomastoid is often the prime cause. Spasms of the sternocleidomastoid may cause a type of torticollis known as spasmodic torticollis, and is usually a chronic condition. An injury to the trochlear nerve may cause a separate type of torticollis know as trochlear torticollis, in which a person must adjust the position of their head to see properly due to the trochlear nerve, which provides stimulation to muscles controlling the eye, no longer functioning as effectively.</t>
+  </si>
+  <si>
+    <t>People with anemia may feel sluggish, tired, have an increased heart rate, may show paleness in the skin, shortness of breath, and experience dizziness, all due to a lack of sufficient oxygen reaching tissues. Sickle cell anemia may also result in the further development of infections due to damage caused to the spleen, pain in the thorax and abdomen (known as crises) due to blockage of blood vessels in these locations, and a lack of nutrients to the body, which can stunt growth. People whose diet lacks proper amounts of iron or vitamin B-12 may develop anemia. Pregnancy, and a lack of folic acid, may result in anemia in pregnant women. Sickle cell anemia is primarily seen in African-Americans, resulting from a genetic defect.</t>
+  </si>
+  <si>
+    <t>There are many different symptoms seen with arrhythmia. Symptoms include dizziness, fatigue, shortness of breath, pain in the chest, lightheadedness, and fainting. Arrhythmia may also result in cardiac arrest in severe cases.</t>
+  </si>
+  <si>
+    <t>Although symptoms may not be present in someone with DVT, others do show symptoms, which include a warm sensation in the affected area, pain in the affected area that can increase in intensity, and discoloration in the affected area. Most commonly, DVT affects the lower limb, so this is where a  person will most likely experience these symptoms.</t>
+  </si>
+  <si>
+    <t>While most heart murmurs aren't serious, abnormal heart murmurs may present with symptoms such as cyanosis in the fingers, chest pain, dizziness, shortness of breath, and fainting.</t>
+  </si>
+  <si>
+    <t>In acute stages of Crohn's, symptoms may include diarrhea, abdominal pain, cramping, fatigue, fever, and bloody stool. Depending on the severity of these symptoms, a person may need to visit a doctor.</t>
+  </si>
+  <si>
+    <t>Typically, people with diverticulosis don't exhibit symptoms. When they do, however, symptoms may include diarrhea, abdominal cramping, or fever. These are typically the result of infection, which may lead to diverticulitis.</t>
+  </si>
+  <si>
+    <t>Symptoms include burning in the chest, pain in the chest, a dry cough, a sour taste in the mouth, and a sore throat. It is advisable to seek medical attention if chest pain is present, because symptoms are very similar to those seen in myocardial infarction.</t>
+  </si>
+  <si>
+    <t>Hepatitis often results in no symptoms. More sever cases of hepatitis may result in a person presenting with nausea, fatigue, mild fever, loss of appetite, abdominal tenderness, and jaundice, among others.</t>
+  </si>
+  <si>
+    <t>Symptoms vary depending on the type of hernia suffered. Examples include swelling beneath the skin in the abdomen or groin in an inguinal or umbilical hernia, and heart burn and pain in the upper abdomen in hiatal hernia.</t>
+  </si>
+  <si>
+    <t>In addition to sore throat, a person with strep throat may develop red spots on the roof of the mouth, white patches on the tonsils, swollen lymph nodes in the neck, pain upon swallowing, and fever, amongst others. If left untreated, strep throat may contribute to the development of Rheumatic fever, which can cause damage to heart valves.</t>
+  </si>
+  <si>
+    <t>Warts are typically rough, grainy bumps, which may be a range of colors, from the color of the person's skin to white, tan, or even pink. Often, warts may have black spots in them, which is nothing more than blood clots. Depending on the location of the wart, such as plantar warts, the wart may be painful due to calluses forming over them, pushing them deeper into the skin.</t>
+  </si>
+  <si>
+    <t>Close after the initial infection has occurred, a person may experience fever, fatigue, body aches, headache, and swollen lymph nodes. As the infection spreads, symptoms emerge such as diarrhea and weight loss in conjunction with previously mentioned symptoms. Complications caused by infection by HIV include being more prone to infection of other conditions such as pneumonia. A type of cancer known as Kaposi's Sarcoma may develop. Severe wasting of the body may occur, in which a person loses at least ten percent of his body weight.</t>
+  </si>
+  <si>
+    <t>Symptoms of lupus erythematosus include fever, the formation of a butterfly rash, joint pain, discomfort, fatigue, and sensitivity to sunlight. It may also contribute to the development of other medical conditions, such as Raynaud's Syndrome.</t>
+  </si>
+  <si>
+    <t>As adhesive capsulitis progresses, symptoms vary. In beginning stages, pain may be present, with a gradual decrease in the range-of-motion. As the condition advances, pain may subside, with a severely reduced range-of-motion.</t>
+  </si>
+  <si>
+    <t>Golfer's elbow may present with pain and inflammation at the medial epicondyle of the humorous, weakness in the elbow joint, and numbness in digits four and five.</t>
+  </si>
+  <si>
+    <t>Symptoms may include pain upon moving a muscle connected to an affected tendon, and inflammation.</t>
+  </si>
+  <si>
+    <t>Tenosynovitis may produce pain and inflammation in affected joints making it painful to move these joints. The area of the inflamed tendon may also be red.</t>
+  </si>
+  <si>
+    <t>Symptoms very depending on the underlying cause. Viral meningitis may present with symptoms extremely similar to influence, and will likely clear up on their own within a couple weeks. Fever, headache, nausea, vomiting, and an unusually stiff neck are symptoms to watch for. Meningitis is considered a medical emergency, and a person with suspected meningitis should be seen by a medical professional right away.</t>
+  </si>
+  <si>
+    <t>Symptoms of multiple sclerosis in acute stages include pain, weakness, fatigue, numbness (usually in the face), tingling sensation, blurry vision, and difficulty walking.</t>
+  </si>
+  <si>
+    <t>Extreme pain in the face, which may last from days to weeks is the primary symptom of trigeminal neuralgia. This pain typically only felt in one side of the face, but may worsen over time. The three areas of the face the trigeminal nerve affect are the mandibular branch nerve to the jaw, the maxillary branch nerve to the cheekbones, and the ophthalmic branch nerve to the eye.</t>
+  </si>
+  <si>
+    <t>Symptoms include wheezing, chest tightness, and shortness of breath. Treatment varies depending on the severity in acute stages. If it is mild, medication may not be required. If symptoms are more severe, bronchodilators may be required to calm and open the airways. In extreme cases, where regular bronchodilators do not work, medical attention should be sought. A nebulizer, with inhalable steroids, should be used with asthma attacks.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mild cases of pneumonia usually present with symptoms similar to those of influenza. Other symptoms may include pain in the chest upon breathing, coughing which may produce phlegm, fever, nausea, and shortness of breath. Symptoms can range from mild to severe, and even life threatening, based on the overall health and age of the person infected. </t>
+  </si>
+  <si>
+    <t>Osgood-Schlatter Disease may cause pain, but it varies from person to person. The pain may be mild, or it may be more intense, making movement of the knee difficult. Despite complications from Osgood-Schlatter Disease being rare, inflammation of the area may persist over time. The bony lump produced by increased bone production may also remain.</t>
+  </si>
+  <si>
+    <t>Osteoarthritis may cause pain, difficulty moving the affected joint, and bone spurs in the joint due to increased friction between the bones. When the condition advances to the point of the joint being mostly unusable, joint replacement surgery may be recommended.</t>
+  </si>
+  <si>
+    <t>Rheumatoid arthritis can produce pain and discomfort in the affected joints, as well as cause pain and stiffness after long periods of inactivity in the joints. Fever and fatigue may also be symptoms of general rheumatoid arthritis. Less commonly, some people may experience symptoms in structures completely unrelated to the affected joints, such as the eyes, heart, lungs, and kidneys.</t>
+  </si>
+  <si>
+    <t>If scoliosis is severe, damage to the heart or lungs may occur due to the deformity of the rib cage. Back pain may also persist.</t>
+  </si>
+  <si>
+    <t>Symptoms of cystitis include a frequent urge to urinate, a painful burning sensation upon urination, urinating small amounts at a time, fever, and blood in the urine.</t>
+  </si>
+  <si>
+    <t>Kidney stones are largely asymptomatic until they leave the kidney and enter the ureter. When this occurs, pain may be felt around the abdomen, groin, back, and sides. Painful urination may take place as the stone blocks the ureter. The urine may have a pink or brown appearance due to blood in the urine. An inadequate amount of urine may be produced due to blockages.</t>
+  </si>
+  <si>
+    <t>Usually, renal failure occurs gradually, and symptoms become more known as the kidney begins to lose function. Fatigue, nausea, vomiting, hypertension, increased fluid accumulation in the lower limbs, and loss of appetite are common symptoms.</t>
+  </si>
+  <si>
+    <t>Basal Cell carcinoma tumors may appear to have blood vessels in them, and vary in color from black to brown to pink. These growths may bleed easily.</t>
+  </si>
+  <si>
+    <t>People with non-Hodgkin's lymphoma may experience swollen lymph nodes around the neck, groin, and axilla, fatigue, weight loss, and fever.</t>
+  </si>
+  <si>
+    <t>Squamous Cell Carcinoma tumors are typically shaped like a dome, and tend to bleed easily. They appear red and scaly, with a rough texture. If the tumor is large, pain may be present around the area.</t>
+  </si>
+  <si>
+    <t>Symptoms are wide-ranging, from severe thinness and weight loss, to problems with tooth decay from excessive vomiting. A lack of proper nutrition can lead to fatigue, weakness, thinning hair, and dehydration. A person with anorexia may develop anemia, osteoporosis, abnormalities in hormone production and regulation, issues with kidney function, and muscle atrophy. Psychologically, a person may withdraw socially, and try to hide their anorexia by wearing clothing to hide their weight loss. A person may become irritable and skip meals. When confronted, a person may deny skipping meals or lie about how much food they have eaten.</t>
+  </si>
+  <si>
+    <t>Common symptoms may include dehydration, imbalances in electrolyte levels, fluctuating weight, lesions in the mouth due to excessive vomiting, chronic heart burn, and infertility. People with bulimia may exhibit some of the following traits and behaviors: frequent bathroom usage after eating, eating privately, smelling of vomit, and lacking control when eating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dementia is most commonly associated with memory loss. This can lad to problems communicating, focusing, using the body properly, and problem solving. A person may become depressed, develop anxiety or paranoia, and become easily irritated. </t>
+  </si>
+  <si>
+    <t>Common symptoms include trouble falling asleep, trouble staying asleep waking too early, general fatigue, irritability, increased stress and anxiety, and depression. A person with insomnia may develop other health conditions as a result of not getting enough sleep, such as hypertension.</t>
+  </si>
+  <si>
+    <t>Vertigo presents with a feeling of the environment around a person spinning, moving, swaying, or tilting. A person may become unbalanced, become nauseated, vomit, or develop headaches.</t>
+  </si>
+  <si>
+    <t>Massage is indicated with a doctor's note. Any massage that increases blood pressure should be avoided, such as deep tissue, because it can put pressure on arteries, which may lead to bursting of an aneurysm.</t>
+  </si>
+  <si>
+    <t>Treatments vary, depending on the type of arrhythmia a person suffers from. Medical devices, such as pacemakers, may be implanted into the body to help regulate and control heart rhythm (i.e., if a person's heart rate drops too low, the pacemaker will stimulate the heart muscle and cause it to contract, increasing heart rate back to safe levels). Alternative methods to controlling arrhythmia, such as massage therapy and yoga, may be applied in some cases.</t>
+  </si>
+  <si>
+    <t>Deep vein thrombosis is typically a local contraindication. Avoid the site of the thrombus, as dislodging the clot may lead to circulation being cut off in organs such as the lungs, brain, or heart. Massage that increases blood pressure may be contraindicated, and deeper massages may be contraindicated due to the use of anticoagulants and thrombolytics.</t>
+  </si>
+  <si>
+    <t>Treatments for Raynaud's Syndrome include exercise, reducing stress, not smoking, and avoiding cold temperatures whenever possible. Secondary Raynaud's Syndrome may require medications such as statins to help regulate blood pressure and cholesterol.</t>
+  </si>
+  <si>
+    <t>A diagnosis of cholecystitis almost always results in a hospital stay. Treatments may include antibiotics to fight off any associated infection, pain medications to reduce discomfort, and fasting to let the gallbladder rest and reduce inflammation. Cholecystitis often recurs, and therefore most people who are diagnosed with cholecystitis require surgery to completely remove the gallbladder. The liver is then connected directly to the duodenum, allowing bile to enter into the small intestine.</t>
+  </si>
+  <si>
+    <t>A variety of medications may be prescribed for a patient with Crohn's, including anti-inflammatory drugs such as corticosteroids to reduce inflammation in the digestive tract, immunosuppressors to help regulate the effects of the immune system on the digestive tract, and antibiotics to reduce any abscesses that may result. Pain relievers may also be prescribed. In serious cases, surgery may be required. During Crohn's, scarring in the ileum or large intestine may result. In this surgery, the damaged portion of the digestive tract may be removed. This does not cure Crohn's, but can make it easier to manage. Changes in diet, especially in acute stages, may be beneficial.</t>
+  </si>
+  <si>
+    <t>Over-the-counter medications, such as antacids, are the primary treatment for GERD. Other medications may be prescribed by a doctor if the GERD is not helped by antacids, such as H-2-receptor blockers, which reduce stomach acid production, and proton pump inhibitors, which completely block the production of stomach acid and give the lining of the esophagus time to heal.</t>
+  </si>
+  <si>
+    <t>Antiviral medications may prevent the condition from worsening. If the condition is caused by bacterial infection, antibiotics can help combat the infection and improve the condition.</t>
+  </si>
+  <si>
+    <t>Because strep throat is caused by bacteria, antibiotics are the primary treatment. Acetaminophen is useful in treating any pain that may be present due to the infection. After starting a course of antibiotics, a person should begin feeling better within a couple days. Taking all the medication prescribed is required to prevent the infection from returning and becoming resistant to the antibiotics.</t>
+  </si>
+  <si>
+    <t>Massage is indicated for a client with Addison's Disease. However, the type and length of massage varies depending on how a client is feeling and their stamina. Clients with low stamina should receive shorter, lighter massages, while clients with increased stamina may receive longer and stimulating massages.</t>
+  </si>
+  <si>
+    <t>Massage is indicated for Cushing's Disease, but precautions may be taken in clients with weakened bones. Lighter massage is recommended for these clients to prevent damaging bone.</t>
+  </si>
+  <si>
+    <t>Treatment of a goiter typically depends on the cause. If it is caused by low levels of thyroid hormones, thyroid hormone replacement medications may be prescribed. If the thyroid is producing too much thyroid hormone, medications may be prescribed to stabilize the levels of thyroid hormone in the body. Surgery to remove the thyroid may be an option if the goiter causes any difficulty breathing or swallowing, or causes discomfort. Increasing iodine consumption may be all it takes to reduce the goiter. Iodized salt may be added to the diet, along with other foods high in iodine such as seafood.</t>
+  </si>
+  <si>
+    <t>Treatments are similar to Graves' Disease, including a prescription of oral radioactive iodine. Other medications may help lower the amount of hormone being produced by the thyroid. If a person has tachycardia as a result of hyperthyroidism, beta blockers may be prescribed. In cases where these treatments aren't helpful, surgical removal of the thyroid may be performed.</t>
+  </si>
+  <si>
+    <t>Treatment includes over-the-counter skin care products for mild acne, or in the case of severe acne, medications such as birth control pills to regulate hormone levels in women, and antibiotics to eliminate bacterial growth. Other treatments include light therapy and chemical peels.</t>
+  </si>
+  <si>
+    <t>Whiteheads are considered local contraindications. Any part of the body experiencing inflammation from acne should also be considered a  local contraindication.</t>
+  </si>
+  <si>
+    <t>Boils are treated by lancing (draining) the area with application of antibacterial soap and water, or in more severe cases, prescription of antibiotics to combat the bacterial infection.</t>
+  </si>
+  <si>
+    <t>Treatments for decubitus ulcers vary, depending on the severity of the ulceration. If an infection is present, antibiotics may be prescribed. If there is an abundance of necrotic tissue, cleaning of the area (debridement) may be performed. If there is ischemia, but no ulcer, massage and application of heat may help brings blood back into the area.</t>
+  </si>
+  <si>
+    <t>Often times application of an over-the-counter corticosteroid cream is all that's needed to alleviate dermatitis symptoms. If over-the-counter creams are ineffective, prescription strength corticosteroid creams may be administered, which usually take care of the dermatitis. Other treatments can even include exposure to sunlight.</t>
+  </si>
+  <si>
+    <t>Lice is a  highly contagious parasitic infection, and is therefore an absolute contraindication.</t>
+  </si>
+  <si>
+    <t>Psoriasis is not contraindicated for massage. Massage may be altered if the patches are painful or are scabbing, but otherwise the patches may be massaged.</t>
+  </si>
+  <si>
+    <t>Treatment includes good personal hygiene, and most commonly application of antifungal ointment to the affected area. More severe cases may require oral antifungal medication.</t>
+  </si>
+  <si>
+    <t>Topical creams that are specifically designed to kill mites are prescribed to treat scabies. They kill the mites quickly, but itching may persist for some time after treatment begins.</t>
+  </si>
+  <si>
+    <t>Treatment, if necessary, includes moist compresses on the area to help drain the cyst, or possibly surgery if there is a risk of infection. Surgical removal may be required if the cyst is large, causes pain, or may be cancerous.</t>
+  </si>
+  <si>
+    <t>Over-the-counter antihistamines are likely the first treatment recommended. If the condition does not resolve, prescription antihistamines may be given. Immunosuppressants, anti-inflammatory medication, and even oral corticosteroids such as prednisone may also be given to help with the reaction.</t>
+  </si>
+  <si>
+    <t>Warts often go into remission on their own, and treatment is not necessary. Treatment options include cryotherapy to freeze the wart, excising (cutting out) the wart, or electrosurgery to burn the wart.</t>
+  </si>
+  <si>
+    <t>Wounds should be cleansed with soap and water, and a sterile bandage should be applied to stop bleeding. If a wound is caused by a bite from an animal or insect, medical attention may and probably should be recommended.</t>
+  </si>
+  <si>
+    <t>Allergies should be determined prior to massage to avoid using any allergens in massage lubricant. If a client develops any signs of contact with an allergen during the massage, massage should be stopped. If essential oils are the cause of the allergic reaction, effects can be managed with the application of vegetable oil</t>
+  </si>
+  <si>
+    <t>Massage on a client with pitting edema should not be performed until the cause of pitting edema is established. If the client's cause for pitting edema is something such as pregnancy and not organ failure, massage is indicated, but massage would be done on the limb as done with lymphedema.</t>
+  </si>
+  <si>
+    <t>Treatments include stretching exercises and massage therapy to help break up the adhesions restricting range-of-motion, or to relax the subscapularis.</t>
+  </si>
+  <si>
+    <t>Treatments primarily consist of rest and ice to reduce pain and inflammation in the are. Any repetitive actions that are causing the inflammation should be stopped to allow irritation to subside.</t>
+  </si>
+  <si>
+    <t>Medications are important in the treatment of fibromyalgia. Pain relievers help to reduce the pain a person may be experiencing, while antidepressants can help treat depression that may result due to the fatigue a person can experience.</t>
+  </si>
+  <si>
+    <t>Golfer's elbow would be treated as a local contraindication. Application of cold may help reduce pain and inflammation at the medial epicondyle of the humorous or inside elbow of inflicted arm.</t>
+  </si>
+  <si>
+    <t>Treatments vary depending on the severity of the strain. Grade 1 strains should be able to receive massage and heat therapy after 24-48 hours to increase circulation and promote healing. Grade 2 strains may need to rest longer before receiving treatment. Grade 3 strains would require surgery to repair.</t>
+  </si>
+  <si>
+    <t>Tennis elbow should be treated as a local contraindication. Alternating application of cold and heat, ending with cold, can assist in decreasing inflammation and associated pain at the lateral epicondyle of the humorous.</t>
+  </si>
+  <si>
+    <t>Torticollis is generally not considered a contraindication, but precautions should be taken if damage to a muscle or nerve is the cause.</t>
+  </si>
+  <si>
+    <t>Bell's Palsy is indicated for massage. The side of the face that is paralyzed should be massaged lightly to avoid damaging any tissue. The client may not be able to tell the therapist if the massage is too deep around facial structures, so lighter massage on the affected area should be performed.</t>
+  </si>
+  <si>
+    <t>Several treatments are available for carpal tunnel syndrome. Self-care is recommended, including stretching the forearm and wrist flexors, massaging the transverse carpal ligament and hand muscles, and icing the area. Because carpal tunnel syndrome is often caused by repetitive actions, ceasing these actions is recommended. Non-steroidal anti-inflammatory medications may be prescribed. Surgery to remove the transverse carpal ligament may also be an option if the condition is severe.</t>
+  </si>
+  <si>
+    <t>Massage is indicated for carpal tunnel syndrome. Cross-fiber and circular friction on the transverse carpal ligament should be performed to help loosen adhesions in the area. Application of heat can help soften the ligament, and allow more space in the carpal canal.</t>
+  </si>
+  <si>
+    <t>Because most cases of encephalitis are mild, treatment often consists of bed rest, and letting the virus work through its course. Antiviral medications may also be administered via an IV if the infection is more severe.</t>
+  </si>
+  <si>
+    <t>Bacterial meningitis is treated with intravenous antibiotics to combat the infection, and a course of corticosteroids to prevent inflammation in the brain. Draining the infection from the sinuses may be helpful. Viral meningitis, however, is far less serious, and often clears up after a couple weeks. Treatment for viral meningitis is simply rest and increasing fluid intake. Pain relievers may also help if a person has general body aches or is suffering from mild fever.</t>
+  </si>
+  <si>
+    <t>There is no cure for multiple sclerosis. People may be prescribed disease-altering drugs that may suppress the functions of the immune system. People may seek other means of managing their multiple sclerosis and the accompanying pain and fatigue, including massage therapy, yoga, and meditation.</t>
+  </si>
+  <si>
+    <t>Massage in the acute stage of multiple sclerosis may be performed, but it is highly unlikely a client will seek massage because of the pain involved. Modalities that do not involve touching, such as Reiki, may be recommended and performed in these instances. In the post-acute stage, massage may be performed.</t>
+  </si>
+  <si>
+    <t>Massage is indicated for clients with Parkinson's Disease. In advanced stages, when a client is unable to lie on a table without the entire body trembling, a doctor's note may be requested. In these advanced stages, the therapist may need to help the client on and off the table.</t>
+  </si>
+  <si>
+    <t>Treatment for sciatica may include physical therapy, anti-inflammatory medications, or surgery if the condition is severe enough.</t>
+  </si>
+  <si>
+    <t>Massage is indicated for sciatica, but if the sciatica is the result of a herniated disc, the site of disc herniation should be considered a local contraindication. stretching techniques, especially in the glutes, may help ease some pain associated with sciatica.</t>
+  </si>
+  <si>
+    <t>Massage is generally indicated for thoracic outlet syndrome. Massaging the scalene and pectoralis minor may assist in releasing pressure on the area, returning sufficient blood supply to the area. Sensation may return to the upper limb as a result. If thoracic outlet syndrome is the result of tumors, the area should be avoided, and massage would be a local contraindication.</t>
+  </si>
+  <si>
+    <t>Treatments for trigeminal neuralgia include medications to reduce pain, Botox injections, or possible surgery to reduce pressure one the trigeminal nerve caused by blood vessels.</t>
+  </si>
+  <si>
+    <t>Massage for trigeminal neuralgia is generally not contraindicated, but everything is dependent on the severity of pain experienced by the client. If pain is severe, massage may be considered a local contraindication, or the client may not want to be massaged at all and the appointment would need to be rescheduled. If massage is able to be performed, the therapist should not use a face rest, instead opting to use a pillow for the client to rest their head up one while prone.</t>
+  </si>
+  <si>
+    <t>Less severe forms of apnea may require less drastic forms of treatment, such as losing weight. In more severe forms, a person may be instructed to wear CPAP (continuous positive airway pressure) machine during sleep, which increases air pressure in the airway, keeping the airways open enough for adequate oxygen intake to occur. If other treatments are ineffective, surgery may be performed to remove tissue in and around the airway, which can increase the passageway for air to travel through.</t>
+  </si>
+  <si>
+    <t>Treatment for asthma primarily consists of the use of steroids and bronchodilators administered directly to the lungs via inhalers. If a person suffers from an asthma attack or has more severe forms of asthma, a nebulizer (which turns medication into a mist) may be required. Corticosteroids may also be used to lessen the chances of having an asthma attack.</t>
+  </si>
+  <si>
+    <t>Treatments vary depending on which type of bronchitis is involved. Acute bronchitis may require nothing more than a bronchodilator or cough suppressant. Because acute bronchitis is usually caused by a viral infection, antivirals may be prescribed to stop the advancement of the virus. Chronic bronchitis often requires the use of a bronchodilator, but not much else.</t>
+  </si>
+  <si>
+    <t>During the acute stage, and due to being caused by a contagious viral infection, sinusitis is considered an absolute contraindication for massage. Once the condition has resolved, a client may receive massage.</t>
+  </si>
+  <si>
+    <t>How severe the bunion is determines the treatment. Less severe bunions may require only changing shoes or applying a spent to help reset the toe. More severe forms of a bunion may require surgery to correct the placement of the toe.</t>
+  </si>
+  <si>
+    <t>Treatment of a dislocation in the acute stage primarily involves trying to get the bone back to its normal position, known as reduction. After the joint has returned to its normal position, it is typically immobilized for a number of weeks to reduce recurrence of dislocation and to help the tissues around the joint to heal. If the dislocation is severe and unable to be returned to position, surgery may be required.</t>
+  </si>
+  <si>
+    <t>In the acute stage, a fracture should be considered a local contraindication. After the fracture has healed, massage may be performed on the area. If metal plates, rods, screws, or pins have been placed in the bone, caution should be taken in the area, but massage may still be performed.</t>
+  </si>
+  <si>
+    <t>Treatments for gout include non-steroidal anti-inflammatory drugs and/or corticosteroids to reduce pain and inflammation. Gout may also require the use of certain medications that prevent the creation of uric acid in the body.</t>
+  </si>
+  <si>
+    <t>Kyphosis may vary from mild to severe, depending on the cause. Treatments include exercises that strengthen the muscles of the back, stretching of tight muscles that may contribute to kyphosis, braces to keep the vertebrae properly aligned, and possibly even surgery if it's warranted.</t>
+  </si>
+  <si>
+    <t>Kyphosis is not contraindicated for massage. A person with kyphosis may be uncomfortable lying supine, and may need to be placed into side-lying position for comfort. Massage of the pectoralis minor and serratus anterior muscles may help the scapulae return to their normal locations, which can help straighten the vertebrae.</t>
+  </si>
+  <si>
+    <t>Treatments for osteoporosis include estrogen replacement therapy, and weight-bearing exercise earlier in life before any symptoms of osteoporosis surface. Weight-bearing exercise, such as squats and dead-lifts help to strengthen the bones substantially reducing the risk of developing osteoporosis in older age.</t>
+  </si>
+  <si>
+    <t>In the acute stage, rheumatoid arthritis is considered a local contraindication, as the pain may be too intense for the client to receive massage on the affected area. In general, however, a client with rheumatoid arthritis may receive massage to help ease pain associated with inflammation if the body can tolerate a light-to-medium pressured massage.</t>
+  </si>
+  <si>
+    <t>Cystitis is a bacterial infection, and is t treated with antibiotics.</t>
+  </si>
+  <si>
+    <t>Pyelonephritis is considered an absolute contraindication. A client who suspects a kidney infection should seek medical treatment.</t>
+  </si>
+  <si>
+    <t>As the kidneys begin failing, treatment usually revolves around treating the symptoms to try and slow the disease. Once the kidneys have experienced too much damage and the body is unable to eliminate waste and fluid effectively, dialysis may be performed to remove these substances, either through the blood or through the peritoneum. Kidney transplants may be performed. Instead of removing the damaged kidneys, a doctor will leave the damaged kidneys in the body and attach another kidney. Despite not functioning optimally, the damaged kidneys can still assist the new kidney in filtering waste and fluid, even though it may only be a small amount.</t>
+  </si>
+  <si>
+    <t>Because massage may increase the load on kidneys by helping rid the body of waste, massage is considered an absolute contraindication in clients with renal failure. There is debate amongst kidney specialists on this matter, though, and some believe massage therapy does not do harm in people with renal failure.</t>
+  </si>
+  <si>
+    <t>Treatment is based on the severity of the tumor growth. Surgery to remove the tumor will likely be performed after locating it via mammogram and ultrasound. If a large amount of breast tissue is involved, the breast may be completely removed, known as a mastectomy. Lymph nodes may also be removed to prevent any cancerous tissue from spreading to other parts of the body. Chemotherapy and radiation therapy are performed to kill the remaining cancerous cells.</t>
+  </si>
+  <si>
+    <t>Surgery isn't usually performed for a patient with Hodgkin's Lymphoma. Instead, chemotherapy and radiation therapy are used to destroy the cancerous lymphocytes. Bone marrow transplants may also be performed to stimulate the production of non-cancerous cells.</t>
+  </si>
+  <si>
+    <t>Treatment for leukemia largely depends on the advancement of the condition. If the cancer has metastasized to other parts of the body, treatment would be performed on those areas in conjunction with treating the leukemia. Chemotherapy and radiation therapy are used to target and destroy cancerous cells throughout the body. After chemotherapy and/or radiation therapy, stem cell transplant may be performed to supply the bone with stem cells that grow healthy marrow, which produces functioning leukocytes. Bone marrow itself may also be transplanted into the patient to accomplish the same goal.</t>
+  </si>
+  <si>
+    <t>A massage therapist should obtain a doctor's note approving massage. afterwards, massage may be performed, avoiding any tumors, lymph nodes, or other areas affected.</t>
+  </si>
+  <si>
+    <t>Malignant melanoma, if caught early enough, is easily treatable. Later stages, where it has grown beyond the skin, need more advanced treatments, including surgery to remove any tumors or cancerous lymph nodes, chemotherapy, and radiation therapy.</t>
+  </si>
+  <si>
+    <t>Often times, non-Hodgkin's lymphoma isn't serious and treatment is only required when it becomes advanced. Advanced non-Hodgkin's lymphoma is treated with chemotherapy and radiation therapy to destroy the cancerous cells.</t>
+  </si>
+  <si>
+    <t>Bulimia is most commonly caused by low self-esteem and negative body image. Therefore, the primary treatment is therapy to help the patient overcome these psychological issues.</t>
+  </si>
+  <si>
+    <t>Bulimia is not contraindicated for massage therapy. Massage may help psychologically and improve self esteem and body image. A lighter massage may be indicated, as the client may have atrophied muscles and a weakened body due to lack of nutrients.</t>
+  </si>
+  <si>
+    <t>If a person is diagnosed with depression, antidepressants known as selective serotonin reuptake inhibitors, or SSRIs are usually prescribed to help manage hormone levels and increase serotonin levels in the blood. Talking with a mental health professional may help a person feel better. Exercise and a healthy diet may help with hormone imbalances and increase a person's self esteem, which can aid in lowering depression. Other relaxation techniques, such as massage therapy and yoga may be sought.</t>
+  </si>
+  <si>
+    <t>Depression is not contraindicated for massage therapy. Massage may help relax a person with depression, increase self-esteem and body image, and help manage hormone levels in the body.</t>
+  </si>
+  <si>
+    <t>Determining the root cause of the insomnia and treating that is the primary treatment for insomnia. Reducing stress, getting a person on a set sleep schedule, increasing exercise, meditation, yoga, and massage therapy can all aid in eliminating insomnia. If these methods do not accomplish the goal, medications to help a person sleep may be prescribed. Over-the-counter sleep aids may help a person sleep, but should not be used long-term as a person may develop a dependency for them.</t>
+  </si>
+  <si>
+    <t>Treatment for vertigo is usually dependent on the cause. If calcium is present in the inner ear, certain head and neck movements may be performed to aid the calcium in leaving the inner ear, allowing it to be broken down by the body. Medications may be prescribed to aid with nausea and fluid build up associated with Meniere's disease. Surgery may be performed if there is a tumor present. Often times, no treatment is necessary, as the brain becomes acclimated to vertigo and the symptoms lessen or disappear.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2141,13 +2141,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -2162,13 +2186,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2486,9 +2525,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59AB5575-40B8-4078-9FE6-2447B6E45339}">
   <dimension ref="A1:G118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E116" sqref="E116"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C116" sqref="C116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2500,7 +2539,7 @@
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2523,2606 +2562,2606 @@
     </row>
     <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>15</v>
+        <v>622</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
+        <v>556</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>586</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>623</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>29</v>
+      <c r="G5" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>32</v>
+        <v>557</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>587</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>35</v>
+        <v>25</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>624</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>39</v>
+        <v>588</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>43</v>
+        <v>545</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>47</v>
+        <v>34</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>50</v>
+        <v>558</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>53</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>55</v>
+        <v>546</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>65</v>
+        <v>50</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>70</v>
+        <v>625</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>73</v>
+        <v>547</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>77</v>
+        <v>60</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>81</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>192</v>
+        <v>548</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>193</v>
+        <v>559</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>194</v>
+        <v>176</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>196</v>
+        <v>626</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>82</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>197</v>
+        <v>549</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>199</v>
+        <v>589</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>201</v>
+        <v>627</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>83</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>202</v>
+        <v>550</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>206</v>
+        <v>182</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>208</v>
+        <v>560</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>209</v>
+        <v>590</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>210</v>
+        <v>185</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>211</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>69</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>212</v>
+        <v>187</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>213</v>
+        <v>188</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>214</v>
+        <v>189</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>216</v>
+        <v>190</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>217</v>
+        <v>192</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>219</v>
+        <v>591</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>220</v>
+        <v>628</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>87</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>223</v>
+        <v>561</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>224</v>
+        <v>592</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>226</v>
+        <v>196</v>
+      </c>
+      <c r="G20" s="4" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>227</v>
+        <v>551</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>228</v>
+        <v>562</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>229</v>
+        <v>593</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>231</v>
+        <v>198</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>232</v>
+        <v>200</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>236</v>
+        <v>629</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>80</v>
+        <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>239</v>
+        <v>594</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>241</v>
+        <v>630</v>
+      </c>
+      <c r="G23" s="4" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>244</v>
+        <v>209</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>246</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>248</v>
+        <v>213</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>250</v>
+        <v>215</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>251</v>
+        <v>631</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>94</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>252</v>
+        <v>216</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>253</v>
+        <v>217</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>254</v>
+        <v>218</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>255</v>
+        <v>632</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>257</v>
+        <v>563</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>258</v>
+        <v>220</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>259</v>
+        <v>221</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>260</v>
+        <v>222</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>261</v>
+        <v>223</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>262</v>
+        <v>564</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>265</v>
+        <v>633</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>275</v>
+        <v>233</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G29" s="1" t="s">
-        <v>269</v>
+        <v>228</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>271</v>
+        <v>565</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>274</v>
+        <v>232</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>273</v>
+        <v>634</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>281</v>
+        <v>635</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>85</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>282</v>
+        <v>552</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>283</v>
+        <v>238</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>284</v>
+        <v>239</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>286</v>
+        <v>240</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>86</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>287</v>
+        <v>242</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>288</v>
+        <v>243</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>289</v>
+        <v>244</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="G33" s="1" t="s">
-        <v>291</v>
+        <v>637</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>292</v>
+        <v>553</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>293</v>
+        <v>246</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>294</v>
+        <v>247</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>296</v>
+        <v>248</v>
+      </c>
+      <c r="G34" s="5" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>297</v>
+        <v>250</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>298</v>
+        <v>566</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>299</v>
+        <v>251</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>301</v>
+        <v>252</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>302</v>
+        <v>254</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>306</v>
+        <v>638</v>
+      </c>
+      <c r="G36" s="5" t="s">
+        <v>257</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>307</v>
+        <v>258</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>308</v>
+        <v>567</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>311</v>
+        <v>639</v>
+      </c>
+      <c r="G37" s="5" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>312</v>
+        <v>261</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>313</v>
+        <v>568</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>316</v>
+        <v>263</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>111</v>
+        <v>95</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>317</v>
+        <v>265</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>318</v>
+        <v>569</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>319</v>
+        <v>266</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>321</v>
+        <v>267</v>
+      </c>
+      <c r="G39" s="4" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>322</v>
+        <v>269</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>323</v>
+        <v>270</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>324</v>
+        <v>271</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>326</v>
+        <v>272</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>327</v>
+        <v>273</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>328</v>
+        <v>274</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>329</v>
+        <v>275</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>331</v>
+        <v>276</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>333</v>
+        <v>570</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>334</v>
+        <v>279</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>335</v>
+        <v>280</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>336</v>
+        <v>641</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>337</v>
+        <v>281</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>338</v>
+        <v>282</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>341</v>
+        <v>642</v>
+      </c>
+      <c r="G43" s="4" t="s">
+        <v>284</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>343</v>
+        <v>571</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>344</v>
+        <v>286</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>346</v>
+        <v>643</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>347</v>
+        <v>288</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>348</v>
+        <v>572</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>349</v>
+        <v>289</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>351</v>
+        <v>644</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>115</v>
-      </c>
       <c r="C46" s="1" t="s">
-        <v>352</v>
+        <v>291</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>353</v>
+        <v>573</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>354</v>
+        <v>292</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="G46" s="1" t="s">
-        <v>356</v>
+        <v>645</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>357</v>
+        <v>294</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>358</v>
+        <v>295</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>359</v>
+        <v>595</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>361</v>
+        <v>646</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>362</v>
+        <v>297</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>363</v>
+        <v>574</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>364</v>
+        <v>298</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>366</v>
+        <v>647</v>
+      </c>
+      <c r="G48" s="5" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>367</v>
+        <v>300</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>368</v>
+        <v>301</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>369</v>
+        <v>596</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>370</v>
+        <v>302</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>371</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>372</v>
+        <v>304</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>373</v>
+        <v>575</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>376</v>
+        <v>306</v>
+      </c>
+      <c r="G50" s="5" t="s">
+        <v>648</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>121</v>
+        <v>105</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>377</v>
+        <v>307</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>378</v>
+        <v>576</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>379</v>
+        <v>597</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>380</v>
+        <v>308</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>381</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>122</v>
+        <v>106</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>382</v>
+        <v>310</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>383</v>
+        <v>311</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>384</v>
+        <v>312</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>385</v>
+        <v>313</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>386</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>118</v>
+        <v>102</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>387</v>
+        <v>315</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>388</v>
+        <v>577</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>389</v>
+        <v>316</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>391</v>
+        <v>317</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>392</v>
+        <v>318</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>395</v>
+        <v>578</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>393</v>
+        <v>598</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>394</v>
+        <v>650</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>396</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>397</v>
+        <v>320</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>398</v>
+        <v>579</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>399</v>
+        <v>321</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>401</v>
+        <v>651</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>402</v>
+        <v>323</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>403</v>
+        <v>324</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>404</v>
+        <v>325</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>405</v>
+        <v>652</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>406</v>
+        <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>407</v>
+        <v>327</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>408</v>
+        <v>580</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>409</v>
+        <v>599</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>411</v>
+        <v>328</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>412</v>
+        <v>329</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>413</v>
+        <v>581</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>414</v>
+        <v>330</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>416</v>
+        <v>654</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>417</v>
+        <v>332</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>418</v>
+        <v>582</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>419</v>
+        <v>600</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>421</v>
+        <v>333</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>334</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>422</v>
+        <v>335</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>423</v>
+        <v>583</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>424</v>
+        <v>336</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>426</v>
+        <v>337</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>427</v>
+        <v>338</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>428</v>
+        <v>339</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>429</v>
+        <v>601</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>431</v>
+        <v>340</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>432</v>
+        <v>342</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>433</v>
+        <v>584</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>434</v>
+        <v>343</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>435</v>
+        <v>344</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>436</v>
+        <v>656</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>437</v>
+        <v>345</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>438</v>
+        <v>346</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>439</v>
+        <v>347</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>440</v>
+        <v>348</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>441</v>
+        <v>349</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>442</v>
+        <v>350</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>443</v>
+        <v>351</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>444</v>
+        <v>352</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>446</v>
+        <v>353</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>447</v>
+        <v>354</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>448</v>
+        <v>355</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>449</v>
+        <v>356</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>451</v>
+        <v>658</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>452</v>
+        <v>357</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>453</v>
+        <v>358</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>454</v>
+        <v>359</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>456</v>
+        <v>660</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>457</v>
+        <v>361</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>458</v>
+        <v>362</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>459</v>
+        <v>602</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>461</v>
+        <v>661</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>462</v>
+        <v>364</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>463</v>
+        <v>365</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>464</v>
+        <v>603</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>465</v>
+        <v>662</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>466</v>
+        <v>663</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>467</v>
+        <v>366</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>468</v>
+        <v>367</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>469</v>
+        <v>368</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>471</v>
+        <v>369</v>
+      </c>
+      <c r="G69" s="3" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>472</v>
+        <v>370</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>473</v>
+        <v>371</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>474</v>
+        <v>372</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>475</v>
+        <v>665</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>476</v>
+        <v>666</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>477</v>
+        <v>373</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>478</v>
+        <v>374</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>479</v>
+        <v>375</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>480</v>
+        <v>376</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>481</v>
+        <v>667</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>482</v>
+        <v>377</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>483</v>
+        <v>378</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>486</v>
+        <v>604</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>484</v>
+        <v>668</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>485</v>
+        <v>669</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>487</v>
+        <v>379</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>488</v>
+        <v>380</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>489</v>
+        <v>381</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>490</v>
+        <v>670</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>491</v>
+        <v>382</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>492</v>
+        <v>383</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>493</v>
+        <v>384</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>494</v>
+        <v>605</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>496</v>
+        <v>671</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>497</v>
+        <v>386</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>498</v>
+        <v>387</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>499</v>
+        <v>388</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>501</v>
+        <v>672</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>502</v>
+        <v>390</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>503</v>
+        <v>391</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>504</v>
+        <v>392</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>505</v>
+        <v>393</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>506</v>
+        <v>394</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>507</v>
+        <v>395</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>508</v>
+        <v>396</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>509</v>
+        <v>397</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="G77" s="1" t="s">
-        <v>511</v>
+        <v>398</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>512</v>
+        <v>400</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>513</v>
+        <v>401</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>514</v>
+        <v>606</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>515</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>516</v>
+        <v>402</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>517</v>
+        <v>404</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>518</v>
+        <v>405</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>519</v>
+        <v>406</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="G79" s="1" t="s">
-        <v>521</v>
+        <v>407</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>523</v>
+        <v>409</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>524</v>
+        <v>410</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>525</v>
+        <v>411</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>526</v>
+        <v>412</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>527</v>
+        <v>413</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>528</v>
+        <v>414</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>529</v>
+        <v>415</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>530</v>
+        <v>416</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>531</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>532</v>
+        <v>674</v>
+      </c>
+      <c r="G81" s="5" t="s">
+        <v>417</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>533</v>
+        <v>418</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>534</v>
+        <v>419</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>535</v>
+        <v>420</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>536</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>537</v>
+        <v>421</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>538</v>
+        <v>423</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>539</v>
+        <v>424</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>540</v>
+        <v>425</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>541</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>542</v>
+        <v>675</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>543</v>
+        <v>427</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>544</v>
+        <v>428</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>545</v>
+        <v>429</v>
       </c>
       <c r="F84" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="G84" s="1" t="s">
-        <v>547</v>
+        <v>430</v>
+      </c>
+      <c r="G84" s="5" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>548</v>
+        <v>431</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>549</v>
+        <v>432</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>550</v>
+        <v>433</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="G85" s="1" t="s">
-        <v>552</v>
+        <v>677</v>
+      </c>
+      <c r="G85" s="5" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>553</v>
+        <v>435</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>554</v>
+        <v>436</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>555</v>
+        <v>437</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>556</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>557</v>
+        <v>438</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>558</v>
+        <v>440</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>559</v>
+        <v>441</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>560</v>
+        <v>442</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>561</v>
+        <v>678</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>562</v>
+        <v>679</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>563</v>
+        <v>443</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>564</v>
+        <v>444</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>565</v>
+        <v>445</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>566</v>
+        <v>446</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>567</v>
+        <v>447</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>568</v>
+        <v>448</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>569</v>
+        <v>449</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>570</v>
+        <v>607</v>
       </c>
       <c r="F89" s="1" t="s">
-        <v>571</v>
-      </c>
-      <c r="G89" s="1" t="s">
-        <v>572</v>
+        <v>450</v>
+      </c>
+      <c r="G89" s="5" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>573</v>
+        <v>452</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>574</v>
+        <v>453</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>576</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>577</v>
+        <v>454</v>
+      </c>
+      <c r="G90" s="5" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>578</v>
+        <v>456</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>579</v>
+        <v>457</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>580</v>
+        <v>458</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>581</v>
+        <v>680</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>582</v>
+        <v>459</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>583</v>
+        <v>460</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>584</v>
+        <v>461</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>585</v>
+        <v>609</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>586</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>587</v>
+        <v>462</v>
+      </c>
+      <c r="G92" s="5" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>588</v>
+        <v>463</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>589</v>
+        <v>464</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>590</v>
+        <v>610</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>591</v>
+        <v>465</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>592</v>
+        <v>466</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>593</v>
+        <v>467</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>594</v>
+        <v>468</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>595</v>
+        <v>469</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>597</v>
+        <v>470</v>
+      </c>
+      <c r="G94" s="5" t="s">
+        <v>471</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
+        <v>137</v>
+      </c>
+      <c r="B95" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B95" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="C95" s="1" t="s">
-        <v>598</v>
+        <v>472</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>599</v>
+        <v>473</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>600</v>
+        <v>474</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>601</v>
+        <v>475</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>602</v>
+        <v>476</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>603</v>
+        <v>477</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>604</v>
+        <v>478</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>606</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>607</v>
+        <v>682</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>479</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>608</v>
+        <v>480</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>609</v>
+        <v>481</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>611</v>
+        <v>482</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>614</v>
+        <v>485</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>615</v>
+        <v>486</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>616</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>617</v>
+        <v>487</v>
+      </c>
+      <c r="G98" s="4" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>618</v>
+        <v>488</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>619</v>
+        <v>489</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>621</v>
-      </c>
-      <c r="G99" s="1" t="s">
-        <v>622</v>
+        <v>684</v>
+      </c>
+      <c r="G99" s="4" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>623</v>
+        <v>490</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>624</v>
+        <v>491</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>625</v>
+        <v>492</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>626</v>
+        <v>493</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>627</v>
+        <v>494</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>628</v>
+        <v>495</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>629</v>
+        <v>496</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>630</v>
+        <v>614</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>631</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>632</v>
+        <v>497</v>
+      </c>
+      <c r="G101" s="5" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>633</v>
+        <v>498</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>634</v>
+        <v>499</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>635</v>
+        <v>500</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>637</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>636</v>
+        <v>686</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>501</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>638</v>
+        <v>502</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>639</v>
+        <v>503</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>640</v>
+        <v>504</v>
       </c>
       <c r="F103" s="1" t="s">
-        <v>641</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>642</v>
+        <v>687</v>
+      </c>
+      <c r="G103" s="3" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>643</v>
+        <v>506</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>644</v>
+        <v>507</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>645</v>
+        <v>508</v>
       </c>
       <c r="F104" s="1" t="s">
-        <v>646</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>647</v>
+        <v>688</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>651</v>
+        <v>511</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>648</v>
+        <v>509</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>649</v>
+        <v>510</v>
       </c>
       <c r="F105" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>652</v>
+        <v>690</v>
+      </c>
+      <c r="G105" s="3" t="s">
+        <v>512</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>653</v>
+        <v>513</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>654</v>
+        <v>514</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>655</v>
+        <v>615</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="G106" s="1" t="s">
-        <v>657</v>
+        <v>691</v>
+      </c>
+      <c r="G106" s="3" t="s">
+        <v>544</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>658</v>
+        <v>515</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>659</v>
+        <v>516</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>660</v>
+        <v>616</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>661</v>
-      </c>
-      <c r="G107" s="1" t="s">
-        <v>662</v>
+        <v>517</v>
+      </c>
+      <c r="G107" s="5" t="s">
+        <v>518</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>663</v>
+        <v>519</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>664</v>
+        <v>520</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>665</v>
+        <v>617</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>666</v>
+        <v>521</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>667</v>
+        <v>522</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>668</v>
+        <v>523</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>669</v>
+        <v>524</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>670</v>
+        <v>525</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>671</v>
+        <v>526</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>672</v>
+        <v>527</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>673</v>
+        <v>528</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>674</v>
+        <v>529</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>675</v>
+        <v>618</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>676</v>
+        <v>692</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>677</v>
+        <v>693</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>678</v>
+        <v>530</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>679</v>
+        <v>531</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>680</v>
+        <v>619</v>
       </c>
       <c r="F111" s="1" t="s">
-        <v>681</v>
+        <v>532</v>
       </c>
       <c r="G111" s="1" t="s">
-        <v>682</v>
+        <v>533</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>683</v>
+        <v>534</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>684</v>
+        <v>535</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>685</v>
+        <v>536</v>
       </c>
       <c r="F112" s="1" t="s">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="G112" s="1" t="s">
-        <v>687</v>
+        <v>695</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>688</v>
+        <v>537</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>689</v>
+        <v>538</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>690</v>
+        <v>620</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>692</v>
+        <v>539</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>693</v>
+        <v>540</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>694</v>
+        <v>541</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>695</v>
+        <v>621</v>
       </c>
       <c r="F114" s="1" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="G114" s="1" t="s">
-        <v>697</v>
+        <v>542</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B115" s="2" t="s">
-        <v>522</v>
+        <v>408</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
